--- a/Original/CN/Game/CharaText.xlsx
+++ b/Original/CN/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.114</t>
+    <t xml:space="preserve">EA 23.123</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>

--- a/Original/CN/Game/CharaText.xlsx
+++ b/Original/CN/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="934">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -949,6 +949,24 @@
 「あの地図はどこに置いたか…」
 「またクモが巣を張っている」
 「足元には気をつけて歩いてくれ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"That’s a problem."
+"This too is part of my training."
+"No use stopping it." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「困るんだ、そういうの」
+「これも研鑽だ」
+「止めても無駄か」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ugh..." 
+"This message... to Palmia..." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「この知らせを…パルミアに…」
+「 …う、うぅ 」</t>
   </si>
   <si>
     <t xml:space="preserve">adventurer_fox</t>
@@ -2515,9 +2533,9 @@
 "In that moment, I..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「古き者たちは災いをもたらす」
+    <t xml:space="preserve">「古き者たちは災いをもたらす…」
 「ククク…」
-「神話は、時の砂漠で真実を失うだろう」
+「神話は時の砂漠で真実を失うだろう」
 「神々は傲慢だ」
 「あの時、我は…」</t>
   </si>
@@ -2637,7 +2655,6 @@
 "Hehe, did I take the wrong path again?"
 "A journey astray is &amp;an adventure in its own right."
 "Do you know the name of the wind?"
-"Everyone has their own story."
 "The sound of water is the oldest storyteller."</t>
   </si>
   <si>
@@ -2650,7 +2667,6 @@
 「ふふ、また道を間違えたかな？」
 「迷う旅もまた一つの冒険さ」
 「風の名前を知っているかい？」
-「 誰もが自分の物語を持っているのさ」
 「 水の音は最も古い語り部だ」</t>
   </si>
   <si>
@@ -2859,56 +2875,57 @@
     <t xml:space="preserve">adv_mesherada</t>
   </si>
   <si>
-    <t xml:space="preserve">"This search spans ages, yet my heart knows &amp;thee still, across lifetimes and boundless paths."
+    <t xml:space="preserve">"Ages pass, across lifetimes and boundless &amp;paths, yet my heart remembers."
 "Mine path stretches eternal, but for thee, &amp;it shall never feel too long."
 "Lifetimes pass, yet my heart still yearns for &amp;the one I swore to find."
-"Thou hast a presence faintly familiar."
-"Hath fate finally led me to thee?"
+"Still I walk... still I search."
+"A promise binds me to this journey."
 "The winds carry thy name."
-"Couldst thou truly be the one &amp;I’ve sought across lifetimes?"
-"A promise binds me to this journey..."
-"Dost thou feel the echoes of such a vow?"
-"Thy gaze feels like a forgotten dream..."
-"Could it truly be thee?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この探求は幾年月にも及ぶ」
-「私の心は、無限の道の果てでなお&amp;君を知っている」
-「私の道は永遠に続く」
-「あなたと一緒なら&amp;どんな道も長くは感じない」
-「幾つもの生が過ぎ去ろうとも、&amp;今も誓ったあなたを求めている」
-「あなたにはどこか懐かさを感じる」
-「運命がついに私を導いたの？」
-「風があなたの名を運んでくる」
-「あなたは本当に&amp;探し求めてきた人？」
-「この旅を続けるのは&amp;誓いが私を縛るから」
-「あなたにも誓いの残響が聞こえるかしら？」
-「あなたの眼差しは忘れられた夢のよう…」
-「本当にあなたなの？」</t>
+"Thy gaze feels like a forgotten dream..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「心は決して忘れない。&amp;幾千もの歳月が流れ、幾度の生を越えても」
+「果てしないこの道も&amp;そなたのためなら長すぎることはない」
+「生まれ変わってもなお&amp;心は誓った相手を探し求めている」
+「それでも私は歩み続け&amp;探し続けるだろう」
+「約束が私をこの旅へと縛るのだ」
+「風がそなたの名を運んでくる」
+「そなたのまなざしは&amp;忘れられた夢のように感じる」</t>
   </si>
   <si>
     <t xml:space="preserve">"How impertinent!"
 "Getting in the way of mine search."</t>
   </si>
   <si>
-    <t xml:space="preserve">「なんて無礼なの！」
-「私の探し物の邪魔をするなんて！」</t>
+    <t xml:space="preserve">「なんと無礼な！」
+「私の探し物の邪魔をするなど！」</t>
   </si>
   <si>
     <t xml:space="preserve">"I shall continue my search for thee &amp;in mine next life..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「生まれ変わってもあなたを探し続けるわ…」</t>
+    <t xml:space="preserve">「生まれ変わってもそなたを探し続けよう…」</t>
   </si>
   <si>
     <t xml:space="preserve">"I'm sorry..."
 "These shackles that were once my wish &amp;won't ever release me."</t>
   </si>
   <si>
-    <t xml:space="preserve">「ごめんなさい... 」
+    <t xml:space="preserve">「すまぬ... 」
 「私は鎖に繋がれている」</t>
   </si>
   <si>
+    <t xml:space="preserve">exile_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Exiles..."
+"Exiles...♥"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ついほうしゃ…」
+「追放者…♥」</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -2984,13 +3001,19 @@
     <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Beta 22.90</t>
+    <t xml:space="preserve">EA 23.135</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.27</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.150 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.149</t>
   </si>
   <si>
     <t xml:space="preserve">*叮铃*</t>
@@ -3443,7 +3466,7 @@
 「没一点眼色！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「古老的存在将带来灾难」
+    <t xml:space="preserve">「古老的存在将带来灾难…」
 「呵呵呵…」
 「神话的真相，会在时间的沙漠中消逝」
 「啊啊…诸神是何等傲慢」
@@ -3471,7 +3494,6 @@
 「呵呵，是不是又走错路了？」
 「也罢，迷路的旅行也是一种冒险」
 「你知道风的名字吗？」
-「每个人都有自己的故事」
 「水声是最古老的传颂者」</t>
   </si>
   <si>
@@ -3504,19 +3526,17 @@
 「 这个世界真奇妙呢」</t>
   </si>
   <si>
-    <t xml:space="preserve">「此行探求已历经几许岁月」
-「吾心不见途难长，踏越生世亦识汝」
-「吾之行永无止境」
-「若与汝同行何愁前路漫长」
-「无论几多生世，吾仍寻求如今与汝之誓约」
-「汝身上有些怀念之处」
-「是命运将吾引至此处？」
-「风声携汝名而来」
-「汝果真是吾寻觅之人？」
-「漫漫长旅皆因誓言而行」
-「汝亦可闻誓言残响？」
-「汝之目光宛若遗忘之梦…」
-「果真是汝？」</t>
+    <t xml:space="preserve">「我心不忘。&amp;纵使历经千载岁月，纵使跨过数段生命」
+「此行漫漫无尽头&amp;但为君故觉不远」
+「来生再世身不同&amp;此心仍寻相誓人」
+「不管怎样我都会继续旅途&amp;继续寻找下去」
+「那份约定让我不断地踏上旅途」
+「拂过的风声中带着你的名字」
+「你的眼眸&amp;还如昔时所逝的梦中一般」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「流放者…」
+「流放者…♥」</t>
   </si>
   <si>
     <t xml:space="preserve">「欢迎光临」
@@ -3668,19 +3688,19 @@
     <t xml:space="preserve">「你这变态！」</t>
   </si>
   <si>
+    <t xml:space="preserve">「这种事真让人困扰啊」
+「这也是种考验」
+「说了不行你还是不听吗」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「你在干什么！」
 「你这混蛋」
 「事到如今道歉也晚了」</t>
   </si>
   <si>
     <t xml:space="preserve">「守卫！守卫！」
-「袭击！」
+「有人袭击！」
 「强盗！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「守卫！守卫！」
-「有人搞袭击！」
-「你个强盗！」</t>
   </si>
   <si>
     <t xml:space="preserve">「无礼之徒！」
@@ -3702,9 +3722,9 @@
 「哦啦！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「钱吗？是要钱么吗？」
+    <t xml:space="preserve">「钱吗？你是要钱么吗？」
 「不要用你肮脏的手碰我」
-「周围的人，不要光看不帮忙呀」
+「周围的各位，不要光看不帮忙呀」
 「该死的守财奴！」</t>
   </si>
   <si>
@@ -3827,7 +3847,7 @@
   </si>
   <si>
     <t xml:space="preserve">「何等无礼！」
-「竟敢阻碍吾的寻觅之行！」</t>
+「竟敢阻碍我的寻觅之行！」</t>
   </si>
   <si>
     <t xml:space="preserve">「这才是艺术！」
@@ -3934,6 +3954,10 @@
     <t xml:space="preserve">「爸…爸…」</t>
   </si>
   <si>
+    <t xml:space="preserve">「把这个消息…送到帕罗米亚…」
+「 …呜、呜呜 」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「怎么能在这种地方…！」
 「嘤…」</t>
   </si>
@@ -3951,10 +3975,6 @@
 「啊啊啊…」</t>
   </si>
   <si>
-    <t xml:space="preserve">「饶我一命吧」
-「啊啊啊…」</t>
-  </si>
-  <si>
     <t xml:space="preserve">「我还有想对父亲说的话」
 「什么！怎么能…！」
 「不、不要…」</t>
@@ -4168,11 +4188,6 @@
 「死虫子」</t>
   </si>
   <si>
-    <t xml:space="preserve">「去那个世界后悔吧」
-「废物」
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">「垃圾废物」</t>
   </si>
   <si>
@@ -4288,7 +4303,7 @@
 「被黑暗吞噬吧」</t>
   </si>
   <si>
-    <t xml:space="preserve">「愧悔矣... 」
+    <t xml:space="preserve">「我悔矣... 」
 「铁锁镣铐缚我身」</t>
   </si>
 </sst>
@@ -4446,14 +4461,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4462,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4471,7 +4486,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4485,10 +4500,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C4" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4499,7 +4514,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4508,7 +4523,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4524,10 +4539,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C5" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4549,10 +4564,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C6" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4565,7 +4580,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4574,7 +4589,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4588,10 +4603,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4602,7 +4617,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4611,7 +4626,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4627,10 +4642,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4641,7 +4656,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4650,7 +4665,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4659,7 +4674,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4673,10 +4688,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C9" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4687,7 +4702,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4696,7 +4711,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4705,7 +4720,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4719,10 +4734,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C10" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4733,21 +4748,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4759,10 +4774,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4773,7 +4788,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4782,7 +4797,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4791,7 +4806,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4805,10 +4820,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4819,7 +4834,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4828,7 +4843,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4837,7 +4852,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4851,10 +4866,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4872,7 +4887,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4888,10 +4903,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C14" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4902,7 +4917,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4911,7 +4926,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4920,7 +4935,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4934,10 +4949,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C15" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4973,14 +4988,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4989,7 +5004,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4998,7 +5013,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5012,10 +5027,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C17" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5026,7 +5041,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5035,7 +5050,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5044,7 +5059,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5058,14 +5073,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5074,7 +5089,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5083,7 +5098,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5097,14 +5112,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5113,7 +5128,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5122,7 +5137,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5136,10 +5151,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C20" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5150,7 +5165,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5159,7 +5174,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5168,7 +5183,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5182,14 +5197,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5198,7 +5213,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5207,7 +5222,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5221,14 +5236,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5237,7 +5252,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5246,7 +5261,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5260,10 +5275,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C23" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5285,10 +5300,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C24" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5299,7 +5314,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5308,7 +5323,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5317,7 +5332,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5331,14 +5346,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5363,10 +5378,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C26" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5379,7 +5394,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5388,7 +5403,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5402,14 +5417,14 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5418,7 +5433,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5427,7 +5442,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5441,10 +5456,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C28" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5455,7 +5470,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5464,7 +5479,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5473,7 +5488,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5487,10 +5502,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C29" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5501,7 +5516,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5510,7 +5525,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5519,7 +5534,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5533,10 +5548,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C30" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5547,7 +5562,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5556,7 +5571,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5565,7 +5580,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5579,10 +5594,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C31" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5593,7 +5608,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5602,7 +5617,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5611,7 +5626,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5625,10 +5640,10 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C32" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5638,19 +5653,33 @@
       </c>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="M32"/>
-      <c r="N32"/>
+      <c r="I32" t="s">
+        <v>783</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s">
+        <v>839</v>
+      </c>
+      <c r="M32" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" t="s">
+        <v>210</v>
+      </c>
       <c r="P32"/>
       <c r="Q32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -5659,230 +5688,230 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="M33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O33" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q33" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="J34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="M34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O34" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I35" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="J35" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="M35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N35" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C36" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C37" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="J37" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="M37" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N37" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O37" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q37" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C38" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -5895,10 +5924,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -5913,178 +5942,178 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C40" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="J40" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="M40" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O40" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q40" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C41" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="J41" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K41" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="M41" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N41" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O41" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="P41" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q41" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="J42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="M42" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N42" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O42" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="J43" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K43" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="M43" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N43" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O43" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="P43" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q43" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -6093,524 +6122,524 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="M44" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N44" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O44" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="M45" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N45" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O45" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="P45" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q45" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C46" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D46" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E46" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="J46" t="s">
+        <v>291</v>
+      </c>
+      <c r="K46" t="s">
+        <v>292</v>
+      </c>
+      <c r="L46" t="s">
+        <v>849</v>
+      </c>
+      <c r="M46" t="s">
+        <v>293</v>
+      </c>
+      <c r="N46" t="s">
+        <v>294</v>
+      </c>
+      <c r="O46" t="s">
+        <v>908</v>
+      </c>
+      <c r="P46" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q46" t="s">
         <v>287</v>
-      </c>
-      <c r="K46" t="s">
-        <v>288</v>
-      </c>
-      <c r="L46" t="s">
-        <v>839</v>
-      </c>
-      <c r="M46" t="s">
-        <v>289</v>
-      </c>
-      <c r="N46" t="s">
-        <v>290</v>
-      </c>
-      <c r="O46" t="s">
-        <v>899</v>
-      </c>
-      <c r="P46" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C47" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="J47" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K47" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L47" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="M47" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="P47" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q47" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C48" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="J48" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L48" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="M48" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="P48" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q48" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="J49" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K49" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="M49" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N49" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="P49" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q49" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C50" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C51" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="D51" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E51" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C52" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D52" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C53" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="D53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q53" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C54" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="D54" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="J54" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="M54" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N54" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O54" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="P54" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q54" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K55" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L55" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="M55" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N55" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O55" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="P55" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q55" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B56" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C56" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="D56" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -6644,28 +6673,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C57" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E57" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F57" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="G57" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H57" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I57" t="s">
         <v>165</v>
@@ -6697,19 +6726,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="C58" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E58" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -6737,304 +6766,304 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="G59" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H59" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q59" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C60" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D60" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E60" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F60" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="G60" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H60" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B61" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="G61" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H61" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C62" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D62" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E62" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="J62" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K62" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L62" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="M62" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N62" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O62" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="P62" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q62" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C63" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E63" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="J63" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K63" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L63" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="M63" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N63" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O63" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="P63" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q63" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B64" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C64" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="D64" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="J64" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K64" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L64" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="M64" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N64" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O64" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="P64" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q64" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="G65" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H65" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -7045,111 +7074,111 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="G66" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H66" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C67" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D67" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E67" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="J67" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K67" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L67" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="M67" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N67" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O67" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="P67" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q67" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C68" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D68" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E68" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -7162,19 +7191,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C69" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D69" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -7187,19 +7216,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B70" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C70" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="D70" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E70" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -7212,19 +7241,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C71" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D71" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E71" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -7237,26 +7266,26 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C72" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -7265,72 +7294,72 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C73" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="D73" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E73" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="J73" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K73" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L73" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="M73" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N73" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O73" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="P73" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q73" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C74" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M74"/>
       <c r="N74"/>
@@ -7339,92 +7368,92 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C75" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O75" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="P75" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q75" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C76" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="D76" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L76" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O76" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="P76" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q76" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -7433,32 +7462,32 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="M77" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N77" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C78" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D78" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E78" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
@@ -7471,19 +7500,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C79" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D79" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E79" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -7496,81 +7525,81 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B80" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C80" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="D80" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E80" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="M80" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N80" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C81" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="D81" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E81" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="M81" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N81" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P81"/>
       <c r="Q81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C82" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -7583,100 +7612,100 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C83" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="D83" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E83" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L83" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C84" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="D84" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E84" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="J84" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K84" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L84" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="M84" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N84" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="O84" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="P84" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q84" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C85" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D85" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E85" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -7689,49 +7718,49 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C86" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="D86" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E86" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="M86" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="N86" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O86" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="P86" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q86" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B87" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -7740,94 +7769,94 @@
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="M87" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="N87" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O87" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="P87" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q87" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B88" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="G88" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H88" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C89" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="D89" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E89" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F89" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="G89" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H89" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -7838,28 +7867,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B90" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C90" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="D90" t="s">
+        <v>508</v>
+      </c>
+      <c r="E90" t="s">
         <v>504</v>
       </c>
-      <c r="E90" t="s">
-        <v>500</v>
-      </c>
       <c r="F90" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="G90" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H90" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -7870,28 +7899,28 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C91" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="D91" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E91" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F91" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="G91" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H91" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -7902,58 +7931,58 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B92" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="J92" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K92" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L92" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="M92" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N92" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O92" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="P92" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q92" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C93" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="D93" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E93" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -7966,19 +7995,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B94" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C94" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="D94" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E94" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -7991,28 +8020,28 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B95" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C95" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="D95" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E95" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F95" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="G95" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H95" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -8023,65 +8052,65 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C96" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="D96" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E96" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="J96" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K96" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L96" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="M96" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N96" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O96" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="P96" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q96" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C97" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="D97" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E97" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -8094,19 +8123,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C98" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="D98" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E98" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -8119,19 +8148,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D99" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E99" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -8144,10 +8173,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
@@ -8162,10 +8191,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B101" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
@@ -8174,455 +8203,480 @@
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="M101" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="N101" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C102" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E102" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="J102" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K102" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L102" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="M102" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="N102" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="O102" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="P102" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Q102" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C103" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="D103" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E103" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="J103" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K103" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L103" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="M103" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="N103" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="O103" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="P103" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="Q103" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B104" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C104" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="D104" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E104" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="J104" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K104" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L104" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="M104" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="N104" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O104" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="P104" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q104" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B105" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="C105" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="D105" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E105" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="J105" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="K105" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="L105" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="M105" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="N105" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="O105" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="P105" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="Q105" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B106" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C106" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="D106" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E106" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="J106" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K106" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L106" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="M106" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="N106" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="O106" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="P106" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="Q106" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B107" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C107" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="D107" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E107" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="M107" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="N107" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="O107" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="P107" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="Q107" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B108" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C108" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D108" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E108" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="M108" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="N108" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C109" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="D109" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E109" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="J109" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="K109" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="L109" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="M109" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="O109" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="P109" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="Q109" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B110" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C110" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="D110" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E110" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="J110" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K110" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L110" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="M110" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="N110" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="P110" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="Q110" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="C111" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="D111" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E111" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="J111" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K111" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L111" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="M111" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="N111" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="O111" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="P111" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="Q111" t="s">
-        <v>633</v>
-      </c>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112" t="s">
+        <v>670</v>
+      </c>
+      <c r="C112" t="s">
+        <v>751</v>
+      </c>
+      <c r="D112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E112" t="s">
+        <v>640</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q2"/>

--- a/Original/CN/Game/CharaText.xlsx
+++ b/Original/CN/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1038">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -766,6 +766,17 @@
   </si>
   <si>
     <t xml:space="preserve">@citizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*thud*
+*thump*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ドスン*
+*ズシン*</t>
   </si>
   <si>
     <t xml:space="preserve">horse</t>
@@ -953,7 +964,7 @@
   <si>
     <t xml:space="preserve">"That’s a problem."
 "This too is part of my training."
-"No use stopping it." </t>
+"No use stopping it."</t>
   </si>
   <si>
     <t xml:space="preserve">「困るんだ、そういうの」
@@ -961,12 +972,22 @@
 「止めても無駄か」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Ugh..." 
-"This message... to Palmia..." </t>
+    <t xml:space="preserve">"Ugh..."
+"This message... to Palmia..."</t>
   </si>
   <si>
     <t xml:space="preserve">「この知らせを…パルミアに…」
 「 …う、うぅ 」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Well, that’s taken care of."
+"No hard feelings."
+"That should quiet things down a bit."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「やれやれ、片付いたな」
+「恨まないでくれ」
+「これで少しは静かになる」</t>
   </si>
   <si>
     <t xml:space="preserve">adventurer_fox</t>
@@ -2118,6 +2139,28 @@
     <t xml:space="preserve">*ぷちゅっ*</t>
   </si>
   <si>
+    <t xml:space="preserve">mammoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Trroooomp!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パォオオオオン！」
+「パオオオォン！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Toot..." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パオン…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Trooomp!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パオオオオン！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">snail</t>
   </si>
   <si>
@@ -2696,6 +2739,84 @@
 「もう苦しまなくていい」</t>
   </si>
   <si>
+    <t xml:space="preserve">larnneire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You know the fairy tale where a wicked &amp;witch transforms a dashing prince into an monster?"
+The stunning beauty of Elea's face halts your step a moment.
+"The world is thrown into bedlam and chaos. &amp;We must remain strong in the face of it."
+"The man we saw in Vernis, he just might be..."
+Someone mutters in mysterious ancient language.
+"Elea is already being regarded as a heretic. &amp;Your lofty dignity isn't helping this."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「獣に変えられた王子の童話を知っているかしら？」
+痺れるほど美しいエレアの横顔にあなたは見とれた。
+「この世界は今、大きく変わろうとしているの」
+「ヴェルニースで見かけたあの男…まさか…」
+神秘的な古代の言葉で誰かが囁いた。
+「あなたはプライドが高すぎるのよ。&amp;ただでさえエレアは異端視されているのに」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Do we really have to fight?"
+"Sorry  I don't have time for this."
+The Elean little girl has an angry look in her beautiful cold eyes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「なぜ戦わなければならないの？」
+「悪いけど、遊んでいる暇は無いの」
+エレアの少女は美しい瞳を凍りつくようにとがらせた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"A-ah...I failed my task...this world....this world will..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「うぅ…誰かが…ジャビ王に風の異変を伝えなければ…このままでは…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sorry..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ごめんなさい…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lomias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Wait'll they hear the news we bring."
+"And they think they have problems. Hah!"
+"Hey... This is a fine looking place!"
+"Pah! It would take a child less than a day to &amp;walk to Vernis, we won't be late."
+"Man, that girl at the pub..."
+You hear someone testing the string of his bow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「異形の森、か…」
+「我等のもたらす真実を彼らはどう受け止めるか」
+「ここもなかな住み心地がよさそうじゃないか」
+「ヴェルニースまでは&amp;子供の足でも一日でたどり着けるだろう」
+「あの酒場の娘にはまいったな！」
+誰かが弓矢を手入れする音が聞こえた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You repay kindness with ingratitude?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「恩を仇で返すとはこのことだ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"This is ridiculous..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「おいおい、冗談だろう…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There's always someone I can never understand."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「世の中には、おかしな奴がいるものだ」</t>
+  </si>
+  <si>
     <t xml:space="preserve">raphael</t>
   </si>
   <si>
@@ -2720,13 +2841,100 @@
     <t xml:space="preserve">"Mamaaa!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ママー！」</t>
+    <t xml:space="preserve">「ママン！」</t>
   </si>
   <si>
     <t xml:space="preserve">"Ptui!"</t>
   </si>
   <si>
     <t xml:space="preserve">「ペッ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pursuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You hear the rough breathing of a hunting dogs.
+You feel that you’re being pursued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猟犬の荒い鼻息が聞こえる。
+あなたは追われていると感じた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I’ve found you."
+"Did you think you could escape?"
+"Death has caught up to you."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「見つけたぞ」
+「逃れられるとでも？」
+「死がお前に追いついた」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Is this the will of the gods?"
+"A curse upon you."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「これが神の意思なのか？」
+「お前に呪いあれ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Face judgment."
+"This is the will of the gods."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「裁きを受けるがいい」
+「これは神の意思だ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_nanasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_poina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Idiot..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「バカがよ…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Ngh..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ひゃん…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Next..."
+"Huh..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「次…」
+「ふん…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_raina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"One roasted eggplant!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「焼きナスお待ちぃ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Huh? Me...!?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「え？アタシが…！？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shocky?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ビリビリした？」</t>
   </si>
   <si>
     <t xml:space="preserve">defender</t>
@@ -2915,6 +3123,97 @@
 「私は鎖に繋がれている」</t>
   </si>
   <si>
+    <t xml:space="preserve">adv_yukiimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me's fluffy tail is swinging.
+#me's eyes are following a small animal in the distance.
+#me is starved for cat sniffs and losing her calmness.
+#me is grooming her fur.
+"#onii2♪"
+"What are you doing, #onii2?"
+"What kind of adventures await us?"
+"Have you smelled a cat? &amp;It smells like hay and popcorn."
+"Cats smell too good."
+"I... want to smell a cat."
+"You can brush me, right here! hehe"
+"Meowdy, hows going?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meのもふもふの尻尾が揺れている。
+#meの目は遠くの小動物を追っている。
+猫吸いに飢えた#meは落ち着きを失っている。
+#meは毛づくろいをしている。
+「#onii2♪」
+「なにしてるの、#onii2？」
+「この先に、どんな冒険が待っているのかな？」
+「猫を嗅いだことある？&amp;干し草とポップコーンの香りだよ」
+「猫はね、いい匂いがする」
+「僕…猫が吸いたい」
+「ブラッシングしてもいいよ、この僕に！」
+「にゃっす、調子どう？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me's hair stands on end.
+#me's fluffy tail has doubled in size now.
+#me's eyes are shining brightly.
+"#onii2, move!"
+"I've been waiting for this!"
+"What's up? Are you dying?"
+"What are you DOING?"
+"I'd like to see some blood…you know?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meの毛が逆立っている。
+#meのもふもふの尻尾は倍の大きさになっている。
+#meの目は爛々と輝いている。
+「#onii2、どいて」
+「待ってました〜！」
+「どうしたの？死んじゃう？」
+「何すんの！」
+「血が見たい…ね？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"No!"
+"Be careful..."
+"That's a tough one…"
+"Why...?"
+"I'm sorry, I... let my guard down."
+"Let's meet again soon…"
+"For now, this is the best I can do…"
+"Besides, it isn't a futile effort...right?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「そいつ殺せない！」
+「ダメぇ！」
+「気をつけて…」
+「こいつ、手強いよ…」
+「なんで…？」
+「ごめん、僕…油断しちゃった」
+「また逢えるよ…」
+「今は、これが精一杯…」
+「無駄でもなかった…でしょ？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me stretches out.
+#me is wiping the returned blood.
+"You're looking good, #onii2."
+"Well done."
+"I wanna fight more."
+"Come on, play with me some more."
+"Fufun."
+"Hehe."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meはぐーっと伸びをした。
+#meは返り血を拭っている。
+「良い感じだね、#onii2」
+「よくできました」
+「もっと戦いたい」
+「ほらほら、もっと僕と遊ぼ」
+「ふふん」</t>
+  </si>
+  <si>
     <t xml:space="preserve">exile_girl</t>
   </si>
   <si>
@@ -2926,6 +3225,24 @@
 「追放者…♥」</t>
   </si>
   <si>
+    <t xml:space="preserve">lurie_boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"GROOOOAAARRR!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「グウォオオォォオオン！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Whimper..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"GRROOAARR!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「グウォォオオ！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -2935,7 +3252,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.123</t>
+    <t xml:space="preserve">EA 23.190</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -2953,6 +3270,9 @@
     <t xml:space="preserve">Alpha 20.45</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.198</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.61 fix 2</t>
   </si>
   <si>
@@ -3007,10 +3327,19 @@
     <t xml:space="preserve">Alpha 20.27</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.177</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.66</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.150 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.155</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.149</t>
@@ -3114,6 +3443,10 @@
 「他迟早变秃子」
 「呼哈哈哈哈」
 「呼哈哈！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*咚*
+*邦*</t>
   </si>
   <si>
     <t xml:space="preserve">*啪咯啪咯*
@@ -3301,9 +3634,9 @@
 「这片土地很适合居住啊」</t>
   </si>
   <si>
-    <t xml:space="preserve">你看着艾莱亚人那美到令人沉醉的侧脸入了迷。
+    <t xml:space="preserve">你看着那像艾莱亚人一样美丽的姑娘的侧脸入了迷。
 「你听过那个王子被变成野兽的童话吗？」
-「要是赛特大人能安然无恙就好了…」
+「要是赛特大人能平安无恙就好了…」
 「正好能好好休息一下了」
 「你说话总是这么损啊…」
 </t>
@@ -3497,10 +3830,30 @@
 「水声是最古老的传颂者」</t>
   </si>
   <si>
+    <t xml:space="preserve">「你听过那个王子被变成野兽的童话吗？」
+你看着艾莱亚人美到令人沉醉的侧脸入了迷。
+「这个世界，正在发生巨大的改变」
+「在韦尔尼斯看到的那个男人…难道是…」
+不知谁在低吟着神秘的古语。
+「你的自尊心太强了。&amp;我们艾莱亚人本来就到处受人排斥了」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「异形之森吗…」
+「他们要怎样面对我们带来的真相呢」
+「这地方也挺适合居住呢」
+「从这出发，就算是小孩的脚力也能一天抵达韦尔尼斯了」
+「那个酒馆的女孩真棒！」
+你听见什么人拉箭上弦的声音。</t>
+  </si>
+  <si>
     <t xml:space="preserve">「那种极品的女人可真不多」
 「只要我出手，任何女人都能轻松拿下」
  *舔舔舔*
 「我生来就是个罪孽深重的男人啊」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你听到猎犬粗重的鼻息。
+你感觉自己正被追踪。</t>
   </si>
   <si>
     <t xml:space="preserve">感觉有人在保护着你。</t>
@@ -3535,6 +3888,20 @@
 「你的眼眸&amp;还如昔时所逝的梦中一般」</t>
   </si>
   <si>
+    <t xml:space="preserve">#me软乎乎的尾巴在摇晃着。
+#me的目光追随着远处的小动物。
+渴望吸猫的#me失去了冷静。
+#me在梳理毛发。
+「#onii2♪」
+「你在做什么呀，#onii2？」
+「不知道前方又有怎样的冒险在等着我们呢？」
+「你闻过猫吗？&amp;那是干草和爆米花的味道哦」
+「猫咪的味道特别好闻」
+「我…好想吸猫」
+「可以帮我梳毛哦！」
+「喵喵，情况如何？」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「流放者…」
 「流放者…♥」</t>
   </si>
@@ -3762,7 +4129,7 @@
 「杀了他！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「真是的」
+    <t xml:space="preserve">「哎呀呀」
 「那么急着送死么？」
 「真让人困扰啊」</t>
   </si>
@@ -3793,6 +4160,10 @@
     <t xml:space="preserve">「呜呜汪！」</t>
   </si>
   <si>
+    <t xml:space="preserve">「吼噢噢噢噢！」
+「嗷嗷嗷嗷！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「这就有点过分了哟！」
 「需要给点惩罚了！」</t>
   </si>
@@ -3830,7 +4201,27 @@
 「如果这就是你想要的，那就来吧」</t>
   </si>
   <si>
+    <t xml:space="preserve">「为什么我们不得不战斗？」
+「不好意思，我可没有时间陪你玩」
+艾莱亚少女美丽的眼眸中透露出冰冷的神色。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「这就是所谓的恩将仇报」
+「你这家伙，成为那个人的走狗了吗？」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「让你看看什么才是真正的男人」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「找到你了」
+「你以为自己逃得掉？」
+「死亡已经追上了你」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「笨蛋…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「烤茄子一位！」</t>
   </si>
   <si>
     <t xml:space="preserve">「杂鱼！！」 
@@ -3848,6 +4239,19 @@
   <si>
     <t xml:space="preserve">「何等无礼！」
 「竟敢阻碍我的寻觅之行！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me炸毛了。
+#me的尾巴膨胀到了两倍大。
+#me的眼睛闪闪发光。
+「#onii2，让开」
+「就等你这样做了～！」
+「怎么了？想找死吗？」
+「你干嘛！」
+「好想见血啊…你说呢？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「咕嗷嗷嗷嗷嗷嗷！」</t>
   </si>
   <si>
     <t xml:space="preserve">「这才是艺术！」
@@ -4051,6 +4455,9 @@
     <t xml:space="preserve">*波啾*</t>
   </si>
   <si>
+    <t xml:space="preserve">「嗷…」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「啾—！」</t>
   </si>
   <si>
@@ -4091,7 +4498,23 @@
     <t xml:space="preserve">「我要去你那边了」</t>
   </si>
   <si>
+    <t xml:space="preserve">「呜…谁来…谁来把风的异常变化告诉贾比王…这样下去…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「喂喂，开玩笑的吧…」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「妈妈—！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「这难道是神的意志？」
+「受诅咒吧」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「呀嗯…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「咦？我输了…！？」</t>
   </si>
   <si>
     <t xml:space="preserve">「主啊，请原谅我……」</t>
@@ -4108,6 +4531,20 @@
   </si>
   <si>
     <t xml:space="preserve">「只好来世再寻尔…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「我杀不掉这家伙！」
+「不要！」
+「小心…」
+「这家伙，太强了…」
+「为什么…？」
+「对不起，我…大意了」
+「一定还会再见的…」
+「这就是我的极限了…」
+「应该不是徒劳无功吧…？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「呜嗷…」</t>
   </si>
   <si>
     <t xml:space="preserve">「我失手杀人了！」</t>
@@ -4176,6 +4613,11 @@
     <t xml:space="preserve">「真是个丢脸的大人！」</t>
   </si>
   <si>
+    <t xml:space="preserve">「哎呀呀，这下老实了吧」
+「别恨我哦」
+「这样能安静一点了吧」</t>
+  </si>
+  <si>
     <t xml:space="preserve">#self让尾巴蓬松起来了。
 #self激烈地摇晃着尾巴。</t>
   </si>
@@ -4248,6 +4690,9 @@
   <si>
     <t xml:space="preserve">「汪！」
 「嗷嗷！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「吼噢噢噢噢！」</t>
   </si>
   <si>
     <t xml:space="preserve">「这个废柴!」</t>
@@ -4285,7 +4730,24 @@
 「你已经不会再痛苦了」</t>
   </si>
   <si>
+    <t xml:space="preserve">「对不起…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「这世界上就是有奇怪的家伙」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「呸」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「接受审判吧」
+「这就是神的意志」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「下一个…」
+「哼…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「被电麻了吧？」</t>
   </si>
   <si>
     <t xml:space="preserve">防卫者掸去了衣服上的灰尘。
@@ -4305,6 +4767,18 @@
   <si>
     <t xml:space="preserve">「我悔矣... 」
 「铁锁镣铐缚我身」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me伸了个大懒腰。
+#me在擦拭溅到身上的血迹。
+「还不错嘛，#onii2」
+「做得很好」
+「还想继续战斗呢」
+「来来来，再陪我玩玩吧」
+「哼哼」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「咕嗷嗷嗷嗷！」</t>
   </si>
 </sst>
 </file>
@@ -4461,14 +4935,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>765</v>
+        <v>844</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4477,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>817</v>
+        <v>904</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4486,7 +4960,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>881</v>
+        <v>976</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4500,10 +4974,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="C4" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4514,7 +4988,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4523,7 +4997,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>818</v>
+        <v>905</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4539,10 +5013,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="C5" t="s">
-        <v>672</v>
+        <v>746</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4564,10 +5038,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4580,7 +5054,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>819</v>
+        <v>906</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4589,7 +5063,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>882</v>
+        <v>977</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4603,10 +5077,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C7" t="s">
-        <v>674</v>
+        <v>748</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4617,7 +5091,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>766</v>
+        <v>845</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4626,7 +5100,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>820</v>
+        <v>907</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4642,10 +5116,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C8" t="s">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4656,7 +5130,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>767</v>
+        <v>846</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4665,7 +5139,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>821</v>
+        <v>908</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4674,7 +5148,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>883</v>
+        <v>978</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4688,10 +5162,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C9" t="s">
-        <v>676</v>
+        <v>750</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4702,7 +5176,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>768</v>
+        <v>847</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4711,7 +5185,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>822</v>
+        <v>909</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4720,7 +5194,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>884</v>
+        <v>979</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4734,10 +5208,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C10" t="s">
-        <v>677</v>
+        <v>751</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4748,21 +5222,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>769</v>
+        <v>848</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>823</v>
+        <v>910</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>885</v>
+        <v>980</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4774,10 +5248,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="C11" t="s">
-        <v>678</v>
+        <v>752</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4788,7 +5262,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>770</v>
+        <v>849</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4797,7 +5271,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>824</v>
+        <v>911</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4806,7 +5280,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>886</v>
+        <v>981</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4820,10 +5294,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="C12" t="s">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4834,7 +5308,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>771</v>
+        <v>850</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4843,7 +5317,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>825</v>
+        <v>912</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4852,7 +5326,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>887</v>
+        <v>982</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4866,10 +5340,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="C13" t="s">
-        <v>680</v>
+        <v>754</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4887,7 +5361,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>826</v>
+        <v>913</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4903,10 +5377,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>755</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4917,7 +5391,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>772</v>
+        <v>851</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4926,7 +5400,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>827</v>
+        <v>914</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4935,7 +5409,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>888</v>
+        <v>983</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4949,10 +5423,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="C15" t="s">
-        <v>682</v>
+        <v>756</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4988,14 +5462,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>773</v>
+        <v>852</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5004,7 +5478,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>828</v>
+        <v>915</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5013,7 +5487,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>889</v>
+        <v>984</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5027,10 +5501,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="C17" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5041,7 +5515,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5050,7 +5524,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5059,7 +5533,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5073,14 +5547,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>774</v>
+        <v>853</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5089,7 +5563,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>829</v>
+        <v>916</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5098,7 +5572,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>890</v>
+        <v>985</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5112,14 +5586,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>774</v>
+        <v>853</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5128,7 +5602,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>830</v>
+        <v>917</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5137,7 +5611,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>891</v>
+        <v>986</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5151,10 +5625,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C20" t="s">
-        <v>684</v>
+        <v>758</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5165,7 +5639,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>775</v>
+        <v>854</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5174,7 +5648,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>831</v>
+        <v>918</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5183,7 +5657,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>892</v>
+        <v>987</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5197,14 +5671,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>776</v>
+        <v>855</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5213,7 +5687,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>832</v>
+        <v>919</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5222,7 +5696,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>893</v>
+        <v>988</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5236,14 +5710,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>777</v>
+        <v>856</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5252,7 +5726,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>833</v>
+        <v>920</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5261,7 +5735,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>894</v>
+        <v>989</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5275,10 +5749,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="C23" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5300,10 +5774,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C24" t="s">
-        <v>686</v>
+        <v>760</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5314,7 +5788,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>778</v>
+        <v>857</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5323,7 +5797,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>834</v>
+        <v>921</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5332,7 +5806,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>895</v>
+        <v>990</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5346,14 +5820,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>779</v>
+        <v>858</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5378,10 +5852,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="C26" t="s">
-        <v>687</v>
+        <v>761</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5391,156 +5865,142 @@
       </c>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26" t="s">
-        <v>835</v>
-      </c>
-      <c r="M26" t="s">
-        <v>169</v>
-      </c>
-      <c r="N26" t="s">
-        <v>170</v>
-      </c>
-      <c r="O26" t="s">
-        <v>896</v>
-      </c>
-      <c r="P26" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>172</v>
-      </c>
+      <c r="I26" t="s">
+        <v>761</v>
+      </c>
+      <c r="J26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>641</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
+        <v>711</v>
+      </c>
+      <c r="C27" t="s">
+        <v>762</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" t="s">
-        <v>780</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>922</v>
+      </c>
+      <c r="M27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
+        <v>991</v>
+      </c>
+      <c r="P27" t="s">
         <v>174</v>
       </c>
-      <c r="K27" t="s">
+      <c r="Q27" t="s">
         <v>175</v>
-      </c>
-      <c r="L27" t="s">
-        <v>836</v>
-      </c>
-      <c r="M27" t="s">
-        <v>176</v>
-      </c>
-      <c r="N27" t="s">
-        <v>177</v>
-      </c>
-      <c r="O27" t="s">
-        <v>897</v>
-      </c>
-      <c r="P27" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>650</v>
-      </c>
-      <c r="C28" t="s">
-        <v>688</v>
-      </c>
-      <c r="D28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>781</v>
+        <v>859</v>
       </c>
       <c r="J28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>837</v>
+        <v>923</v>
       </c>
       <c r="M28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s">
-        <v>898</v>
+        <v>992</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="C29" t="s">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>781</v>
+        <v>860</v>
       </c>
       <c r="J29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s">
-        <v>837</v>
+        <v>924</v>
       </c>
       <c r="M29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O29" t="s">
-        <v>898</v>
+        <v>993</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30">
@@ -5548,10 +6008,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>651</v>
+        <v>722</v>
       </c>
       <c r="C30" t="s">
-        <v>690</v>
+        <v>764</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5562,31 +6022,31 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>781</v>
+        <v>860</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L30" t="s">
-        <v>837</v>
+        <v>924</v>
       </c>
       <c r="M30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O30" t="s">
-        <v>898</v>
+        <v>993</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
@@ -5594,10 +6054,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>651</v>
+        <v>722</v>
       </c>
       <c r="C31" t="s">
-        <v>691</v>
+        <v>765</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5608,87 +6068,108 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>782</v>
+        <v>860</v>
       </c>
       <c r="J31" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s">
-        <v>838</v>
+        <v>924</v>
       </c>
       <c r="M31" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O31" t="s">
-        <v>899</v>
+        <v>993</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="Q31" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="C32" t="s">
-        <v>692</v>
+        <v>766</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>783</v>
+        <v>861</v>
       </c>
       <c r="J32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s">
-        <v>839</v>
+        <v>925</v>
       </c>
       <c r="M32" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N32" t="s">
-        <v>210</v>
-      </c>
-      <c r="P32"/>
-      <c r="Q32"/>
+        <v>204</v>
+      </c>
+      <c r="O32" t="s">
+        <v>994</v>
+      </c>
+      <c r="P32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>642</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
+        <v>711</v>
+      </c>
+      <c r="C33" t="s">
+        <v>767</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="J33"/>
-      <c r="K33"/>
+      <c r="I33" t="s">
+        <v>862</v>
+      </c>
+      <c r="J33" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" t="s">
+        <v>211</v>
+      </c>
       <c r="L33" t="s">
-        <v>840</v>
+        <v>926</v>
       </c>
       <c r="M33" t="s">
         <v>212</v>
@@ -5697,7 +6178,7 @@
         <v>213</v>
       </c>
       <c r="O33" t="s">
-        <v>900</v>
+        <v>995</v>
       </c>
       <c r="P33" t="s">
         <v>214</v>
@@ -5711,190 +6192,169 @@
         <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34" t="s">
-        <v>784</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34" t="s">
+        <v>927</v>
+      </c>
+      <c r="M34" t="s">
         <v>217</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" t="s">
         <v>218</v>
       </c>
-      <c r="L34" t="s">
-        <v>841</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
+        <v>996</v>
+      </c>
+      <c r="P34" t="s">
         <v>219</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>220</v>
-      </c>
-      <c r="O34" t="s">
-        <v>901</v>
-      </c>
-      <c r="P34" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" t="s">
-        <v>752</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>863</v>
+      </c>
+      <c r="J35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" t="s">
+        <v>928</v>
+      </c>
+      <c r="M35" t="s">
         <v>224</v>
       </c>
-      <c r="H35" t="s">
+      <c r="N35" t="s">
         <v>225</v>
       </c>
-      <c r="I35" t="s">
-        <v>785</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="O35" t="s">
+        <v>997</v>
+      </c>
+      <c r="P35" t="s">
         <v>226</v>
       </c>
-      <c r="K35" t="s">
+      <c r="Q35" t="s">
         <v>227</v>
-      </c>
-      <c r="L35" t="s">
-        <v>842</v>
-      </c>
-      <c r="M35" t="s">
-        <v>228</v>
-      </c>
-      <c r="N35" t="s">
-        <v>229</v>
-      </c>
-      <c r="O35" t="s">
-        <v>902</v>
-      </c>
-      <c r="P35" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" t="s">
+        <v>711</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>831</v>
+      </c>
+      <c r="G36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" t="s">
+        <v>864</v>
+      </c>
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
-        <v>652</v>
-      </c>
-      <c r="C36" t="s">
-        <v>693</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="L36" t="s">
+        <v>929</v>
+      </c>
+      <c r="M36" t="s">
         <v>233</v>
       </c>
-      <c r="E36" t="s">
+      <c r="N36" t="s">
         <v>234</v>
       </c>
-      <c r="F36" t="s">
-        <v>235</v>
-      </c>
-      <c r="G36" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" t="s">
-        <v>235</v>
-      </c>
-      <c r="K36" t="s">
-        <v>235</v>
-      </c>
-      <c r="L36" t="s">
-        <v>235</v>
-      </c>
-      <c r="M36" t="s">
-        <v>235</v>
-      </c>
-      <c r="N36" t="s">
-        <v>235</v>
-      </c>
       <c r="O36" t="s">
-        <v>235</v>
+        <v>998</v>
       </c>
       <c r="P36" t="s">
         <v>235</v>
       </c>
       <c r="Q36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="C37" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
-        <v>753</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
         <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>785</v>
+        <v>240</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s">
-        <v>842</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="O37" t="s">
-        <v>902</v>
+        <v>240</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q37" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -5902,10 +6362,10 @@
         <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="C38" t="s">
-        <v>695</v>
+        <v>769</v>
       </c>
       <c r="D38" t="s">
         <v>242</v>
@@ -5913,24 +6373,59 @@
       <c r="E38" t="s">
         <v>243</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="F38" t="s">
+        <v>832</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" t="s">
+        <v>245</v>
+      </c>
+      <c r="I38" t="s">
+        <v>864</v>
+      </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s">
+        <v>929</v>
+      </c>
+      <c r="M38" t="s">
+        <v>233</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s">
+        <v>998</v>
+      </c>
+      <c r="P38" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>641</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
+        <v>711</v>
+      </c>
+      <c r="C39" t="s">
+        <v>770</v>
+      </c>
+      <c r="D39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" t="s">
+        <v>248</v>
+      </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="J39"/>
@@ -5942,187 +6437,173 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>645</v>
-      </c>
-      <c r="C40" t="s">
-        <v>696</v>
-      </c>
-      <c r="D40" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" t="s">
-        <v>247</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40" t="s">
-        <v>786</v>
-      </c>
-      <c r="J40" t="s">
-        <v>248</v>
-      </c>
-      <c r="K40" t="s">
-        <v>249</v>
-      </c>
-      <c r="L40" t="s">
-        <v>843</v>
-      </c>
-      <c r="M40" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" t="s">
-        <v>251</v>
-      </c>
-      <c r="O40" t="s">
-        <v>903</v>
-      </c>
-      <c r="P40" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>253</v>
-      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="C41" t="s">
-        <v>697</v>
+        <v>771</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>787</v>
+        <v>865</v>
       </c>
       <c r="J41" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s">
+        <v>930</v>
+      </c>
+      <c r="M41" t="s">
+        <v>255</v>
+      </c>
+      <c r="N41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="s">
+        <v>999</v>
+      </c>
+      <c r="P41" t="s">
         <v>257</v>
       </c>
-      <c r="K41" t="s">
+      <c r="Q41" t="s">
         <v>258</v>
-      </c>
-      <c r="L41" t="s">
-        <v>844</v>
-      </c>
-      <c r="M41" t="s">
-        <v>259</v>
-      </c>
-      <c r="N41" t="s">
-        <v>260</v>
-      </c>
-      <c r="O41" t="s">
-        <v>904</v>
-      </c>
-      <c r="P41" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>654</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
+        <v>711</v>
+      </c>
+      <c r="C42" t="s">
+        <v>772</v>
+      </c>
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" t="s">
+        <v>261</v>
+      </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>788</v>
+        <v>866</v>
       </c>
       <c r="J42" t="s">
+        <v>262</v>
+      </c>
+      <c r="K42" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" t="s">
+        <v>931</v>
+      </c>
+      <c r="M42" t="s">
         <v>264</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>265</v>
       </c>
-      <c r="L42" t="s">
-        <v>845</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="O42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P42" t="s">
         <v>266</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>267</v>
-      </c>
-      <c r="O42" t="s">
-        <v>905</v>
-      </c>
-      <c r="P42"/>
-      <c r="Q42" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>789</v>
+        <v>867</v>
       </c>
       <c r="J43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" t="s">
         <v>270</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>932</v>
+      </c>
+      <c r="M43" t="s">
         <v>271</v>
       </c>
-      <c r="L43" t="s">
-        <v>846</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>272</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P43"/>
+      <c r="Q43" t="s">
         <v>273</v>
-      </c>
-      <c r="O43" t="s">
-        <v>906</v>
-      </c>
-      <c r="P43" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="J44"/>
-      <c r="K44"/>
+      <c r="I44" t="s">
+        <v>868</v>
+      </c>
+      <c r="J44" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" t="s">
+        <v>276</v>
+      </c>
       <c r="L44" t="s">
-        <v>847</v>
+        <v>933</v>
       </c>
       <c r="M44" t="s">
         <v>277</v>
@@ -6131,7 +6612,7 @@
         <v>278</v>
       </c>
       <c r="O44" t="s">
-        <v>907</v>
+        <v>1002</v>
       </c>
       <c r="P44" t="s">
         <v>279</v>
@@ -6145,191 +6626,184 @@
         <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>648</v>
-      </c>
-      <c r="C45" t="s">
-        <v>283</v>
-      </c>
-      <c r="D45" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" t="s">
-        <v>283</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>848</v>
+        <v>934</v>
       </c>
       <c r="M45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N45" t="s">
+        <v>283</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P45" t="s">
         <v>284</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>285</v>
-      </c>
-      <c r="O45" t="s">
-        <v>908</v>
-      </c>
-      <c r="P45" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" t="s">
         <v>288</v>
       </c>
-      <c r="B46" t="s">
-        <v>645</v>
-      </c>
-      <c r="C46" t="s">
-        <v>698</v>
-      </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46" t="s">
-        <v>790</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46" t="s">
+        <v>935</v>
+      </c>
+      <c r="M46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" t="s">
+        <v>290</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P46" t="s">
         <v>291</v>
       </c>
-      <c r="K46" t="s">
+      <c r="Q46" t="s">
         <v>292</v>
-      </c>
-      <c r="L46" t="s">
-        <v>849</v>
-      </c>
-      <c r="M46" t="s">
-        <v>293</v>
-      </c>
-      <c r="N46" t="s">
-        <v>294</v>
-      </c>
-      <c r="O46" t="s">
-        <v>908</v>
-      </c>
-      <c r="P46" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" t="s">
+        <v>715</v>
+      </c>
+      <c r="C47" t="s">
+        <v>773</v>
+      </c>
+      <c r="D47" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" t="s">
         <v>295</v>
-      </c>
-      <c r="B47" t="s">
-        <v>641</v>
-      </c>
-      <c r="C47" t="s">
-        <v>699</v>
-      </c>
-      <c r="D47" t="s">
-        <v>296</v>
-      </c>
-      <c r="E47" t="s">
-        <v>297</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>791</v>
+        <v>869</v>
       </c>
       <c r="J47" t="s">
+        <v>296</v>
+      </c>
+      <c r="K47" t="s">
+        <v>297</v>
+      </c>
+      <c r="L47" t="s">
+        <v>936</v>
+      </c>
+      <c r="M47" t="s">
         <v>298</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N47" t="s">
         <v>299</v>
       </c>
-      <c r="L47" t="s">
-        <v>850</v>
-      </c>
-      <c r="M47" t="s">
-        <v>300</v>
-      </c>
-      <c r="N47" t="s">
-        <v>301</v>
-      </c>
       <c r="O47" t="s">
-        <v>909</v>
+        <v>1004</v>
       </c>
       <c r="P47" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Q47" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>645</v>
+        <v>711</v>
       </c>
       <c r="C48" t="s">
-        <v>700</v>
+        <v>774</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>792</v>
+        <v>870</v>
       </c>
       <c r="J48" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" t="s">
+        <v>304</v>
+      </c>
+      <c r="L48" t="s">
+        <v>937</v>
+      </c>
+      <c r="M48" t="s">
+        <v>305</v>
+      </c>
+      <c r="N48" t="s">
+        <v>306</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P48" t="s">
         <v>307</v>
       </c>
-      <c r="K48" t="s">
+      <c r="Q48" t="s">
         <v>308</v>
-      </c>
-      <c r="L48" t="s">
-        <v>851</v>
-      </c>
-      <c r="M48" t="s">
-        <v>309</v>
-      </c>
-      <c r="N48" t="s">
-        <v>310</v>
-      </c>
-      <c r="O48" t="s">
-        <v>851</v>
-      </c>
-      <c r="P48" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" t="s">
+        <v>715</v>
+      </c>
+      <c r="C49" t="s">
+        <v>775</v>
+      </c>
+      <c r="D49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" t="s">
         <v>311</v>
       </c>
-      <c r="B49" t="s">
-        <v>641</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>793</v>
+        <v>871</v>
       </c>
       <c r="J49" t="s">
         <v>312</v>
@@ -6338,7 +6812,7 @@
         <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>852</v>
+        <v>938</v>
       </c>
       <c r="M49" t="s">
         <v>314</v>
@@ -6347,355 +6821,341 @@
         <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="P49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>655</v>
-      </c>
-      <c r="C50" t="s">
-        <v>701</v>
-      </c>
-      <c r="D50" t="s">
-        <v>319</v>
-      </c>
-      <c r="E50" t="s">
-        <v>320</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>321</v>
+        <v>872</v>
       </c>
       <c r="J50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L50" t="s">
-        <v>321</v>
+        <v>939</v>
       </c>
       <c r="M50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O50" t="s">
-        <v>321</v>
+        <v>1006</v>
       </c>
       <c r="P50" t="s">
         <v>321</v>
       </c>
       <c r="Q50" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="C51" t="s">
-        <v>702</v>
+        <v>776</v>
       </c>
       <c r="D51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>655</v>
+        <v>727</v>
       </c>
       <c r="C52" t="s">
-        <v>703</v>
+        <v>777</v>
       </c>
       <c r="D52" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>655</v>
+        <v>726</v>
       </c>
       <c r="C53" t="s">
-        <v>704</v>
+        <v>778</v>
       </c>
       <c r="D53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="C54" t="s">
-        <v>705</v>
+        <v>779</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>794</v>
+        <v>326</v>
       </c>
       <c r="J54" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K54" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s">
-        <v>853</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N54" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="O54" t="s">
-        <v>911</v>
+        <v>326</v>
       </c>
       <c r="P54" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="Q54" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>641</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
+        <v>713</v>
+      </c>
+      <c r="C55" t="s">
+        <v>780</v>
+      </c>
+      <c r="D55" t="s">
+        <v>337</v>
+      </c>
+      <c r="E55" t="s">
+        <v>338</v>
+      </c>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>795</v>
+        <v>873</v>
       </c>
       <c r="J55" t="s">
+        <v>339</v>
+      </c>
+      <c r="K55" t="s">
+        <v>340</v>
+      </c>
+      <c r="L55" t="s">
+        <v>940</v>
+      </c>
+      <c r="M55" t="s">
         <v>341</v>
       </c>
-      <c r="K55" t="s">
+      <c r="N55" t="s">
         <v>342</v>
       </c>
-      <c r="L55" t="s">
-        <v>854</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P55" t="s">
         <v>343</v>
       </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
         <v>344</v>
-      </c>
-      <c r="O55" t="s">
-        <v>912</v>
-      </c>
-      <c r="P55" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>641</v>
-      </c>
-      <c r="C56" t="s">
-        <v>706</v>
-      </c>
-      <c r="D56" t="s">
-        <v>348</v>
-      </c>
-      <c r="E56" t="s">
-        <v>349</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>165</v>
+        <v>874</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>346</v>
       </c>
       <c r="K56" t="s">
-        <v>165</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s">
-        <v>165</v>
+        <v>941</v>
       </c>
       <c r="M56" t="s">
-        <v>165</v>
+        <v>348</v>
       </c>
       <c r="N56" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="O56" t="s">
-        <v>165</v>
+        <v>1008</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="Q56" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C57" t="s">
-        <v>707</v>
+        <v>781</v>
       </c>
       <c r="D57" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>352</v>
-      </c>
-      <c r="F57" t="s">
-        <v>754</v>
-      </c>
-      <c r="G57" t="s">
-        <v>353</v>
-      </c>
-      <c r="H57" t="s">
         <v>354</v>
       </c>
+      <c r="G57"/>
+      <c r="H57"/>
       <c r="I57" t="s">
         <v>165</v>
       </c>
@@ -6729,10 +7189,10 @@
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>657</v>
+        <v>711</v>
       </c>
       <c r="C58" t="s">
-        <v>708</v>
+        <v>782</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -6740,127 +7200,127 @@
       <c r="E58" t="s">
         <v>357</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
+      <c r="F58" t="s">
+        <v>833</v>
+      </c>
+      <c r="G58" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" t="s">
+        <v>359</v>
+      </c>
       <c r="I58" t="s">
         <v>165</v>
       </c>
-      <c r="J58"/>
+      <c r="J58" t="s">
+        <v>165</v>
+      </c>
       <c r="K58" t="s">
         <v>165</v>
       </c>
       <c r="L58" t="s">
         <v>165</v>
       </c>
-      <c r="M58"/>
+      <c r="M58" t="s">
+        <v>165</v>
+      </c>
       <c r="N58" t="s">
         <v>165</v>
       </c>
       <c r="O58" t="s">
         <v>165</v>
       </c>
-      <c r="P58"/>
+      <c r="P58" t="s">
+        <v>165</v>
+      </c>
       <c r="Q58" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>641</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59" t="s">
-        <v>755</v>
-      </c>
-      <c r="G59" t="s">
-        <v>359</v>
-      </c>
-      <c r="H59" t="s">
-        <v>360</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="C59" t="s">
+        <v>783</v>
+      </c>
+      <c r="D59" t="s">
+        <v>361</v>
+      </c>
+      <c r="E59" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
       <c r="I59" t="s">
-        <v>361</v>
-      </c>
-      <c r="J59" t="s">
-        <v>361</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J59"/>
       <c r="K59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="L59" t="s">
-        <v>361</v>
-      </c>
-      <c r="M59" t="s">
-        <v>361</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M59"/>
       <c r="N59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="O59" t="s">
-        <v>361</v>
-      </c>
-      <c r="P59" t="s">
-        <v>361</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P59"/>
       <c r="Q59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>645</v>
-      </c>
-      <c r="C60" t="s">
-        <v>709</v>
-      </c>
-      <c r="D60" t="s">
-        <v>363</v>
-      </c>
-      <c r="E60" t="s">
+        <v>711</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>834</v>
+      </c>
+      <c r="G60" t="s">
         <v>364</v>
       </c>
-      <c r="F60" t="s">
-        <v>756</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>365</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>366</v>
       </c>
-      <c r="I60" t="s">
-        <v>235</v>
-      </c>
       <c r="J60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="K60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="L60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="M60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="N60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="Q60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61">
@@ -6868,342 +7328,370 @@
         <v>367</v>
       </c>
       <c r="B61" t="s">
-        <v>641</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
+        <v>715</v>
+      </c>
+      <c r="C61" t="s">
+        <v>784</v>
+      </c>
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" t="s">
+        <v>369</v>
+      </c>
       <c r="F61" t="s">
-        <v>757</v>
+        <v>835</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H61" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="K61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="N61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="O61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="P61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="Q61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s">
-        <v>658</v>
-      </c>
-      <c r="C62" t="s">
-        <v>710</v>
-      </c>
-      <c r="D62" t="s">
-        <v>372</v>
-      </c>
-      <c r="E62" t="s">
+        <v>711</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>836</v>
+      </c>
+      <c r="G62" t="s">
         <v>373</v>
       </c>
-      <c r="G62"/>
-      <c r="H62"/>
+      <c r="H62" t="s">
+        <v>374</v>
+      </c>
       <c r="I62" t="s">
-        <v>796</v>
+        <v>375</v>
       </c>
       <c r="J62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K62" t="s">
         <v>375</v>
       </c>
       <c r="L62" t="s">
-        <v>855</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O62" t="s">
-        <v>913</v>
+        <v>375</v>
       </c>
       <c r="P62" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q62" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>645</v>
+        <v>729</v>
       </c>
       <c r="C63" t="s">
-        <v>711</v>
+        <v>785</v>
       </c>
       <c r="D63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E63" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>797</v>
+        <v>875</v>
       </c>
       <c r="J63" t="s">
+        <v>379</v>
+      </c>
+      <c r="K63" t="s">
+        <v>380</v>
+      </c>
+      <c r="L63" t="s">
+        <v>942</v>
+      </c>
+      <c r="M63" t="s">
+        <v>381</v>
+      </c>
+      <c r="N63" t="s">
+        <v>382</v>
+      </c>
+      <c r="O63" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P63" t="s">
         <v>383</v>
       </c>
-      <c r="K63" t="s">
+      <c r="Q63" t="s">
         <v>384</v>
-      </c>
-      <c r="L63" t="s">
-        <v>856</v>
-      </c>
-      <c r="M63" t="s">
-        <v>385</v>
-      </c>
-      <c r="N63" t="s">
-        <v>386</v>
-      </c>
-      <c r="O63" t="s">
-        <v>914</v>
-      </c>
-      <c r="P63" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="C64" t="s">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="D64" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E64" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>798</v>
+        <v>876</v>
       </c>
       <c r="J64" t="s">
+        <v>388</v>
+      </c>
+      <c r="K64" t="s">
+        <v>389</v>
+      </c>
+      <c r="L64" t="s">
+        <v>943</v>
+      </c>
+      <c r="M64" t="s">
+        <v>390</v>
+      </c>
+      <c r="N64" t="s">
+        <v>391</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P64" t="s">
         <v>392</v>
       </c>
-      <c r="K64" t="s">
+      <c r="Q64" t="s">
         <v>393</v>
-      </c>
-      <c r="L64" t="s">
-        <v>857</v>
-      </c>
-      <c r="M64" t="s">
-        <v>394</v>
-      </c>
-      <c r="N64" t="s">
-        <v>395</v>
-      </c>
-      <c r="O64" t="s">
-        <v>915</v>
-      </c>
-      <c r="P64" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65" t="s">
+        <v>715</v>
+      </c>
+      <c r="C65" t="s">
+        <v>787</v>
+      </c>
+      <c r="D65" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" t="s">
+        <v>396</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="s">
+        <v>877</v>
+      </c>
+      <c r="J65" t="s">
+        <v>397</v>
+      </c>
+      <c r="K65" t="s">
         <v>398</v>
       </c>
-      <c r="B65" t="s">
-        <v>641</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65" t="s">
-        <v>758</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="L65" t="s">
+        <v>944</v>
+      </c>
+      <c r="M65" t="s">
         <v>399</v>
       </c>
-      <c r="H65" t="s">
+      <c r="N65" t="s">
         <v>400</v>
       </c>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="O65" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P65" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>759</v>
+        <v>837</v>
       </c>
       <c r="G66" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H66" t="s">
-        <v>403</v>
-      </c>
-      <c r="I66" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" t="s">
-        <v>235</v>
-      </c>
-      <c r="K66" t="s">
-        <v>235</v>
-      </c>
-      <c r="L66" t="s">
-        <v>235</v>
-      </c>
-      <c r="M66" t="s">
-        <v>235</v>
-      </c>
-      <c r="N66" t="s">
-        <v>235</v>
-      </c>
-      <c r="O66" t="s">
-        <v>235</v>
-      </c>
-      <c r="P66" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>235</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>659</v>
-      </c>
-      <c r="C67" t="s">
-        <v>713</v>
-      </c>
-      <c r="D67" t="s">
-        <v>405</v>
-      </c>
-      <c r="E67" t="s">
-        <v>406</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67"/>
+        <v>711</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>838</v>
+      </c>
+      <c r="G67" t="s">
+        <v>407</v>
+      </c>
+      <c r="H67" t="s">
+        <v>408</v>
+      </c>
       <c r="I67" t="s">
-        <v>799</v>
+        <v>240</v>
       </c>
       <c r="J67" t="s">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="K67" t="s">
-        <v>408</v>
+        <v>240</v>
       </c>
       <c r="L67" t="s">
-        <v>858</v>
+        <v>240</v>
       </c>
       <c r="M67" t="s">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="N67" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="O67" t="s">
-        <v>916</v>
+        <v>240</v>
       </c>
       <c r="P67" t="s">
-        <v>411</v>
+        <v>240</v>
       </c>
       <c r="Q67" t="s">
-        <v>412</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>641</v>
+        <v>730</v>
       </c>
       <c r="C68" t="s">
-        <v>714</v>
+        <v>788</v>
       </c>
       <c r="D68" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E68" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="I68" t="s">
+        <v>878</v>
+      </c>
+      <c r="J68" t="s">
+        <v>412</v>
+      </c>
+      <c r="K68" t="s">
+        <v>413</v>
+      </c>
+      <c r="L68" t="s">
+        <v>945</v>
+      </c>
+      <c r="M68" t="s">
+        <v>414</v>
+      </c>
+      <c r="N68" t="s">
+        <v>415</v>
+      </c>
+      <c r="O68" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P68" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s">
-        <v>645</v>
+        <v>711</v>
       </c>
       <c r="C69" t="s">
-        <v>715</v>
+        <v>789</v>
       </c>
       <c r="D69" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E69" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -7216,19 +7704,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="C70" t="s">
-        <v>716</v>
+        <v>790</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E70" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -7241,19 +7729,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C71" t="s">
-        <v>717</v>
+        <v>791</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E71" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -7266,27 +7754,24 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C72" t="s">
-        <v>718</v>
-      </c>
-      <c r="D72"/>
+        <v>792</v>
+      </c>
+      <c r="D72" t="s">
+        <v>428</v>
+      </c>
       <c r="E72" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72" t="s">
-        <v>800</v>
-      </c>
       <c r="J72"/>
-      <c r="K72" t="s">
-        <v>427</v>
-      </c>
+      <c r="K72"/>
       <c r="M72"/>
       <c r="N72"/>
       <c r="P72"/>
@@ -7294,155 +7779,141 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>660</v>
+        <v>711</v>
       </c>
       <c r="C73" t="s">
-        <v>719</v>
-      </c>
-      <c r="D73" t="s">
-        <v>429</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>801</v>
-      </c>
-      <c r="J73" t="s">
-        <v>431</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="J73"/>
       <c r="K73" t="s">
         <v>432</v>
       </c>
-      <c r="L73" t="s">
-        <v>859</v>
-      </c>
-      <c r="M73" t="s">
-        <v>433</v>
-      </c>
-      <c r="N73" t="s">
-        <v>434</v>
-      </c>
-      <c r="O73" t="s">
-        <v>917</v>
-      </c>
-      <c r="P73" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>436</v>
-      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="C74" t="s">
-        <v>720</v>
-      </c>
-      <c r="D74"/>
+        <v>794</v>
+      </c>
+      <c r="D74" t="s">
+        <v>434</v>
+      </c>
       <c r="E74" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>802</v>
-      </c>
-      <c r="J74"/>
+        <v>880</v>
+      </c>
+      <c r="J74" t="s">
+        <v>436</v>
+      </c>
       <c r="K74" t="s">
+        <v>437</v>
+      </c>
+      <c r="L74" t="s">
+        <v>946</v>
+      </c>
+      <c r="M74" t="s">
+        <v>438</v>
+      </c>
+      <c r="N74" t="s">
         <v>439</v>
       </c>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P74" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C75" t="s">
-        <v>721</v>
+        <v>795</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>803</v>
+        <v>881</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>442</v>
-      </c>
-      <c r="L75" t="s">
-        <v>860</v>
+        <v>444</v>
       </c>
       <c r="M75"/>
-      <c r="N75" t="s">
-        <v>443</v>
-      </c>
-      <c r="O75" t="s">
-        <v>918</v>
-      </c>
-      <c r="P75" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>445</v>
-      </c>
+      <c r="N75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>445</v>
+      </c>
+      <c r="B76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C76" t="s">
+        <v>796</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="s">
         <v>446</v>
-      </c>
-      <c r="B76" t="s">
-        <v>661</v>
-      </c>
-      <c r="C76" t="s">
-        <v>722</v>
-      </c>
-      <c r="D76" t="s">
-        <v>447</v>
-      </c>
-      <c r="E76" t="s">
-        <v>448</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>804</v>
+        <v>882</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L76" t="s">
-        <v>861</v>
+        <v>947</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="s">
+        <v>448</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P76" t="s">
         <v>449</v>
-      </c>
-      <c r="O76" t="s">
-        <v>919</v>
-      </c>
-      <c r="P76" t="s">
-        <v>444</v>
       </c>
       <c r="Q76" t="s">
         <v>450</v>
@@ -7453,266 +7924,283 @@
         <v>451</v>
       </c>
       <c r="B77" t="s">
-        <v>641</v>
-      </c>
-      <c r="D77"/>
-      <c r="E77"/>
+        <v>732</v>
+      </c>
+      <c r="C77" t="s">
+        <v>797</v>
+      </c>
+      <c r="D77" t="s">
+        <v>452</v>
+      </c>
+      <c r="E77" t="s">
+        <v>453</v>
+      </c>
       <c r="G77"/>
       <c r="H77"/>
+      <c r="I77" t="s">
+        <v>883</v>
+      </c>
       <c r="J77"/>
-      <c r="K77"/>
+      <c r="K77" t="s">
+        <v>447</v>
+      </c>
       <c r="L77" t="s">
-        <v>862</v>
-      </c>
-      <c r="M77" t="s">
-        <v>452</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="M77"/>
       <c r="N77" t="s">
-        <v>453</v>
-      </c>
-      <c r="P77"/>
-      <c r="Q77"/>
+        <v>454</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P77" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>641</v>
-      </c>
-      <c r="C78" t="s">
-        <v>723</v>
-      </c>
-      <c r="D78" t="s">
-        <v>455</v>
-      </c>
-      <c r="E78" t="s">
-        <v>456</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
       <c r="G78"/>
       <c r="H78"/>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="L78" t="s">
+        <v>949</v>
+      </c>
+      <c r="M78" t="s">
+        <v>457</v>
+      </c>
+      <c r="N78" t="s">
+        <v>458</v>
+      </c>
       <c r="P78"/>
       <c r="Q78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="C79" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="D79" t="s">
-        <v>458</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="I79" t="s">
+        <v>884</v>
+      </c>
+      <c r="J79" t="s">
+        <v>460</v>
+      </c>
+      <c r="K79" t="s">
+        <v>461</v>
+      </c>
+      <c r="L79" t="s">
+        <v>950</v>
+      </c>
+      <c r="M79" t="s">
+        <v>462</v>
+      </c>
+      <c r="N79" t="s">
+        <v>463</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P79" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="C80" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="D80" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E80" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="J80"/>
       <c r="K80"/>
-      <c r="L80" t="s">
-        <v>863</v>
-      </c>
-      <c r="M80" t="s">
-        <v>463</v>
-      </c>
-      <c r="N80" t="s">
-        <v>464</v>
-      </c>
+      <c r="M80"/>
+      <c r="N80"/>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="C81" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="D81" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="J81"/>
       <c r="K81"/>
-      <c r="L81" t="s">
-        <v>864</v>
-      </c>
-      <c r="M81" t="s">
-        <v>468</v>
-      </c>
-      <c r="N81" t="s">
-        <v>469</v>
-      </c>
+      <c r="M81"/>
+      <c r="N81"/>
       <c r="P81"/>
       <c r="Q81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="C82" t="s">
-        <v>727</v>
-      </c>
-      <c r="D82"/>
+        <v>800</v>
+      </c>
+      <c r="D82" t="s">
+        <v>473</v>
+      </c>
       <c r="E82" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="M82"/>
-      <c r="N82"/>
+      <c r="L82" t="s">
+        <v>951</v>
+      </c>
+      <c r="M82" t="s">
+        <v>475</v>
+      </c>
+      <c r="N82" t="s">
+        <v>476</v>
+      </c>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="C83" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="D83" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E83" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
-      <c r="I83" t="s">
-        <v>805</v>
-      </c>
       <c r="J83"/>
-      <c r="K83" t="s">
-        <v>475</v>
-      </c>
+      <c r="K83"/>
       <c r="L83" t="s">
-        <v>848</v>
-      </c>
-      <c r="M83"/>
+        <v>952</v>
+      </c>
+      <c r="M83" t="s">
+        <v>480</v>
+      </c>
       <c r="N83" t="s">
-        <v>285</v>
+        <v>481</v>
       </c>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C84" t="s">
-        <v>729</v>
-      </c>
-      <c r="D84" t="s">
-        <v>477</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="I84" t="s">
-        <v>806</v>
-      </c>
-      <c r="J84" t="s">
-        <v>479</v>
-      </c>
-      <c r="K84" t="s">
-        <v>480</v>
-      </c>
-      <c r="L84" t="s">
-        <v>865</v>
-      </c>
-      <c r="M84" t="s">
-        <v>481</v>
-      </c>
-      <c r="N84" t="s">
-        <v>482</v>
-      </c>
-      <c r="O84" t="s">
-        <v>920</v>
-      </c>
-      <c r="P84" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>484</v>
-      </c>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>484</v>
+      </c>
+      <c r="B85" t="s">
+        <v>711</v>
+      </c>
+      <c r="C85" t="s">
+        <v>803</v>
+      </c>
+      <c r="D85" t="s">
         <v>485</v>
       </c>
-      <c r="B85" t="s">
-        <v>645</v>
-      </c>
-      <c r="C85" t="s">
-        <v>730</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>486</v>
-      </c>
-      <c r="E85" t="s">
-        <v>487</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
+      <c r="I85" t="s">
+        <v>885</v>
+      </c>
       <c r="J85"/>
-      <c r="K85"/>
+      <c r="K85" t="s">
+        <v>487</v>
+      </c>
+      <c r="L85" t="s">
+        <v>935</v>
+      </c>
       <c r="M85"/>
-      <c r="N85"/>
+      <c r="N85" t="s">
+        <v>290</v>
+      </c>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
@@ -7721,10 +8209,10 @@
         <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="D86" t="s">
         <v>489</v>
@@ -7734,193 +8222,200 @@
       </c>
       <c r="G86"/>
       <c r="H86"/>
-      <c r="J86"/>
-      <c r="K86"/>
+      <c r="I86" t="s">
+        <v>886</v>
+      </c>
+      <c r="J86" t="s">
+        <v>491</v>
+      </c>
+      <c r="K86" t="s">
+        <v>492</v>
+      </c>
       <c r="L86" t="s">
-        <v>866</v>
+        <v>953</v>
       </c>
       <c r="M86" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N86" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O86" t="s">
-        <v>921</v>
+        <v>1017</v>
       </c>
       <c r="P86" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q86" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s">
-        <v>641</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87"/>
+        <v>715</v>
+      </c>
+      <c r="C87" t="s">
+        <v>805</v>
+      </c>
+      <c r="D87" t="s">
+        <v>498</v>
+      </c>
+      <c r="E87" t="s">
+        <v>499</v>
+      </c>
       <c r="G87"/>
       <c r="H87"/>
       <c r="J87"/>
       <c r="K87"/>
-      <c r="L87" t="s">
-        <v>867</v>
-      </c>
-      <c r="M87" t="s">
-        <v>496</v>
-      </c>
-      <c r="N87" t="s">
-        <v>278</v>
-      </c>
-      <c r="O87" t="s">
-        <v>922</v>
-      </c>
-      <c r="P87" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>498</v>
-      </c>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>641</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88" t="s">
-        <v>760</v>
-      </c>
-      <c r="G88" t="s">
-        <v>500</v>
-      </c>
-      <c r="H88" t="s">
+        <v>724</v>
+      </c>
+      <c r="C88" t="s">
+        <v>806</v>
+      </c>
+      <c r="D88" t="s">
         <v>501</v>
       </c>
-      <c r="I88" t="s">
-        <v>235</v>
-      </c>
-      <c r="J88" t="s">
-        <v>235</v>
-      </c>
-      <c r="K88" t="s">
-        <v>235</v>
-      </c>
+      <c r="E88" t="s">
+        <v>502</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88" t="s">
-        <v>235</v>
+        <v>954</v>
       </c>
       <c r="M88" t="s">
-        <v>235</v>
+        <v>503</v>
       </c>
       <c r="N88" t="s">
-        <v>235</v>
+        <v>504</v>
       </c>
       <c r="O88" t="s">
-        <v>235</v>
+        <v>1018</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>505</v>
       </c>
       <c r="Q88" t="s">
-        <v>235</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B89" t="s">
-        <v>641</v>
-      </c>
-      <c r="C89" t="s">
-        <v>732</v>
-      </c>
-      <c r="D89" t="s">
-        <v>503</v>
-      </c>
-      <c r="E89" t="s">
-        <v>504</v>
-      </c>
-      <c r="F89" t="s">
-        <v>761</v>
-      </c>
-      <c r="G89" t="s">
-        <v>505</v>
-      </c>
-      <c r="H89" t="s">
-        <v>506</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="G89"/>
+      <c r="H89"/>
       <c r="J89"/>
       <c r="K89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
+      <c r="L89" t="s">
+        <v>955</v>
+      </c>
+      <c r="M89" t="s">
+        <v>508</v>
+      </c>
+      <c r="N89" t="s">
+        <v>283</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P89" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s">
-        <v>641</v>
-      </c>
-      <c r="C90" t="s">
-        <v>732</v>
-      </c>
-      <c r="D90" t="s">
-        <v>508</v>
-      </c>
-      <c r="E90" t="s">
-        <v>504</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
       <c r="F90" t="s">
-        <v>762</v>
+        <v>839</v>
       </c>
       <c r="G90" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H90" t="s">
-        <v>510</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+        <v>513</v>
+      </c>
+      <c r="I90" t="s">
+        <v>240</v>
+      </c>
+      <c r="J90" t="s">
+        <v>240</v>
+      </c>
+      <c r="K90" t="s">
+        <v>240</v>
+      </c>
+      <c r="L90" t="s">
+        <v>240</v>
+      </c>
+      <c r="M90" t="s">
+        <v>240</v>
+      </c>
+      <c r="N90" t="s">
+        <v>240</v>
+      </c>
+      <c r="O90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P90" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C91" t="s">
-        <v>733</v>
+        <v>807</v>
       </c>
       <c r="D91" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E91" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F91" t="s">
-        <v>763</v>
+        <v>840</v>
       </c>
       <c r="G91" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H91" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -7931,52 +8426,45 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>519</v>
+      </c>
+      <c r="B92" t="s">
+        <v>711</v>
+      </c>
+      <c r="C92" t="s">
+        <v>807</v>
+      </c>
+      <c r="D92" t="s">
+        <v>520</v>
+      </c>
+      <c r="E92" t="s">
         <v>516</v>
       </c>
-      <c r="B92" t="s">
-        <v>662</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92" t="s">
-        <v>807</v>
-      </c>
-      <c r="J92" t="s">
-        <v>517</v>
-      </c>
-      <c r="K92" t="s">
-        <v>518</v>
-      </c>
-      <c r="L92" t="s">
-        <v>868</v>
-      </c>
-      <c r="M92" t="s">
-        <v>519</v>
-      </c>
-      <c r="N92" t="s">
-        <v>520</v>
-      </c>
-      <c r="O92" t="s">
-        <v>923</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="F92" t="s">
+        <v>841</v>
+      </c>
+      <c r="G92" t="s">
         <v>521</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="H92" t="s">
         <v>522</v>
       </c>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C93" t="s">
-        <v>734</v>
+        <v>808</v>
       </c>
       <c r="D93" t="s">
         <v>524</v>
@@ -7984,8 +8472,15 @@
       <c r="E93" t="s">
         <v>525</v>
       </c>
-      <c r="G93"/>
-      <c r="H93"/>
+      <c r="F93" t="s">
+        <v>842</v>
+      </c>
+      <c r="G93" t="s">
+        <v>526</v>
+      </c>
+      <c r="H93" t="s">
+        <v>527</v>
+      </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="M93"/>
@@ -7995,54 +8490,61 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s">
-        <v>641</v>
-      </c>
-      <c r="C94" t="s">
-        <v>735</v>
-      </c>
-      <c r="D94" t="s">
-        <v>527</v>
-      </c>
-      <c r="E94" t="s">
-        <v>528</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
       <c r="G94"/>
       <c r="H94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="I94" t="s">
+        <v>887</v>
+      </c>
+      <c r="J94" t="s">
+        <v>529</v>
+      </c>
+      <c r="K94" t="s">
+        <v>530</v>
+      </c>
+      <c r="L94" t="s">
+        <v>956</v>
+      </c>
+      <c r="M94" t="s">
+        <v>531</v>
+      </c>
+      <c r="N94" t="s">
+        <v>532</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P94" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="C95" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="D95" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E95" t="s">
-        <v>531</v>
-      </c>
-      <c r="F95" t="s">
-        <v>764</v>
-      </c>
-      <c r="G95" t="s">
-        <v>532</v>
-      </c>
-      <c r="H95" t="s">
-        <v>533</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
       <c r="J95"/>
       <c r="K95"/>
       <c r="M95"/>
@@ -8052,68 +8554,54 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="C96" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="D96" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E96" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96" t="s">
-        <v>808</v>
-      </c>
-      <c r="J96" t="s">
-        <v>537</v>
-      </c>
-      <c r="K96" t="s">
-        <v>538</v>
-      </c>
-      <c r="L96" t="s">
-        <v>869</v>
-      </c>
-      <c r="M96" t="s">
-        <v>539</v>
-      </c>
-      <c r="N96" t="s">
-        <v>540</v>
-      </c>
-      <c r="O96" t="s">
-        <v>924</v>
-      </c>
-      <c r="P96" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>542</v>
-      </c>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>541</v>
+      </c>
+      <c r="B97" t="s">
+        <v>711</v>
+      </c>
+      <c r="C97" t="s">
+        <v>811</v>
+      </c>
+      <c r="D97" t="s">
+        <v>542</v>
+      </c>
+      <c r="E97" t="s">
         <v>543</v>
       </c>
-      <c r="B97" t="s">
-        <v>641</v>
-      </c>
-      <c r="C97" t="s">
-        <v>738</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>843</v>
+      </c>
+      <c r="G97" t="s">
         <v>544</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>545</v>
       </c>
-      <c r="G97"/>
-      <c r="H97"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="M97"/>
@@ -8126,10 +8614,10 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>663</v>
+        <v>714</v>
       </c>
       <c r="C98" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8139,28 +8627,49 @@
       </c>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="I98" t="s">
+        <v>888</v>
+      </c>
+      <c r="J98" t="s">
+        <v>549</v>
+      </c>
+      <c r="K98" t="s">
+        <v>550</v>
+      </c>
+      <c r="L98" t="s">
+        <v>957</v>
+      </c>
+      <c r="M98" t="s">
+        <v>551</v>
+      </c>
+      <c r="N98" t="s">
+        <v>552</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P98" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="C99" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="D99" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E99" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -8173,13 +8682,20 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s">
-        <v>665</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
+        <v>734</v>
+      </c>
+      <c r="C100" t="s">
+        <v>814</v>
+      </c>
+      <c r="D100" t="s">
+        <v>559</v>
+      </c>
+      <c r="E100" t="s">
+        <v>560</v>
+      </c>
       <c r="G100"/>
       <c r="H100"/>
       <c r="J100"/>
@@ -8191,339 +8707,311 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s">
-        <v>661</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
+        <v>735</v>
+      </c>
+      <c r="C101" t="s">
+        <v>815</v>
+      </c>
+      <c r="D101" t="s">
+        <v>562</v>
+      </c>
+      <c r="E101" t="s">
+        <v>563</v>
+      </c>
       <c r="G101"/>
       <c r="H101"/>
       <c r="J101"/>
       <c r="K101"/>
-      <c r="L101" t="s">
-        <v>870</v>
-      </c>
-      <c r="M101" t="s">
-        <v>554</v>
-      </c>
-      <c r="N101" t="s">
-        <v>555</v>
-      </c>
+      <c r="M101"/>
+      <c r="N101"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B102" t="s">
-        <v>666</v>
-      </c>
-      <c r="C102" t="s">
-        <v>741</v>
-      </c>
-      <c r="D102" t="s">
-        <v>557</v>
-      </c>
-      <c r="E102" t="s">
-        <v>558</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
       <c r="G102"/>
       <c r="H102"/>
-      <c r="I102" t="s">
-        <v>809</v>
-      </c>
-      <c r="J102" t="s">
-        <v>559</v>
-      </c>
-      <c r="K102" t="s">
-        <v>560</v>
-      </c>
-      <c r="L102" t="s">
-        <v>871</v>
-      </c>
-      <c r="M102" t="s">
-        <v>561</v>
-      </c>
-      <c r="N102" t="s">
-        <v>562</v>
-      </c>
-      <c r="O102" t="s">
-        <v>925</v>
-      </c>
-      <c r="P102" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>564</v>
-      </c>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>667</v>
-      </c>
-      <c r="C103" t="s">
-        <v>742</v>
-      </c>
-      <c r="D103" t="s">
-        <v>566</v>
-      </c>
-      <c r="E103" t="s">
-        <v>567</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
       <c r="G103"/>
       <c r="H103"/>
-      <c r="I103" t="s">
-        <v>810</v>
-      </c>
-      <c r="J103" t="s">
-        <v>568</v>
-      </c>
-      <c r="K103" t="s">
-        <v>569</v>
-      </c>
+      <c r="J103"/>
+      <c r="K103"/>
       <c r="L103" t="s">
-        <v>872</v>
+        <v>958</v>
       </c>
       <c r="M103" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N103" t="s">
-        <v>571</v>
-      </c>
-      <c r="O103" t="s">
-        <v>926</v>
-      </c>
-      <c r="P103" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>573</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="P103"/>
+      <c r="Q103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B104" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
       <c r="C104" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="D104" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E104" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>811</v>
+        <v>889</v>
       </c>
       <c r="J104" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K104" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L104" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="M104" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="N104" t="s">
-        <v>278</v>
+        <v>574</v>
       </c>
       <c r="O104" t="s">
-        <v>927</v>
+        <v>1022</v>
       </c>
       <c r="P104" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q104" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B105" t="s">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="C105" t="s">
-        <v>744</v>
+        <v>817</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E105" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>812</v>
+        <v>890</v>
       </c>
       <c r="J105" t="s">
+        <v>580</v>
+      </c>
+      <c r="K105" t="s">
+        <v>581</v>
+      </c>
+      <c r="L105" t="s">
+        <v>960</v>
+      </c>
+      <c r="M105" t="s">
+        <v>582</v>
+      </c>
+      <c r="N105" t="s">
+        <v>583</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P105" t="s">
         <v>584</v>
       </c>
-      <c r="K105" t="s">
+      <c r="Q105" t="s">
         <v>585</v>
-      </c>
-      <c r="L105" t="s">
-        <v>874</v>
-      </c>
-      <c r="M105" t="s">
-        <v>586</v>
-      </c>
-      <c r="N105" t="s">
-        <v>587</v>
-      </c>
-      <c r="O105" t="s">
-        <v>928</v>
-      </c>
-      <c r="P105" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="C106" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="D106" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E106" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>813</v>
+        <v>891</v>
       </c>
       <c r="J106" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K106" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L106" t="s">
-        <v>875</v>
+        <v>961</v>
       </c>
       <c r="M106" t="s">
-        <v>595</v>
+        <v>508</v>
       </c>
       <c r="N106" t="s">
-        <v>596</v>
+        <v>283</v>
       </c>
       <c r="O106" t="s">
-        <v>929</v>
+        <v>1024</v>
       </c>
       <c r="P106" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q106" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B107" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
       <c r="C107" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
       <c r="D107" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E107" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
-      <c r="J107"/>
-      <c r="K107"/>
+      <c r="I107" t="s">
+        <v>892</v>
+      </c>
+      <c r="J107" t="s">
+        <v>596</v>
+      </c>
+      <c r="K107" t="s">
+        <v>597</v>
+      </c>
       <c r="L107" t="s">
-        <v>876</v>
+        <v>962</v>
       </c>
       <c r="M107" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N107" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O107" t="s">
-        <v>930</v>
+        <v>1025</v>
       </c>
       <c r="P107" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="Q107" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B108" t="s">
-        <v>643</v>
+        <v>739</v>
       </c>
       <c r="C108" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="D108" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E108" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
-      <c r="J108"/>
-      <c r="K108"/>
+      <c r="I108" t="s">
+        <v>893</v>
+      </c>
+      <c r="J108" t="s">
+        <v>605</v>
+      </c>
+      <c r="K108" t="s">
+        <v>606</v>
+      </c>
       <c r="L108" t="s">
-        <v>877</v>
+        <v>963</v>
       </c>
       <c r="M108" t="s">
+        <v>607</v>
+      </c>
+      <c r="N108" t="s">
+        <v>608</v>
+      </c>
+      <c r="O108" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P108" t="s">
         <v>609</v>
       </c>
-      <c r="N108" t="s">
+      <c r="Q108" t="s">
         <v>610</v>
       </c>
-      <c r="P108"/>
-      <c r="Q108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>611</v>
       </c>
       <c r="B109" t="s">
-        <v>668</v>
+        <v>739</v>
       </c>
       <c r="C109" t="s">
-        <v>748</v>
+        <v>821</v>
       </c>
       <c r="D109" t="s">
         <v>612</v>
@@ -8534,7 +9022,7 @@
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>814</v>
+        <v>894</v>
       </c>
       <c r="J109" t="s">
         <v>614</v>
@@ -8543,7 +9031,7 @@
         <v>615</v>
       </c>
       <c r="L109" t="s">
-        <v>878</v>
+        <v>964</v>
       </c>
       <c r="M109" t="s">
         <v>616</v>
@@ -8552,7 +9040,7 @@
         <v>617</v>
       </c>
       <c r="O109" t="s">
-        <v>931</v>
+        <v>1027</v>
       </c>
       <c r="P109" t="s">
         <v>618</v>
@@ -8566,10 +9054,10 @@
         <v>620</v>
       </c>
       <c r="B110" t="s">
-        <v>643</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>749</v>
+        <v>822</v>
       </c>
       <c r="D110" t="s">
         <v>621</v>
@@ -8580,7 +9068,7 @@
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>815</v>
+        <v>895</v>
       </c>
       <c r="J110" t="s">
         <v>623</v>
@@ -8589,7 +9077,7 @@
         <v>624</v>
       </c>
       <c r="L110" t="s">
-        <v>879</v>
+        <v>965</v>
       </c>
       <c r="M110" t="s">
         <v>625</v>
@@ -8598,7 +9086,7 @@
         <v>626</v>
       </c>
       <c r="O110" t="s">
-        <v>932</v>
+        <v>1028</v>
       </c>
       <c r="P110" t="s">
         <v>627</v>
@@ -8612,10 +9100,10 @@
         <v>629</v>
       </c>
       <c r="B111" t="s">
-        <v>669</v>
+        <v>740</v>
       </c>
       <c r="C111" t="s">
-        <v>750</v>
+        <v>823</v>
       </c>
       <c r="D111" t="s">
         <v>630</v>
@@ -8626,7 +9114,7 @@
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="s">
-        <v>816</v>
+        <v>896</v>
       </c>
       <c r="J111" t="s">
         <v>632</v>
@@ -8635,7 +9123,7 @@
         <v>633</v>
       </c>
       <c r="L111" t="s">
-        <v>880</v>
+        <v>966</v>
       </c>
       <c r="M111" t="s">
         <v>634</v>
@@ -8644,7 +9132,7 @@
         <v>635</v>
       </c>
       <c r="O111" t="s">
-        <v>933</v>
+        <v>1029</v>
       </c>
       <c r="P111" t="s">
         <v>636</v>
@@ -8658,16 +9146,16 @@
         <v>638</v>
       </c>
       <c r="B112" t="s">
-        <v>670</v>
+        <v>740</v>
       </c>
       <c r="C112" t="s">
-        <v>751</v>
+        <v>639</v>
       </c>
       <c r="D112" t="s">
         <v>639</v>
       </c>
       <c r="E112" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -8678,6 +9166,417 @@
       <c r="P112"/>
       <c r="Q112"/>
     </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>640</v>
+      </c>
+      <c r="B113" t="s">
+        <v>740</v>
+      </c>
+      <c r="C113" t="s">
+        <v>639</v>
+      </c>
+      <c r="D113" t="s">
+        <v>639</v>
+      </c>
+      <c r="E113" t="s">
+        <v>639</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113" t="s">
+        <v>897</v>
+      </c>
+      <c r="J113" t="s">
+        <v>641</v>
+      </c>
+      <c r="K113" t="s">
+        <v>642</v>
+      </c>
+      <c r="L113" t="s">
+        <v>967</v>
+      </c>
+      <c r="M113" t="s">
+        <v>643</v>
+      </c>
+      <c r="N113" t="s">
+        <v>644</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P113" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>647</v>
+      </c>
+      <c r="B114" t="s">
+        <v>740</v>
+      </c>
+      <c r="C114" t="s">
+        <v>639</v>
+      </c>
+      <c r="D114" t="s">
+        <v>639</v>
+      </c>
+      <c r="E114" t="s">
+        <v>639</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114" t="s">
+        <v>898</v>
+      </c>
+      <c r="J114" t="s">
+        <v>648</v>
+      </c>
+      <c r="K114" t="s">
+        <v>649</v>
+      </c>
+      <c r="L114" t="s">
+        <v>968</v>
+      </c>
+      <c r="M114" t="s">
+        <v>650</v>
+      </c>
+      <c r="N114" t="s">
+        <v>651</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P114" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>654</v>
+      </c>
+      <c r="B115" t="s">
+        <v>713</v>
+      </c>
+      <c r="C115" t="s">
+        <v>824</v>
+      </c>
+      <c r="D115" t="s">
+        <v>655</v>
+      </c>
+      <c r="E115" t="s">
+        <v>656</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115" t="s">
+        <v>969</v>
+      </c>
+      <c r="M115" t="s">
+        <v>657</v>
+      </c>
+      <c r="N115" t="s">
+        <v>658</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P115" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>661</v>
+      </c>
+      <c r="B116" t="s">
+        <v>713</v>
+      </c>
+      <c r="C116" t="s">
+        <v>825</v>
+      </c>
+      <c r="D116" t="s">
+        <v>662</v>
+      </c>
+      <c r="E116" t="s">
+        <v>663</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116" t="s">
+        <v>970</v>
+      </c>
+      <c r="M116" t="s">
+        <v>664</v>
+      </c>
+      <c r="N116" t="s">
+        <v>665</v>
+      </c>
+      <c r="P116"/>
+      <c r="Q116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>666</v>
+      </c>
+      <c r="B117" t="s">
+        <v>741</v>
+      </c>
+      <c r="C117" t="s">
+        <v>826</v>
+      </c>
+      <c r="D117" t="s">
+        <v>667</v>
+      </c>
+      <c r="E117" t="s">
+        <v>668</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117" t="s">
+        <v>899</v>
+      </c>
+      <c r="J117" t="s">
+        <v>669</v>
+      </c>
+      <c r="K117" t="s">
+        <v>670</v>
+      </c>
+      <c r="L117" t="s">
+        <v>971</v>
+      </c>
+      <c r="M117" t="s">
+        <v>671</v>
+      </c>
+      <c r="N117" t="s">
+        <v>672</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P117" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>675</v>
+      </c>
+      <c r="B118" t="s">
+        <v>713</v>
+      </c>
+      <c r="C118" t="s">
+        <v>827</v>
+      </c>
+      <c r="D118" t="s">
+        <v>676</v>
+      </c>
+      <c r="E118" t="s">
+        <v>677</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118" t="s">
+        <v>900</v>
+      </c>
+      <c r="J118" t="s">
+        <v>678</v>
+      </c>
+      <c r="K118" t="s">
+        <v>679</v>
+      </c>
+      <c r="L118" t="s">
+        <v>972</v>
+      </c>
+      <c r="M118" t="s">
+        <v>680</v>
+      </c>
+      <c r="N118" t="s">
+        <v>681</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1034</v>
+      </c>
+      <c r="P118" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>684</v>
+      </c>
+      <c r="B119" t="s">
+        <v>742</v>
+      </c>
+      <c r="C119" t="s">
+        <v>828</v>
+      </c>
+      <c r="D119" t="s">
+        <v>685</v>
+      </c>
+      <c r="E119" t="s">
+        <v>686</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119" t="s">
+        <v>901</v>
+      </c>
+      <c r="J119" t="s">
+        <v>687</v>
+      </c>
+      <c r="K119" t="s">
+        <v>688</v>
+      </c>
+      <c r="L119" t="s">
+        <v>973</v>
+      </c>
+      <c r="M119" t="s">
+        <v>689</v>
+      </c>
+      <c r="N119" t="s">
+        <v>690</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P119" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" t="s">
+        <v>743</v>
+      </c>
+      <c r="C120" t="s">
+        <v>829</v>
+      </c>
+      <c r="D120" t="s">
+        <v>694</v>
+      </c>
+      <c r="E120" t="s">
+        <v>695</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120" t="s">
+        <v>902</v>
+      </c>
+      <c r="J120" t="s">
+        <v>696</v>
+      </c>
+      <c r="K120" t="s">
+        <v>697</v>
+      </c>
+      <c r="L120" t="s">
+        <v>974</v>
+      </c>
+      <c r="M120" t="s">
+        <v>698</v>
+      </c>
+      <c r="N120" t="s">
+        <v>699</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P120" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>702</v>
+      </c>
+      <c r="B121" t="s">
+        <v>744</v>
+      </c>
+      <c r="C121" t="s">
+        <v>830</v>
+      </c>
+      <c r="D121" t="s">
+        <v>703</v>
+      </c>
+      <c r="E121" t="s">
+        <v>704</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>705</v>
+      </c>
+      <c r="B122" t="s">
+        <v>720</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122" t="s">
+        <v>903</v>
+      </c>
+      <c r="J122" t="s">
+        <v>706</v>
+      </c>
+      <c r="K122" t="s">
+        <v>707</v>
+      </c>
+      <c r="L122" t="s">
+        <v>975</v>
+      </c>
+      <c r="M122" t="s">
+        <v>708</v>
+      </c>
+      <c r="N122" t="s">
+        <v>454</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P122" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:Q2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Original/CN/Game/CharaText.xlsx
+++ b/Original/CN/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1101">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -777,6 +777,17 @@
   <si>
     <t xml:space="preserve">*ドスン*
 *ズシン*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*skitter skitter*
+*scurry...*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*カサカサ*
+*カサ…*</t>
   </si>
   <si>
     <t xml:space="preserve">horse</t>
@@ -2424,6 +2435,30 @@
     <t xml:space="preserve">「つまらぬな」</t>
   </si>
   <si>
+    <t xml:space="preserve">mech_golem_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Here we go!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「行くぞ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I’ll leave the rest to you, Widge!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あとは任せたぜ、ウィッジ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mech_golem_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I’ll leave the rest to you, Higgs!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あとは任せたぜ、ヒッグス！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
@@ -2739,6 +2774,128 @@
 「もう苦しまなくていい」</t>
   </si>
   <si>
+    <t xml:space="preserve">keeper_garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"How adorable."
+"Muwohoho."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「かわいいのう」
+「フホホホ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Muwohohoho! You dare challenge me!?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「フホホホ！わっちに刃を向けるか！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Muwohohoho! Splendid!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「フホォホホホォ！天晴じゃ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Muwohohoho, how weak you are!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「フホホホホ、弱いのう！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namamani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nice try."
+"Another malfunction?"
+"Good."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「馬鹿にしてくれるじゃないか」
+「また誤動作か？」
+「いいぞ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Great."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「やってくれたな」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"How trivial."
+"You understand now?"
+"Heh."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「くだらないな」
+「理解できたか？」
+「ふん」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namamani2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You are my enemy then?"
+"Why?"
+"So be it."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「お前は敵なのか？」
+「何故私を？」
+「身に覚えはないが、仕方ない」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Am I... going to die? "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「死ぬ…のか？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"So... you were my enemy?"
+"Who am I?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「敵…だったのか？」
+「私は何者だ？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erishe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I wonder where he went?"
+You feel a warmth as if being wrapped in gentle sunlight. "Come here, Vesel."
+"It feels like I could forget the passage of time."
+"We should hurry back."
+"We'll be late for the play."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「どこに行ってしまったのかしらね？」
+柔らかな陽だまりの中にいるような温かさをあなたは感じた。 
+「ふふ、おいで、ヴェセル」
+「時が経つのを忘れてしまいそうです」
+「早く帰らなきゃ」
+「お芝居に遅れてしまいます」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"P-please... stop."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「や…やめてください」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"B-brother..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「にい…さん…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sorry..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ごめんなさい…」</t>
+  </si>
+  <si>
     <t xml:space="preserve">larnneire</t>
   </si>
   <si>
@@ -2772,12 +2929,6 @@
   </si>
   <si>
     <t xml:space="preserve">「うぅ…誰かが…ジャビ王に風の異変を伝えなければ…このままでは…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Sorry..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ごめんなさい…」</t>
   </si>
   <si>
     <t xml:space="preserve">lomias</t>
@@ -3252,7 +3403,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.190</t>
+    <t xml:space="preserve">EA 23.228</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -3273,6 +3424,9 @@
     <t xml:space="preserve">EA 23.198</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.207</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.61 fix 2</t>
   </si>
   <si>
@@ -3312,6 +3466,9 @@
     <t xml:space="preserve">EA 23.90</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.201</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.117</t>
   </si>
   <si>
@@ -3325,6 +3482,15 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.224</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.194</t>
@@ -3447,6 +3613,10 @@
   <si>
     <t xml:space="preserve">*咚*
 *邦*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*窸窸窣窣*
+*窸窣…*</t>
   </si>
   <si>
     <t xml:space="preserve">*啪咯啪咯*
@@ -3828,6 +3998,18 @@
 「也罢，迷路的旅行也是一种冒险」
 「你知道风的名字吗？」
 「水声是最古老的传颂者」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「真可爱」
+「呼呵呵呵」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「他去哪里了呢？」
+你感觉自己仿佛置身于柔和阳光中般温暖。
+「呵呵，来这边，韦赛尔」
+「都要忘记时间还会流逝了」
+「必须快些回去」
+「要赶不上看戏剧了」</t>
   </si>
   <si>
     <t xml:space="preserve">「你听过那个王子被变成野兽的童话吗？」
@@ -4175,6 +4357,9 @@
     <t xml:space="preserve">「来，跳支舞看看吧」</t>
   </si>
   <si>
+    <t xml:space="preserve">「上吧！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">小妹妹「杀吧！杀吧！」
 小妹妹「给我粉碎吧！」
 小妹妹「#bigdaddy，上啊！！」</t>
@@ -4199,6 +4384,22 @@
     <t xml:space="preserve">「我并不喜欢争斗…」
 「没有办法」
 「如果这就是你想要的，那就来吧」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「呼呵呵呵！竟敢对咱刀刃相向！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「你这是在耍我吧」
+「又出故障了吗？」
+「好啊」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「你是我的敌人吗？」
+「为什么找我麻烦？」
+「虽然不记得发生过什么，但没办法了」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「请…不要这样」</t>
   </si>
   <si>
     <t xml:space="preserve">「为什么我们不得不战斗？」
@@ -4477,6 +4678,12 @@
     <t xml:space="preserve">「不可能…！」</t>
   </si>
   <si>
+    <t xml:space="preserve">「交给你了，威机！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「交给你了，黑格斯！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「咯嗷哦哦哦哦哦！」</t>
   </si>
   <si>
@@ -4496,6 +4703,18 @@
   </si>
   <si>
     <t xml:space="preserve">「我要去你那边了」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「呼呵呼呵呵！此亦风雅！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「很能干嘛」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「我要…死了吗？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「哥…哥…」</t>
   </si>
   <si>
     <t xml:space="preserve">「呜…谁来…谁来把风的异常变化告诉贾比王…这样下去…」</t>
@@ -4728,6 +4947,18 @@
     <t xml:space="preserve">「真遗憾啊」
 「安息吧」
 「你已经不会再痛苦了」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「呼呵呵呵，真弱呢！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「真无趣」
+「这下明白了吗？」
+「哼」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「原来你…是我的敌人？」
+「我究竟是谁？」</t>
   </si>
   <si>
     <t xml:space="preserve">「对不起…」</t>
@@ -4935,14 +5166,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>844</v>
+        <v>893</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4951,7 +5182,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>904</v>
+        <v>958</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4960,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>976</v>
+        <v>1036</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4974,10 +5205,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
       <c r="C4" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4988,7 +5219,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4997,7 +5228,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>905</v>
+        <v>959</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -5013,10 +5244,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>713</v>
+        <v>754</v>
       </c>
       <c r="C5" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5038,10 +5269,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>714</v>
+        <v>755</v>
       </c>
       <c r="C6" t="s">
-        <v>747</v>
+        <v>793</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5054,7 +5285,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>906</v>
+        <v>960</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -5063,7 +5294,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>977</v>
+        <v>1037</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -5077,10 +5308,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C7" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5091,7 +5322,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>845</v>
+        <v>894</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5100,7 +5331,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>907</v>
+        <v>961</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5116,10 +5347,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C8" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5130,7 +5361,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5139,7 +5370,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>908</v>
+        <v>962</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5148,7 +5379,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>978</v>
+        <v>1038</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5162,10 +5393,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C9" t="s">
-        <v>750</v>
+        <v>796</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5176,7 +5407,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>847</v>
+        <v>896</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5185,7 +5416,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>909</v>
+        <v>963</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5194,7 +5425,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>979</v>
+        <v>1039</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5208,10 +5439,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C10" t="s">
-        <v>751</v>
+        <v>797</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5222,21 +5453,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>848</v>
+        <v>897</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>910</v>
+        <v>964</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>980</v>
+        <v>1040</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -5248,10 +5479,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
       <c r="C11" t="s">
-        <v>752</v>
+        <v>798</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5262,7 +5493,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>849</v>
+        <v>898</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -5271,7 +5502,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>911</v>
+        <v>965</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -5280,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>981</v>
+        <v>1041</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5294,10 +5525,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>716</v>
+        <v>757</v>
       </c>
       <c r="C12" t="s">
-        <v>753</v>
+        <v>799</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5308,7 +5539,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>850</v>
+        <v>899</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5317,7 +5548,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>912</v>
+        <v>966</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5326,7 +5557,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>982</v>
+        <v>1042</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5340,10 +5571,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>754</v>
       </c>
       <c r="C13" t="s">
-        <v>754</v>
+        <v>800</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5361,7 +5592,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>913</v>
+        <v>967</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5377,10 +5608,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
+        <v>755</v>
       </c>
       <c r="C14" t="s">
-        <v>755</v>
+        <v>801</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5391,7 +5622,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5400,7 +5631,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -5409,7 +5640,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>983</v>
+        <v>1043</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5423,10 +5654,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
       <c r="C15" t="s">
-        <v>756</v>
+        <v>802</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5462,14 +5693,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>718</v>
+        <v>759</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>852</v>
+        <v>901</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5478,7 +5709,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>915</v>
+        <v>969</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5487,7 +5718,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>984</v>
+        <v>1044</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5501,10 +5732,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>719</v>
+        <v>760</v>
       </c>
       <c r="C17" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5515,7 +5746,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5524,7 +5755,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5533,7 +5764,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5547,14 +5778,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>853</v>
+        <v>902</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5563,7 +5794,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>916</v>
+        <v>970</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5572,7 +5803,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>985</v>
+        <v>1045</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5586,14 +5817,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>718</v>
+        <v>759</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>853</v>
+        <v>902</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5602,7 +5833,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>917</v>
+        <v>971</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5611,7 +5842,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>986</v>
+        <v>1046</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5625,10 +5856,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C20" t="s">
-        <v>758</v>
+        <v>804</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5639,7 +5870,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>854</v>
+        <v>903</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5648,7 +5879,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>918</v>
+        <v>972</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5657,7 +5888,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>987</v>
+        <v>1047</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5671,14 +5902,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>855</v>
+        <v>904</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5687,7 +5918,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>919</v>
+        <v>973</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5696,7 +5927,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>988</v>
+        <v>1048</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5710,14 +5941,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>856</v>
+        <v>905</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5726,7 +5957,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>920</v>
+        <v>974</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5735,7 +5966,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>989</v>
+        <v>1049</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5749,10 +5980,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
       <c r="C23" t="s">
-        <v>759</v>
+        <v>805</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5774,10 +6005,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C24" t="s">
-        <v>760</v>
+        <v>806</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5788,7 +6019,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>857</v>
+        <v>906</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5797,7 +6028,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>921</v>
+        <v>975</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5806,7 +6037,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>990</v>
+        <v>1050</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5820,14 +6051,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>858</v>
+        <v>907</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5852,10 +6083,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>720</v>
+        <v>761</v>
       </c>
       <c r="C26" t="s">
-        <v>761</v>
+        <v>807</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5866,7 +6097,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>761</v>
+        <v>807</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -5884,10 +6115,10 @@
         <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="C27" t="s">
-        <v>762</v>
+        <v>808</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -5895,158 +6126,144 @@
       <c r="E27" t="s">
         <v>171</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
+      <c r="F27" t="s">
+        <v>808</v>
+      </c>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" t="s">
+        <v>171</v>
+      </c>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27" t="s">
-        <v>922</v>
-      </c>
-      <c r="M27" t="s">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s">
-        <v>173</v>
-      </c>
-      <c r="O27" t="s">
-        <v>991</v>
-      </c>
-      <c r="P27" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>175</v>
-      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>711</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
+        <v>752</v>
+      </c>
+      <c r="C28" t="s">
+        <v>809</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" t="s">
+        <v>174</v>
+      </c>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28" t="s">
-        <v>859</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>976</v>
+      </c>
+      <c r="M28" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" t="s">
+        <v>176</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P28" t="s">
         <v>177</v>
       </c>
-      <c r="K28" t="s">
+      <c r="Q28" t="s">
         <v>178</v>
-      </c>
-      <c r="L28" t="s">
-        <v>923</v>
-      </c>
-      <c r="M28" t="s">
-        <v>179</v>
-      </c>
-      <c r="N28" t="s">
-        <v>180</v>
-      </c>
-      <c r="O28" t="s">
-        <v>992</v>
-      </c>
-      <c r="P28" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>721</v>
-      </c>
-      <c r="C29" t="s">
-        <v>763</v>
-      </c>
-      <c r="D29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c r="J29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K29" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>924</v>
+        <v>977</v>
       </c>
       <c r="M29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O29" t="s">
-        <v>993</v>
+        <v>1052</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>722</v>
+        <v>763</v>
       </c>
       <c r="C30" t="s">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>860</v>
+        <v>909</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="M30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O30" t="s">
-        <v>993</v>
+        <v>1053</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q30" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31">
@@ -6054,10 +6271,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="C31" t="s">
-        <v>765</v>
+        <v>811</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6068,31 +6285,31 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>860</v>
+        <v>909</v>
       </c>
       <c r="J31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="M31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>993</v>
+        <v>1053</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32">
@@ -6100,10 +6317,10 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="C32" t="s">
-        <v>766</v>
+        <v>812</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6114,336 +6331,364 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>861</v>
+        <v>909</v>
       </c>
       <c r="J32" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>925</v>
+        <v>978</v>
       </c>
       <c r="M32" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="N32" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>994</v>
+        <v>1053</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="Q32" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>711</v>
+        <v>764</v>
       </c>
       <c r="C33" t="s">
-        <v>767</v>
+        <v>813</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>862</v>
+        <v>910</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>926</v>
+        <v>979</v>
       </c>
       <c r="M33" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N33" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>995</v>
+        <v>1054</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q33" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>712</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
+        <v>752</v>
+      </c>
+      <c r="C34" t="s">
+        <v>814</v>
+      </c>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" t="s">
+        <v>212</v>
+      </c>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="J34"/>
-      <c r="K34"/>
+      <c r="I34" t="s">
+        <v>911</v>
+      </c>
+      <c r="J34" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" t="s">
+        <v>214</v>
+      </c>
       <c r="L34" t="s">
-        <v>927</v>
+        <v>980</v>
       </c>
       <c r="M34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N34" t="s">
+        <v>216</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P34" t="s">
         <v>217</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>218</v>
-      </c>
-      <c r="O34" t="s">
-        <v>996</v>
-      </c>
-      <c r="P34" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35" t="s">
-        <v>863</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35" t="s">
+        <v>981</v>
+      </c>
+      <c r="M35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P35" t="s">
         <v>222</v>
       </c>
-      <c r="K35" t="s">
+      <c r="Q35" t="s">
         <v>223</v>
-      </c>
-      <c r="L35" t="s">
-        <v>928</v>
-      </c>
-      <c r="M35" t="s">
-        <v>224</v>
-      </c>
-      <c r="N35" t="s">
-        <v>225</v>
-      </c>
-      <c r="O35" t="s">
-        <v>997</v>
-      </c>
-      <c r="P35" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" t="s">
-        <v>831</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>912</v>
+      </c>
+      <c r="J36" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L36" t="s">
+        <v>982</v>
+      </c>
+      <c r="M36" t="s">
+        <v>227</v>
+      </c>
+      <c r="N36" t="s">
+        <v>228</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P36" t="s">
         <v>229</v>
       </c>
-      <c r="H36" t="s">
+      <c r="Q36" t="s">
         <v>230</v>
-      </c>
-      <c r="I36" t="s">
-        <v>864</v>
-      </c>
-      <c r="J36" t="s">
-        <v>231</v>
-      </c>
-      <c r="K36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L36" t="s">
-        <v>929</v>
-      </c>
-      <c r="M36" t="s">
-        <v>233</v>
-      </c>
-      <c r="N36" t="s">
-        <v>234</v>
-      </c>
-      <c r="O36" t="s">
-        <v>998</v>
-      </c>
-      <c r="P36" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
+        <v>752</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>880</v>
+      </c>
+      <c r="G37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s">
+        <v>913</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s">
+        <v>983</v>
+      </c>
+      <c r="M37" t="s">
+        <v>236</v>
+      </c>
+      <c r="N37" t="s">
         <v>237</v>
       </c>
-      <c r="B37" t="s">
-        <v>723</v>
-      </c>
-      <c r="C37" t="s">
-        <v>768</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="O37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P37" t="s">
         <v>238</v>
       </c>
-      <c r="E37" t="s">
+      <c r="Q37" t="s">
         <v>239</v>
-      </c>
-      <c r="F37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" t="s">
-        <v>240</v>
-      </c>
-      <c r="J37" t="s">
-        <v>240</v>
-      </c>
-      <c r="K37" t="s">
-        <v>240</v>
-      </c>
-      <c r="L37" t="s">
-        <v>240</v>
-      </c>
-      <c r="M37" t="s">
-        <v>240</v>
-      </c>
-      <c r="N37" t="s">
-        <v>240</v>
-      </c>
-      <c r="O37" t="s">
-        <v>240</v>
-      </c>
-      <c r="P37" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>765</v>
+      </c>
+      <c r="C38" t="s">
+        <v>815</v>
+      </c>
+      <c r="D38" t="s">
         <v>241</v>
       </c>
-      <c r="B38" t="s">
-        <v>724</v>
-      </c>
-      <c r="C38" t="s">
-        <v>769</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>242</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>243</v>
       </c>
-      <c r="F38" t="s">
-        <v>832</v>
-      </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I38" t="s">
-        <v>864</v>
+        <v>243</v>
       </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="K38" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s">
-        <v>929</v>
+        <v>243</v>
       </c>
       <c r="M38" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="N38" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="O38" t="s">
-        <v>998</v>
+        <v>243</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q38" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
+        <v>766</v>
+      </c>
+      <c r="C39" t="s">
+        <v>816</v>
+      </c>
+      <c r="D39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" t="s">
         <v>246</v>
       </c>
-      <c r="B39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C39" t="s">
-        <v>770</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>881</v>
+      </c>
+      <c r="G39" t="s">
         <v>247</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>248</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="I39" t="s">
+        <v>913</v>
+      </c>
+      <c r="J39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s">
+        <v>235</v>
+      </c>
+      <c r="L39" t="s">
+        <v>983</v>
+      </c>
+      <c r="M39" t="s">
+        <v>236</v>
+      </c>
+      <c r="N39" t="s">
+        <v>237</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P39" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>711</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40"/>
+        <v>752</v>
+      </c>
+      <c r="C40" t="s">
+        <v>817</v>
+      </c>
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="J40"/>
@@ -6455,510 +6700,482 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>715</v>
-      </c>
-      <c r="C41" t="s">
-        <v>771</v>
-      </c>
-      <c r="D41" t="s">
-        <v>251</v>
-      </c>
-      <c r="E41" t="s">
-        <v>252</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41" t="s">
-        <v>865</v>
-      </c>
-      <c r="J41" t="s">
-        <v>253</v>
-      </c>
-      <c r="K41" t="s">
-        <v>254</v>
-      </c>
-      <c r="L41" t="s">
-        <v>930</v>
-      </c>
-      <c r="M41" t="s">
-        <v>255</v>
-      </c>
-      <c r="N41" t="s">
-        <v>256</v>
-      </c>
-      <c r="O41" t="s">
-        <v>999</v>
-      </c>
-      <c r="P41" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>258</v>
-      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="C42" t="s">
-        <v>772</v>
+        <v>818</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>866</v>
+        <v>914</v>
       </c>
       <c r="J42" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K42" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s">
-        <v>931</v>
+        <v>984</v>
       </c>
       <c r="M42" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N42" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="O42" t="s">
-        <v>1000</v>
+        <v>1059</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q42" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>725</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43"/>
+        <v>752</v>
+      </c>
+      <c r="C43" t="s">
+        <v>819</v>
+      </c>
+      <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" t="s">
+        <v>264</v>
+      </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>867</v>
+        <v>915</v>
       </c>
       <c r="J43" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" t="s">
+        <v>266</v>
+      </c>
+      <c r="L43" t="s">
+        <v>985</v>
+      </c>
+      <c r="M43" t="s">
+        <v>267</v>
+      </c>
+      <c r="N43" t="s">
+        <v>268</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1060</v>
+      </c>
+      <c r="P43" t="s">
         <v>269</v>
       </c>
-      <c r="K43" t="s">
+      <c r="Q43" t="s">
         <v>270</v>
-      </c>
-      <c r="L43" t="s">
-        <v>932</v>
-      </c>
-      <c r="M43" t="s">
-        <v>271</v>
-      </c>
-      <c r="N43" t="s">
-        <v>272</v>
-      </c>
-      <c r="O43" t="s">
-        <v>1001</v>
-      </c>
-      <c r="P43"/>
-      <c r="Q43" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>715</v>
+        <v>767</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>868</v>
+        <v>916</v>
       </c>
       <c r="J44" t="s">
+        <v>272</v>
+      </c>
+      <c r="K44" t="s">
+        <v>273</v>
+      </c>
+      <c r="L44" t="s">
+        <v>986</v>
+      </c>
+      <c r="M44" t="s">
+        <v>274</v>
+      </c>
+      <c r="N44" t="s">
         <v>275</v>
       </c>
-      <c r="K44" t="s">
+      <c r="O44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P44"/>
+      <c r="Q44" t="s">
         <v>276</v>
-      </c>
-      <c r="L44" t="s">
-        <v>933</v>
-      </c>
-      <c r="M44" t="s">
-        <v>277</v>
-      </c>
-      <c r="N44" t="s">
-        <v>278</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P44" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="J45"/>
-      <c r="K45"/>
+      <c r="I45" t="s">
+        <v>917</v>
+      </c>
+      <c r="J45" t="s">
+        <v>278</v>
+      </c>
+      <c r="K45" t="s">
+        <v>279</v>
+      </c>
       <c r="L45" t="s">
-        <v>934</v>
+        <v>987</v>
       </c>
       <c r="M45" t="s">
+        <v>280</v>
+      </c>
+      <c r="N45" t="s">
+        <v>281</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P45" t="s">
         <v>282</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>283</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1003</v>
-      </c>
-      <c r="P45" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>718</v>
-      </c>
-      <c r="C46" t="s">
-        <v>288</v>
-      </c>
-      <c r="D46" t="s">
-        <v>287</v>
-      </c>
-      <c r="E46" t="s">
-        <v>288</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>935</v>
+        <v>988</v>
       </c>
       <c r="M46" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N46" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>1004</v>
+        <v>1063</v>
       </c>
       <c r="P46" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q46" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>715</v>
+        <v>759</v>
       </c>
       <c r="C47" t="s">
-        <v>773</v>
+        <v>291</v>
       </c>
       <c r="D47" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47" t="s">
-        <v>869</v>
-      </c>
-      <c r="J47" t="s">
-        <v>296</v>
-      </c>
-      <c r="K47" t="s">
-        <v>297</v>
-      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="s">
-        <v>936</v>
+        <v>989</v>
       </c>
       <c r="M47" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N47" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>1004</v>
+        <v>1064</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q47" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="C48" t="s">
-        <v>774</v>
+        <v>820</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>870</v>
+        <v>918</v>
       </c>
       <c r="J48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s">
-        <v>937</v>
+        <v>990</v>
       </c>
       <c r="M48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O48" t="s">
-        <v>1005</v>
+        <v>1064</v>
       </c>
       <c r="P48" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="Q48" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B49" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="C49" t="s">
-        <v>775</v>
+        <v>821</v>
       </c>
       <c r="D49" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>871</v>
+        <v>919</v>
       </c>
       <c r="J49" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s">
-        <v>938</v>
+        <v>991</v>
       </c>
       <c r="M49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N49" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O49" t="s">
-        <v>938</v>
+        <v>1065</v>
       </c>
       <c r="P49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q49" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s">
-        <v>711</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
+        <v>756</v>
+      </c>
+      <c r="C50" t="s">
+        <v>822</v>
+      </c>
+      <c r="D50" t="s">
+        <v>313</v>
+      </c>
+      <c r="E50" t="s">
+        <v>314</v>
+      </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>872</v>
+        <v>920</v>
       </c>
       <c r="J50" t="s">
+        <v>315</v>
+      </c>
+      <c r="K50" t="s">
+        <v>316</v>
+      </c>
+      <c r="L50" t="s">
+        <v>992</v>
+      </c>
+      <c r="M50" t="s">
         <v>317</v>
       </c>
-      <c r="K50" t="s">
+      <c r="N50" t="s">
         <v>318</v>
       </c>
-      <c r="L50" t="s">
-        <v>939</v>
-      </c>
-      <c r="M50" t="s">
-        <v>319</v>
-      </c>
-      <c r="N50" t="s">
-        <v>320</v>
-      </c>
       <c r="O50" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="P50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q50" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s">
-        <v>726</v>
-      </c>
-      <c r="C51" t="s">
-        <v>776</v>
-      </c>
-      <c r="D51" t="s">
-        <v>324</v>
-      </c>
-      <c r="E51" t="s">
-        <v>325</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>326</v>
+        <v>921</v>
       </c>
       <c r="J51" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K51" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>326</v>
+        <v>993</v>
       </c>
       <c r="M51" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N51" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>326</v>
+        <v>1066</v>
       </c>
       <c r="P51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>326</v>
+      </c>
+      <c r="B52" t="s">
+        <v>768</v>
+      </c>
+      <c r="C52" t="s">
+        <v>823</v>
+      </c>
+      <c r="D52" t="s">
         <v>327</v>
       </c>
-      <c r="B52" t="s">
-        <v>727</v>
-      </c>
-      <c r="C52" t="s">
-        <v>777</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>328</v>
-      </c>
-      <c r="E52" t="s">
-        <v>329</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53">
@@ -6966,10 +7183,10 @@
         <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="C53" t="s">
-        <v>778</v>
+        <v>824</v>
       </c>
       <c r="D53" t="s">
         <v>331</v>
@@ -6980,31 +7197,31 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54">
@@ -7012,10 +7229,10 @@
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="C54" t="s">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -7026,31 +7243,31 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55">
@@ -7058,10 +7275,10 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>713</v>
+        <v>768</v>
       </c>
       <c r="C55" t="s">
-        <v>780</v>
+        <v>826</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7072,116 +7289,116 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>873</v>
+        <v>329</v>
       </c>
       <c r="J55" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K55" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="L55" t="s">
-        <v>940</v>
+        <v>329</v>
       </c>
       <c r="M55" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="N55" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O55" t="s">
-        <v>1007</v>
+        <v>329</v>
       </c>
       <c r="P55" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="Q55" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>711</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
+        <v>754</v>
+      </c>
+      <c r="C56" t="s">
+        <v>827</v>
+      </c>
+      <c r="D56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" t="s">
+        <v>341</v>
+      </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>874</v>
+        <v>922</v>
       </c>
       <c r="J56" t="s">
+        <v>342</v>
+      </c>
+      <c r="K56" t="s">
+        <v>343</v>
+      </c>
+      <c r="L56" t="s">
+        <v>994</v>
+      </c>
+      <c r="M56" t="s">
+        <v>344</v>
+      </c>
+      <c r="N56" t="s">
+        <v>345</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P56" t="s">
         <v>346</v>
       </c>
-      <c r="K56" t="s">
+      <c r="Q56" t="s">
         <v>347</v>
-      </c>
-      <c r="L56" t="s">
-        <v>941</v>
-      </c>
-      <c r="M56" t="s">
-        <v>348</v>
-      </c>
-      <c r="N56" t="s">
-        <v>349</v>
-      </c>
-      <c r="O56" t="s">
-        <v>1008</v>
-      </c>
-      <c r="P56" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>711</v>
-      </c>
-      <c r="C57" t="s">
-        <v>781</v>
-      </c>
-      <c r="D57" t="s">
-        <v>353</v>
-      </c>
-      <c r="E57" t="s">
-        <v>354</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>165</v>
+        <v>923</v>
       </c>
       <c r="J57" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>165</v>
+        <v>995</v>
       </c>
       <c r="M57" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
       <c r="N57" t="s">
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="O57" t="s">
-        <v>165</v>
+        <v>1068</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="Q57" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58">
@@ -7189,10 +7406,10 @@
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C58" t="s">
-        <v>782</v>
+        <v>828</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -7200,15 +7417,8 @@
       <c r="E58" t="s">
         <v>357</v>
       </c>
-      <c r="F58" t="s">
-        <v>833</v>
-      </c>
-      <c r="G58" t="s">
-        <v>358</v>
-      </c>
-      <c r="H58" t="s">
-        <v>359</v>
-      </c>
+      <c r="G58"/>
+      <c r="H58"/>
       <c r="I58" t="s">
         <v>165</v>
       </c>
@@ -7239,40 +7449,53 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" t="s">
+        <v>752</v>
+      </c>
+      <c r="C59" t="s">
+        <v>829</v>
+      </c>
+      <c r="D59" t="s">
+        <v>359</v>
+      </c>
+      <c r="E59" t="s">
         <v>360</v>
       </c>
-      <c r="B59" t="s">
-        <v>728</v>
-      </c>
-      <c r="C59" t="s">
-        <v>783</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>882</v>
+      </c>
+      <c r="G59" t="s">
         <v>361</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>362</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
       <c r="I59" t="s">
         <v>165</v>
       </c>
-      <c r="J59"/>
+      <c r="J59" t="s">
+        <v>165</v>
+      </c>
       <c r="K59" t="s">
         <v>165</v>
       </c>
       <c r="L59" t="s">
         <v>165</v>
       </c>
-      <c r="M59"/>
+      <c r="M59" t="s">
+        <v>165</v>
+      </c>
       <c r="N59" t="s">
         <v>165</v>
       </c>
       <c r="O59" t="s">
         <v>165</v>
       </c>
-      <c r="P59"/>
+      <c r="P59" t="s">
+        <v>165</v>
+      </c>
       <c r="Q59" t="s">
         <v>165</v>
       </c>
@@ -7282,111 +7505,105 @@
         <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>711</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60" t="s">
-        <v>834</v>
-      </c>
-      <c r="G60" t="s">
+        <v>770</v>
+      </c>
+      <c r="C60" t="s">
+        <v>830</v>
+      </c>
+      <c r="D60" t="s">
         <v>364</v>
       </c>
-      <c r="H60" t="s">
+      <c r="E60" t="s">
         <v>365</v>
       </c>
+      <c r="G60"/>
+      <c r="H60"/>
       <c r="I60" t="s">
-        <v>366</v>
-      </c>
-      <c r="J60" t="s">
-        <v>366</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J60"/>
       <c r="K60" t="s">
-        <v>366</v>
+        <v>165</v>
       </c>
       <c r="L60" t="s">
-        <v>366</v>
-      </c>
-      <c r="M60" t="s">
-        <v>366</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M60"/>
       <c r="N60" t="s">
-        <v>366</v>
+        <v>165</v>
       </c>
       <c r="O60" t="s">
-        <v>366</v>
-      </c>
-      <c r="P60" t="s">
-        <v>366</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P60"/>
       <c r="Q60" t="s">
-        <v>366</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" t="s">
+        <v>752</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>883</v>
+      </c>
+      <c r="G61" t="s">
         <v>367</v>
       </c>
-      <c r="B61" t="s">
-        <v>715</v>
-      </c>
-      <c r="C61" t="s">
-        <v>784</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="H61" t="s">
         <v>368</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>369</v>
       </c>
-      <c r="F61" t="s">
-        <v>835</v>
-      </c>
-      <c r="G61" t="s">
-        <v>370</v>
-      </c>
-      <c r="H61" t="s">
-        <v>371</v>
-      </c>
-      <c r="I61" t="s">
-        <v>240</v>
-      </c>
       <c r="J61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="K61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="L61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="N61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="O61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="Q61" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>370</v>
+      </c>
+      <c r="B62" t="s">
+        <v>756</v>
+      </c>
+      <c r="C62" t="s">
+        <v>831</v>
+      </c>
+      <c r="D62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E62" t="s">
         <v>372</v>
       </c>
-      <c r="B62" t="s">
-        <v>711</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62"/>
       <c r="F62" t="s">
-        <v>836</v>
+        <v>884</v>
       </c>
       <c r="G62" t="s">
         <v>373</v>
@@ -7395,207 +7612,228 @@
         <v>374</v>
       </c>
       <c r="I62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="J62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="K62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="L62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="M62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="N62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="O62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="P62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="Q62" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" t="s">
+        <v>752</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>885</v>
+      </c>
+      <c r="G63" t="s">
         <v>376</v>
       </c>
-      <c r="B63" t="s">
-        <v>729</v>
-      </c>
-      <c r="C63" t="s">
-        <v>785</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="H63" t="s">
         <v>377</v>
       </c>
-      <c r="E63" t="s">
+      <c r="I63" t="s">
         <v>378</v>
       </c>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63" t="s">
-        <v>875</v>
-      </c>
       <c r="J63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K63" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L63" t="s">
-        <v>942</v>
+        <v>378</v>
       </c>
       <c r="M63" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N63" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O63" t="s">
-        <v>1009</v>
+        <v>378</v>
       </c>
       <c r="P63" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q63" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s">
-        <v>715</v>
+        <v>771</v>
       </c>
       <c r="C64" t="s">
-        <v>786</v>
+        <v>832</v>
       </c>
       <c r="D64" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>876</v>
+        <v>924</v>
       </c>
       <c r="J64" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K64" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L64" t="s">
-        <v>943</v>
+        <v>996</v>
       </c>
       <c r="M64" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N64" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O64" t="s">
-        <v>1010</v>
+        <v>1069</v>
       </c>
       <c r="P64" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q64" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
       <c r="C65" t="s">
-        <v>787</v>
+        <v>833</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E65" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>877</v>
+        <v>925</v>
       </c>
       <c r="J65" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K65" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L65" t="s">
-        <v>944</v>
+        <v>997</v>
       </c>
       <c r="M65" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N65" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O65" t="s">
-        <v>1011</v>
+        <v>1070</v>
       </c>
       <c r="P65" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q65" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" t="s">
+        <v>756</v>
+      </c>
+      <c r="C66" t="s">
+        <v>834</v>
+      </c>
+      <c r="D66" t="s">
+        <v>398</v>
+      </c>
+      <c r="E66" t="s">
+        <v>399</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="s">
+        <v>926</v>
+      </c>
+      <c r="J66" t="s">
+        <v>400</v>
+      </c>
+      <c r="K66" t="s">
+        <v>401</v>
+      </c>
+      <c r="L66" t="s">
+        <v>998</v>
+      </c>
+      <c r="M66" t="s">
+        <v>402</v>
+      </c>
+      <c r="N66" t="s">
         <v>403</v>
       </c>
-      <c r="B66" t="s">
-        <v>711</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66" t="s">
-        <v>837</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="O66" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P66" t="s">
         <v>404</v>
       </c>
-      <c r="H66" t="s">
+      <c r="Q66" t="s">
         <v>405</v>
       </c>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>838</v>
+        <v>886</v>
       </c>
       <c r="G67" t="s">
         <v>407</v>
@@ -7603,114 +7841,114 @@
       <c r="H67" t="s">
         <v>408</v>
       </c>
-      <c r="I67" t="s">
-        <v>240</v>
-      </c>
-      <c r="J67" t="s">
-        <v>240</v>
-      </c>
-      <c r="K67" t="s">
-        <v>240</v>
-      </c>
-      <c r="L67" t="s">
-        <v>240</v>
-      </c>
-      <c r="M67" t="s">
-        <v>240</v>
-      </c>
-      <c r="N67" t="s">
-        <v>240</v>
-      </c>
-      <c r="O67" t="s">
-        <v>240</v>
-      </c>
-      <c r="P67" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>240</v>
-      </c>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>730</v>
-      </c>
-      <c r="C68" t="s">
-        <v>788</v>
-      </c>
-      <c r="D68" t="s">
+        <v>752</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>887</v>
+      </c>
+      <c r="G68" t="s">
         <v>410</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>411</v>
       </c>
-      <c r="G68"/>
-      <c r="H68"/>
       <c r="I68" t="s">
-        <v>878</v>
+        <v>243</v>
       </c>
       <c r="J68" t="s">
-        <v>412</v>
+        <v>243</v>
       </c>
       <c r="K68" t="s">
-        <v>413</v>
+        <v>243</v>
       </c>
       <c r="L68" t="s">
-        <v>945</v>
+        <v>243</v>
       </c>
       <c r="M68" t="s">
-        <v>414</v>
+        <v>243</v>
       </c>
       <c r="N68" t="s">
-        <v>415</v>
+        <v>243</v>
       </c>
       <c r="O68" t="s">
-        <v>1012</v>
+        <v>243</v>
       </c>
       <c r="P68" t="s">
-        <v>416</v>
+        <v>243</v>
       </c>
       <c r="Q68" t="s">
-        <v>417</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="C69" t="s">
-        <v>789</v>
+        <v>835</v>
       </c>
       <c r="D69" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E69" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
+      <c r="I69" t="s">
+        <v>927</v>
+      </c>
+      <c r="J69" t="s">
+        <v>415</v>
+      </c>
+      <c r="K69" t="s">
+        <v>416</v>
+      </c>
+      <c r="L69" t="s">
+        <v>999</v>
+      </c>
+      <c r="M69" t="s">
+        <v>417</v>
+      </c>
+      <c r="N69" t="s">
+        <v>418</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P69" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="C70" t="s">
-        <v>790</v>
+        <v>836</v>
       </c>
       <c r="D70" t="s">
         <v>422</v>
@@ -7732,10 +7970,10 @@
         <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="C71" t="s">
-        <v>791</v>
+        <v>837</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7757,10 +7995,10 @@
         <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C72" t="s">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -7782,24 +8020,21 @@
         <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C73" t="s">
-        <v>793</v>
-      </c>
-      <c r="D73"/>
+        <v>839</v>
+      </c>
+      <c r="D73" t="s">
+        <v>431</v>
+      </c>
       <c r="E73" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73" t="s">
-        <v>879</v>
-      </c>
       <c r="J73"/>
-      <c r="K73" t="s">
-        <v>432</v>
-      </c>
+      <c r="K73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="P73"/>
@@ -7810,84 +8045,84 @@
         <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="C74" t="s">
-        <v>794</v>
-      </c>
-      <c r="D74" t="s">
+        <v>840</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="s">
         <v>434</v>
-      </c>
-      <c r="E74" t="s">
-        <v>435</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>880</v>
-      </c>
-      <c r="J74" t="s">
-        <v>436</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="J74"/>
       <c r="K74" t="s">
-        <v>437</v>
-      </c>
-      <c r="L74" t="s">
-        <v>946</v>
-      </c>
-      <c r="M74" t="s">
-        <v>438</v>
-      </c>
-      <c r="N74" t="s">
-        <v>439</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="P74" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>441</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
       <c r="C75" t="s">
-        <v>795</v>
-      </c>
-      <c r="D75"/>
+        <v>841</v>
+      </c>
+      <c r="D75" t="s">
+        <v>437</v>
+      </c>
       <c r="E75" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>881</v>
-      </c>
-      <c r="J75"/>
+        <v>929</v>
+      </c>
+      <c r="J75" t="s">
+        <v>439</v>
+      </c>
       <c r="K75" t="s">
+        <v>440</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M75" t="s">
+        <v>441</v>
+      </c>
+      <c r="N75" t="s">
+        <v>442</v>
+      </c>
+      <c r="O75" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P75" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q75" t="s">
         <v>444</v>
       </c>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C76" t="s">
-        <v>796</v>
+        <v>842</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
@@ -7896,176 +8131,179 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>882</v>
+        <v>930</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
         <v>447</v>
       </c>
-      <c r="L76" t="s">
-        <v>947</v>
-      </c>
       <c r="M76"/>
-      <c r="N76" t="s">
-        <v>448</v>
-      </c>
-      <c r="O76" t="s">
-        <v>1014</v>
-      </c>
-      <c r="P76" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>450</v>
-      </c>
+      <c r="N76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="C77" t="s">
-        <v>797</v>
-      </c>
-      <c r="D77" t="s">
-        <v>452</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="D77"/>
       <c r="E77" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>883</v>
+        <v>931</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L77" t="s">
-        <v>948</v>
+        <v>1001</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="O77" t="s">
-        <v>1015</v>
+        <v>1074</v>
       </c>
       <c r="P77" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q77" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>454</v>
+      </c>
+      <c r="B78" t="s">
+        <v>774</v>
+      </c>
+      <c r="C78" t="s">
+        <v>844</v>
+      </c>
+      <c r="D78" t="s">
+        <v>455</v>
+      </c>
+      <c r="E78" t="s">
         <v>456</v>
       </c>
-      <c r="B78" t="s">
-        <v>711</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78"/>
       <c r="G78"/>
       <c r="H78"/>
+      <c r="I78" t="s">
+        <v>932</v>
+      </c>
       <c r="J78"/>
-      <c r="K78"/>
+      <c r="K78" t="s">
+        <v>450</v>
+      </c>
       <c r="L78" t="s">
-        <v>949</v>
-      </c>
-      <c r="M78" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M78"/>
+      <c r="N78" t="s">
         <v>457</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P78" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q78" t="s">
         <v>458</v>
       </c>
-      <c r="P78"/>
-      <c r="Q78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>720</v>
-      </c>
-      <c r="C79" t="s">
-        <v>761</v>
-      </c>
-      <c r="D79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" t="s">
-        <v>168</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="I79" t="s">
-        <v>884</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M79" t="s">
         <v>460</v>
       </c>
-      <c r="K79" t="s">
+      <c r="N79" t="s">
         <v>461</v>
       </c>
-      <c r="L79" t="s">
-        <v>950</v>
-      </c>
-      <c r="M79" t="s">
-        <v>462</v>
-      </c>
-      <c r="N79" t="s">
-        <v>463</v>
-      </c>
-      <c r="O79" t="s">
-        <v>1016</v>
-      </c>
-      <c r="P79" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>465</v>
-      </c>
+      <c r="P79"/>
+      <c r="Q79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>711</v>
+        <v>761</v>
       </c>
       <c r="C80" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="D80" t="s">
-        <v>467</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>468</v>
+        <v>168</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="I80" t="s">
+        <v>933</v>
+      </c>
+      <c r="J80" t="s">
+        <v>463</v>
+      </c>
+      <c r="K80" t="s">
+        <v>464</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M80" t="s">
+        <v>465</v>
+      </c>
+      <c r="N80" t="s">
+        <v>466</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P80" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C81" t="s">
-        <v>799</v>
+        <v>845</v>
       </c>
       <c r="D81" t="s">
         <v>470</v>
@@ -8087,10 +8325,10 @@
         <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="C82" t="s">
-        <v>800</v>
+        <v>846</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -8102,188 +8340,188 @@
       <c r="H82"/>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="L82" t="s">
-        <v>951</v>
-      </c>
-      <c r="M82" t="s">
-        <v>475</v>
-      </c>
-      <c r="N82" t="s">
-        <v>476</v>
-      </c>
+      <c r="M82"/>
+      <c r="N82"/>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>475</v>
+      </c>
+      <c r="B83" t="s">
+        <v>758</v>
+      </c>
+      <c r="C83" t="s">
+        <v>847</v>
+      </c>
+      <c r="D83" t="s">
+        <v>476</v>
+      </c>
+      <c r="E83" t="s">
         <v>477</v>
-      </c>
-      <c r="B83" t="s">
-        <v>717</v>
-      </c>
-      <c r="C83" t="s">
-        <v>801</v>
-      </c>
-      <c r="D83" t="s">
-        <v>478</v>
-      </c>
-      <c r="E83" t="s">
-        <v>479</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="s">
-        <v>952</v>
+        <v>1005</v>
       </c>
       <c r="M83" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N83" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>480</v>
+      </c>
+      <c r="B84" t="s">
+        <v>758</v>
+      </c>
+      <c r="C84" t="s">
+        <v>848</v>
+      </c>
+      <c r="D84" t="s">
+        <v>481</v>
+      </c>
+      <c r="E84" t="s">
         <v>482</v>
-      </c>
-      <c r="B84" t="s">
-        <v>711</v>
-      </c>
-      <c r="C84" t="s">
-        <v>802</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84" t="s">
-        <v>483</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="J84"/>
       <c r="K84"/>
-      <c r="M84"/>
-      <c r="N84"/>
+      <c r="L84" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M84" t="s">
+        <v>483</v>
+      </c>
+      <c r="N84" t="s">
+        <v>484</v>
+      </c>
       <c r="P84"/>
       <c r="Q84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C85" t="s">
-        <v>803</v>
-      </c>
-      <c r="D85" t="s">
-        <v>485</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="D85"/>
       <c r="E85" t="s">
         <v>486</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
-      <c r="I85" t="s">
-        <v>885</v>
-      </c>
       <c r="J85"/>
-      <c r="K85" t="s">
-        <v>487</v>
-      </c>
-      <c r="L85" t="s">
-        <v>935</v>
-      </c>
+      <c r="K85"/>
       <c r="M85"/>
-      <c r="N85" t="s">
-        <v>290</v>
-      </c>
+      <c r="N85"/>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>487</v>
+      </c>
+      <c r="B86" t="s">
+        <v>752</v>
+      </c>
+      <c r="C86" t="s">
+        <v>850</v>
+      </c>
+      <c r="D86" t="s">
         <v>488</v>
       </c>
-      <c r="B86" t="s">
-        <v>711</v>
-      </c>
-      <c r="C86" t="s">
-        <v>804</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>489</v>
-      </c>
-      <c r="E86" t="s">
-        <v>490</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="s">
-        <v>886</v>
-      </c>
-      <c r="J86" t="s">
-        <v>491</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="J86"/>
       <c r="K86" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L86" t="s">
-        <v>953</v>
-      </c>
-      <c r="M86" t="s">
-        <v>493</v>
-      </c>
+        <v>989</v>
+      </c>
+      <c r="M86"/>
       <c r="N86" t="s">
-        <v>494</v>
-      </c>
-      <c r="O86" t="s">
-        <v>1017</v>
-      </c>
-      <c r="P86" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>496</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="P86"/>
+      <c r="Q86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="C87" t="s">
-        <v>805</v>
+        <v>851</v>
       </c>
       <c r="D87" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E87" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
+      <c r="I87" t="s">
+        <v>935</v>
+      </c>
+      <c r="J87" t="s">
+        <v>494</v>
+      </c>
+      <c r="K87" t="s">
+        <v>495</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M87" t="s">
+        <v>496</v>
+      </c>
+      <c r="N87" t="s">
+        <v>497</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P87" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="C88" t="s">
-        <v>806</v>
+        <v>852</v>
       </c>
       <c r="D88" t="s">
         <v>501</v>
@@ -8295,101 +8533,80 @@
       <c r="H88"/>
       <c r="J88"/>
       <c r="K88"/>
-      <c r="L88" t="s">
-        <v>954</v>
-      </c>
-      <c r="M88" t="s">
-        <v>503</v>
-      </c>
-      <c r="N88" t="s">
-        <v>504</v>
-      </c>
-      <c r="O88" t="s">
-        <v>1018</v>
-      </c>
-      <c r="P88" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>506</v>
-      </c>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>711</v>
-      </c>
-      <c r="D89"/>
-      <c r="E89"/>
+        <v>766</v>
+      </c>
+      <c r="C89" t="s">
+        <v>853</v>
+      </c>
+      <c r="D89" t="s">
+        <v>504</v>
+      </c>
+      <c r="E89" t="s">
+        <v>505</v>
+      </c>
       <c r="G89"/>
       <c r="H89"/>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>955</v>
+        <v>1008</v>
       </c>
       <c r="M89" t="s">
+        <v>506</v>
+      </c>
+      <c r="N89" t="s">
+        <v>507</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P89" t="s">
         <v>508</v>
       </c>
-      <c r="N89" t="s">
-        <v>283</v>
-      </c>
-      <c r="O89" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>509</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B90" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" t="s">
-        <v>839</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M90" t="s">
+        <v>511</v>
+      </c>
+      <c r="N90" t="s">
+        <v>286</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P90" t="s">
         <v>512</v>
       </c>
-      <c r="H90" t="s">
+      <c r="Q90" t="s">
         <v>513</v>
-      </c>
-      <c r="I90" t="s">
-        <v>240</v>
-      </c>
-      <c r="J90" t="s">
-        <v>240</v>
-      </c>
-      <c r="K90" t="s">
-        <v>240</v>
-      </c>
-      <c r="L90" t="s">
-        <v>240</v>
-      </c>
-      <c r="M90" t="s">
-        <v>240</v>
-      </c>
-      <c r="N90" t="s">
-        <v>240</v>
-      </c>
-      <c r="O90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P90" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="91">
@@ -8397,57 +8614,71 @@
         <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>711</v>
-      </c>
-      <c r="C91" t="s">
-        <v>807</v>
-      </c>
-      <c r="D91" t="s">
+        <v>752</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>888</v>
+      </c>
+      <c r="G91" t="s">
         <v>515</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>516</v>
       </c>
-      <c r="F91" t="s">
-        <v>840</v>
-      </c>
-      <c r="G91" t="s">
-        <v>517</v>
-      </c>
-      <c r="H91" t="s">
-        <v>518</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
+      <c r="I91" t="s">
+        <v>243</v>
+      </c>
+      <c r="J91" t="s">
+        <v>243</v>
+      </c>
+      <c r="K91" t="s">
+        <v>243</v>
+      </c>
+      <c r="L91" t="s">
+        <v>243</v>
+      </c>
+      <c r="M91" t="s">
+        <v>243</v>
+      </c>
+      <c r="N91" t="s">
+        <v>243</v>
+      </c>
+      <c r="O91" t="s">
+        <v>243</v>
+      </c>
+      <c r="P91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>517</v>
+      </c>
+      <c r="B92" t="s">
+        <v>752</v>
+      </c>
+      <c r="C92" t="s">
+        <v>854</v>
+      </c>
+      <c r="D92" t="s">
+        <v>518</v>
+      </c>
+      <c r="E92" t="s">
         <v>519</v>
       </c>
-      <c r="B92" t="s">
-        <v>711</v>
-      </c>
-      <c r="C92" t="s">
-        <v>807</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
+        <v>889</v>
+      </c>
+      <c r="G92" t="s">
         <v>520</v>
       </c>
-      <c r="E92" t="s">
-        <v>516</v>
-      </c>
-      <c r="F92" t="s">
-        <v>841</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>521</v>
-      </c>
-      <c r="H92" t="s">
-        <v>522</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -8458,28 +8689,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>522</v>
+      </c>
+      <c r="B93" t="s">
+        <v>752</v>
+      </c>
+      <c r="C93" t="s">
+        <v>854</v>
+      </c>
+      <c r="D93" t="s">
         <v>523</v>
       </c>
-      <c r="B93" t="s">
-        <v>711</v>
-      </c>
-      <c r="C93" t="s">
-        <v>808</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>519</v>
+      </c>
+      <c r="F93" t="s">
+        <v>890</v>
+      </c>
+      <c r="G93" t="s">
         <v>524</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>525</v>
-      </c>
-      <c r="F93" t="s">
-        <v>842</v>
-      </c>
-      <c r="G93" t="s">
-        <v>526</v>
-      </c>
-      <c r="H93" t="s">
-        <v>527</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -8490,122 +8721,136 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>526</v>
+      </c>
+      <c r="B94" t="s">
+        <v>752</v>
+      </c>
+      <c r="C94" t="s">
+        <v>855</v>
+      </c>
+      <c r="D94" t="s">
+        <v>527</v>
+      </c>
+      <c r="E94" t="s">
         <v>528</v>
       </c>
-      <c r="B94" t="s">
-        <v>733</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94" t="s">
-        <v>887</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="F94" t="s">
+        <v>891</v>
+      </c>
+      <c r="G94" t="s">
         <v>529</v>
       </c>
-      <c r="K94" t="s">
+      <c r="H94" t="s">
         <v>530</v>
       </c>
-      <c r="L94" t="s">
-        <v>956</v>
-      </c>
-      <c r="M94" t="s">
-        <v>531</v>
-      </c>
-      <c r="N94" t="s">
-        <v>532</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1020</v>
-      </c>
-      <c r="P94" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>534</v>
-      </c>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B95" t="s">
-        <v>711</v>
-      </c>
-      <c r="C95" t="s">
-        <v>809</v>
-      </c>
-      <c r="D95" t="s">
-        <v>536</v>
-      </c>
-      <c r="E95" t="s">
-        <v>537</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
+      <c r="I95" t="s">
+        <v>936</v>
+      </c>
+      <c r="J95" t="s">
+        <v>532</v>
+      </c>
+      <c r="K95" t="s">
+        <v>533</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M95" t="s">
+        <v>534</v>
+      </c>
+      <c r="N95" t="s">
+        <v>535</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P95" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>711</v>
-      </c>
-      <c r="C96" t="s">
-        <v>810</v>
-      </c>
-      <c r="D96" t="s">
-        <v>539</v>
-      </c>
-      <c r="E96" t="s">
-        <v>540</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="M96"/>
-      <c r="N96"/>
+      <c r="I96" t="s">
+        <v>937</v>
+      </c>
+      <c r="J96" t="s">
+        <v>539</v>
+      </c>
+      <c r="K96" t="s">
+        <v>540</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M96" t="s">
+        <v>541</v>
+      </c>
+      <c r="N96" t="s">
+        <v>542</v>
+      </c>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>711</v>
-      </c>
-      <c r="C97" t="s">
-        <v>811</v>
-      </c>
-      <c r="D97" t="s">
-        <v>542</v>
-      </c>
-      <c r="E97" t="s">
-        <v>543</v>
-      </c>
-      <c r="F97" t="s">
-        <v>843</v>
-      </c>
-      <c r="G97" t="s">
+        <v>776</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" t="s">
+        <v>937</v>
+      </c>
+      <c r="J97" t="s">
+        <v>539</v>
+      </c>
+      <c r="K97" t="s">
+        <v>540</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M97" t="s">
         <v>544</v>
       </c>
-      <c r="H97" t="s">
+      <c r="N97" t="s">
         <v>545</v>
       </c>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="M97"/>
-      <c r="N97"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
@@ -8614,10 +8859,10 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>714</v>
+        <v>752</v>
       </c>
       <c r="C98" t="s">
-        <v>812</v>
+        <v>856</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8627,49 +8872,28 @@
       </c>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98" t="s">
-        <v>888</v>
-      </c>
-      <c r="J98" t="s">
-        <v>549</v>
-      </c>
-      <c r="K98" t="s">
-        <v>550</v>
-      </c>
-      <c r="L98" t="s">
-        <v>957</v>
-      </c>
-      <c r="M98" t="s">
-        <v>551</v>
-      </c>
-      <c r="N98" t="s">
-        <v>552</v>
-      </c>
-      <c r="O98" t="s">
-        <v>1021</v>
-      </c>
-      <c r="P98" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>554</v>
-      </c>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C99" t="s">
-        <v>813</v>
+        <v>857</v>
       </c>
       <c r="D99" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E99" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -8682,22 +8906,29 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="C100" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
       <c r="D100" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E100" t="s">
-        <v>560</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100"/>
+        <v>554</v>
+      </c>
+      <c r="F100" t="s">
+        <v>892</v>
+      </c>
+      <c r="G100" t="s">
+        <v>555</v>
+      </c>
+      <c r="H100" t="s">
+        <v>556</v>
+      </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="M100"/>
@@ -8707,38 +8938,66 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B101" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="C101" t="s">
-        <v>815</v>
+        <v>859</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E101" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="P101"/>
-      <c r="Q101"/>
+      <c r="I101" t="s">
+        <v>938</v>
+      </c>
+      <c r="J101" t="s">
+        <v>560</v>
+      </c>
+      <c r="K101" t="s">
+        <v>561</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M101" t="s">
+        <v>562</v>
+      </c>
+      <c r="N101" t="s">
+        <v>563</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P101" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>736</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102"/>
+        <v>752</v>
+      </c>
+      <c r="C102" t="s">
+        <v>860</v>
+      </c>
+      <c r="D102" t="s">
+        <v>567</v>
+      </c>
+      <c r="E102" t="s">
+        <v>568</v>
+      </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="J102"/>
@@ -8750,831 +9009,1069 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>732</v>
-      </c>
-      <c r="D103"/>
-      <c r="E103"/>
+        <v>777</v>
+      </c>
+      <c r="C103" t="s">
+        <v>861</v>
+      </c>
+      <c r="D103" t="s">
+        <v>570</v>
+      </c>
+      <c r="E103" t="s">
+        <v>571</v>
+      </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="J103"/>
       <c r="K103"/>
-      <c r="L103" t="s">
-        <v>958</v>
-      </c>
-      <c r="M103" t="s">
-        <v>566</v>
-      </c>
-      <c r="N103" t="s">
-        <v>567</v>
-      </c>
+      <c r="M103"/>
+      <c r="N103"/>
       <c r="P103"/>
       <c r="Q103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>737</v>
+        <v>778</v>
       </c>
       <c r="C104" t="s">
-        <v>816</v>
+        <v>862</v>
       </c>
       <c r="D104" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E104" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="I104" t="s">
-        <v>889</v>
-      </c>
-      <c r="J104" t="s">
-        <v>571</v>
-      </c>
-      <c r="K104" t="s">
-        <v>572</v>
-      </c>
-      <c r="L104" t="s">
-        <v>959</v>
-      </c>
-      <c r="M104" t="s">
-        <v>573</v>
-      </c>
-      <c r="N104" t="s">
-        <v>574</v>
-      </c>
-      <c r="O104" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P104" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>576</v>
-      </c>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B105" t="s">
-        <v>738</v>
-      </c>
-      <c r="C105" t="s">
-        <v>817</v>
-      </c>
-      <c r="D105" t="s">
-        <v>578</v>
-      </c>
-      <c r="E105" t="s">
-        <v>579</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
       <c r="G105"/>
       <c r="H105"/>
-      <c r="I105" t="s">
-        <v>890</v>
-      </c>
-      <c r="J105" t="s">
-        <v>580</v>
-      </c>
-      <c r="K105" t="s">
-        <v>581</v>
-      </c>
-      <c r="L105" t="s">
-        <v>960</v>
-      </c>
-      <c r="M105" t="s">
-        <v>582</v>
-      </c>
-      <c r="N105" t="s">
-        <v>583</v>
-      </c>
-      <c r="O105" t="s">
-        <v>1023</v>
-      </c>
-      <c r="P105" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>585</v>
-      </c>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B106" t="s">
-        <v>713</v>
-      </c>
-      <c r="C106" t="s">
-        <v>818</v>
-      </c>
-      <c r="D106" t="s">
-        <v>587</v>
-      </c>
-      <c r="E106" t="s">
-        <v>588</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
       <c r="G106"/>
       <c r="H106"/>
-      <c r="I106" t="s">
-        <v>891</v>
-      </c>
-      <c r="J106" t="s">
-        <v>589</v>
-      </c>
-      <c r="K106" t="s">
-        <v>590</v>
-      </c>
+      <c r="J106"/>
+      <c r="K106"/>
       <c r="L106" t="s">
-        <v>961</v>
+        <v>1014</v>
       </c>
       <c r="M106" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="N106" t="s">
-        <v>283</v>
-      </c>
-      <c r="O106" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P106" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>592</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="P106"/>
+      <c r="Q106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="C107" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
       <c r="D107" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="E107" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>892</v>
+        <v>939</v>
       </c>
       <c r="J107" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="K107" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="L107" t="s">
-        <v>962</v>
+        <v>1015</v>
       </c>
       <c r="M107" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="N107" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="O107" t="s">
-        <v>1025</v>
+        <v>1082</v>
       </c>
       <c r="P107" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="Q107" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B108" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="C108" t="s">
-        <v>820</v>
+        <v>864</v>
       </c>
       <c r="D108" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E108" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108" t="s">
-        <v>893</v>
+        <v>940</v>
       </c>
       <c r="J108" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="K108" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="L108" t="s">
-        <v>963</v>
+        <v>1016</v>
       </c>
       <c r="M108" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="N108" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="O108" t="s">
-        <v>1026</v>
+        <v>1083</v>
       </c>
       <c r="P108" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="Q108" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B109" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="C109" t="s">
-        <v>821</v>
+        <v>865</v>
       </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E109" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="J109" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="K109" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="L109" t="s">
-        <v>964</v>
+        <v>1017</v>
       </c>
       <c r="M109" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="N109" t="s">
-        <v>617</v>
+        <v>286</v>
       </c>
       <c r="O109" t="s">
-        <v>1027</v>
+        <v>1084</v>
       </c>
       <c r="P109" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="Q109" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>780</v>
       </c>
       <c r="C110" t="s">
-        <v>822</v>
+        <v>866</v>
       </c>
       <c r="D110" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E110" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>895</v>
+        <v>942</v>
       </c>
       <c r="J110" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="K110" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="L110" t="s">
-        <v>965</v>
+        <v>1018</v>
       </c>
       <c r="M110" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="N110" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="O110" t="s">
-        <v>1028</v>
+        <v>1085</v>
       </c>
       <c r="P110" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="Q110" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="C111" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="D111" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E111" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="s">
-        <v>896</v>
+        <v>943</v>
       </c>
       <c r="J111" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="K111" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="L111" t="s">
-        <v>966</v>
+        <v>1019</v>
       </c>
       <c r="M111" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="N111" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="O111" t="s">
-        <v>1029</v>
+        <v>1086</v>
       </c>
       <c r="P111" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="Q111" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B112" t="s">
-        <v>740</v>
-      </c>
-      <c r="C112" t="s">
-        <v>639</v>
-      </c>
-      <c r="D112" t="s">
-        <v>639</v>
-      </c>
-      <c r="E112" t="s">
-        <v>639</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
       <c r="G112"/>
       <c r="H112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
+      <c r="I112" t="s">
+        <v>944</v>
+      </c>
+      <c r="J112" t="s">
+        <v>623</v>
+      </c>
+      <c r="K112" t="s">
+        <v>624</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M112" t="s">
+        <v>625</v>
+      </c>
+      <c r="N112" t="s">
+        <v>626</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1087</v>
+      </c>
+      <c r="P112" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B113" t="s">
-        <v>740</v>
-      </c>
-      <c r="C113" t="s">
-        <v>639</v>
-      </c>
-      <c r="D113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E113" t="s">
-        <v>639</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="J113" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="K113" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="L113" t="s">
-        <v>967</v>
+        <v>1021</v>
       </c>
       <c r="M113" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="N113" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="O113" t="s">
-        <v>1030</v>
+        <v>1088</v>
       </c>
       <c r="P113" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="Q113" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B114" t="s">
-        <v>740</v>
+        <v>784</v>
       </c>
       <c r="C114" t="s">
-        <v>639</v>
+        <v>868</v>
       </c>
       <c r="D114" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E114" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114" t="s">
-        <v>898</v>
+        <v>946</v>
       </c>
       <c r="J114" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="K114" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="L114" t="s">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="M114" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N114" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="O114" t="s">
-        <v>1031</v>
+        <v>1089</v>
       </c>
       <c r="P114" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="Q114" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B115" t="s">
-        <v>713</v>
+        <v>785</v>
       </c>
       <c r="C115" t="s">
-        <v>824</v>
+        <v>869</v>
       </c>
       <c r="D115" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="E115" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
-      <c r="J115"/>
-      <c r="K115"/>
+      <c r="I115" t="s">
+        <v>947</v>
+      </c>
+      <c r="J115" t="s">
+        <v>648</v>
+      </c>
+      <c r="K115" t="s">
+        <v>649</v>
+      </c>
       <c r="L115" t="s">
-        <v>969</v>
+        <v>1023</v>
       </c>
       <c r="M115" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="N115" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="O115" t="s">
-        <v>1032</v>
+        <v>1089</v>
       </c>
       <c r="P115" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="Q115" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B116" t="s">
-        <v>713</v>
+        <v>785</v>
       </c>
       <c r="C116" t="s">
-        <v>825</v>
+        <v>870</v>
       </c>
       <c r="D116" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E116" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
-      <c r="J116"/>
-      <c r="K116"/>
+      <c r="I116" t="s">
+        <v>948</v>
+      </c>
+      <c r="J116" t="s">
+        <v>655</v>
+      </c>
+      <c r="K116" t="s">
+        <v>656</v>
+      </c>
       <c r="L116" t="s">
-        <v>970</v>
+        <v>1024</v>
       </c>
       <c r="M116" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="N116" t="s">
-        <v>665</v>
-      </c>
-      <c r="P116"/>
-      <c r="Q116"/>
+        <v>658</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P116" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B117" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="C117" t="s">
-        <v>826</v>
+        <v>871</v>
       </c>
       <c r="D117" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E117" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117" t="s">
-        <v>899</v>
+        <v>949</v>
       </c>
       <c r="J117" t="s">
+        <v>664</v>
+      </c>
+      <c r="K117" t="s">
+        <v>665</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M117" t="s">
+        <v>666</v>
+      </c>
+      <c r="N117" t="s">
+        <v>667</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P117" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q117" t="s">
         <v>669</v>
-      </c>
-      <c r="K117" t="s">
-        <v>670</v>
-      </c>
-      <c r="L117" t="s">
-        <v>971</v>
-      </c>
-      <c r="M117" t="s">
-        <v>671</v>
-      </c>
-      <c r="N117" t="s">
-        <v>672</v>
-      </c>
-      <c r="O117" t="s">
-        <v>1033</v>
-      </c>
-      <c r="P117" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B118" t="s">
-        <v>713</v>
+        <v>786</v>
       </c>
       <c r="C118" t="s">
-        <v>827</v>
+        <v>872</v>
       </c>
       <c r="D118" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E118" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118" t="s">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="J118" t="s">
+        <v>673</v>
+      </c>
+      <c r="K118" t="s">
+        <v>674</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M118" t="s">
+        <v>675</v>
+      </c>
+      <c r="N118" t="s">
+        <v>676</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1092</v>
+      </c>
+      <c r="P118" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q118" t="s">
         <v>678</v>
-      </c>
-      <c r="K118" t="s">
-        <v>679</v>
-      </c>
-      <c r="L118" t="s">
-        <v>972</v>
-      </c>
-      <c r="M118" t="s">
-        <v>680</v>
-      </c>
-      <c r="N118" t="s">
-        <v>681</v>
-      </c>
-      <c r="O118" t="s">
-        <v>1034</v>
-      </c>
-      <c r="P118" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B119" t="s">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="C119" t="s">
-        <v>828</v>
+        <v>680</v>
       </c>
       <c r="D119" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E119" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
-      <c r="I119" t="s">
-        <v>901</v>
-      </c>
-      <c r="J119" t="s">
-        <v>687</v>
-      </c>
-      <c r="K119" t="s">
-        <v>688</v>
-      </c>
-      <c r="L119" t="s">
-        <v>973</v>
-      </c>
-      <c r="M119" t="s">
-        <v>689</v>
-      </c>
-      <c r="N119" t="s">
-        <v>690</v>
-      </c>
-      <c r="O119" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P119" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>692</v>
-      </c>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="B120" t="s">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="C120" t="s">
-        <v>829</v>
+        <v>680</v>
       </c>
       <c r="D120" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="E120" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="J120" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="K120" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="L120" t="s">
-        <v>974</v>
+        <v>1027</v>
       </c>
       <c r="M120" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="N120" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="O120" t="s">
-        <v>1036</v>
+        <v>1093</v>
       </c>
       <c r="P120" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="Q120" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="B121" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="C121" t="s">
-        <v>830</v>
+        <v>680</v>
       </c>
       <c r="D121" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="E121" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="M121"/>
-      <c r="N121"/>
-      <c r="P121"/>
-      <c r="Q121"/>
+      <c r="I121" t="s">
+        <v>952</v>
+      </c>
+      <c r="J121" t="s">
+        <v>689</v>
+      </c>
+      <c r="K121" t="s">
+        <v>690</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M121" t="s">
+        <v>691</v>
+      </c>
+      <c r="N121" t="s">
+        <v>692</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P121" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B122" t="s">
-        <v>720</v>
-      </c>
-      <c r="D122"/>
-      <c r="E122"/>
+        <v>754</v>
+      </c>
+      <c r="C122" t="s">
+        <v>873</v>
+      </c>
+      <c r="D122" t="s">
+        <v>696</v>
+      </c>
+      <c r="E122" t="s">
+        <v>697</v>
+      </c>
       <c r="G122"/>
       <c r="H122"/>
-      <c r="I122" t="s">
-        <v>903</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M122" t="s">
+        <v>698</v>
+      </c>
+      <c r="N122" t="s">
+        <v>699</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P122" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>702</v>
+      </c>
+      <c r="B123" t="s">
+        <v>754</v>
+      </c>
+      <c r="C123" t="s">
+        <v>874</v>
+      </c>
+      <c r="D123" t="s">
+        <v>703</v>
+      </c>
+      <c r="E123" t="s">
+        <v>704</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M123" t="s">
+        <v>705</v>
+      </c>
+      <c r="N123" t="s">
         <v>706</v>
       </c>
-      <c r="K122" t="s">
+      <c r="P123"/>
+      <c r="Q123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
         <v>707</v>
       </c>
-      <c r="L122" t="s">
-        <v>975</v>
-      </c>
-      <c r="M122" t="s">
+      <c r="B124" t="s">
+        <v>787</v>
+      </c>
+      <c r="C124" t="s">
+        <v>875</v>
+      </c>
+      <c r="D124" t="s">
         <v>708</v>
       </c>
-      <c r="N122" t="s">
-        <v>454</v>
-      </c>
-      <c r="O122" t="s">
-        <v>1037</v>
-      </c>
-      <c r="P122" t="s">
+      <c r="E124" t="s">
         <v>709</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124" t="s">
+        <v>953</v>
+      </c>
+      <c r="J124" t="s">
         <v>710</v>
+      </c>
+      <c r="K124" t="s">
+        <v>711</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M124" t="s">
+        <v>712</v>
+      </c>
+      <c r="N124" t="s">
+        <v>713</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1096</v>
+      </c>
+      <c r="P124" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>716</v>
+      </c>
+      <c r="B125" t="s">
+        <v>754</v>
+      </c>
+      <c r="C125" t="s">
+        <v>876</v>
+      </c>
+      <c r="D125" t="s">
+        <v>717</v>
+      </c>
+      <c r="E125" t="s">
+        <v>718</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125" t="s">
+        <v>954</v>
+      </c>
+      <c r="J125" t="s">
+        <v>719</v>
+      </c>
+      <c r="K125" t="s">
+        <v>720</v>
+      </c>
+      <c r="L125" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M125" t="s">
+        <v>721</v>
+      </c>
+      <c r="N125" t="s">
+        <v>722</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P125" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>725</v>
+      </c>
+      <c r="B126" t="s">
+        <v>788</v>
+      </c>
+      <c r="C126" t="s">
+        <v>877</v>
+      </c>
+      <c r="D126" t="s">
+        <v>726</v>
+      </c>
+      <c r="E126" t="s">
+        <v>727</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126" t="s">
+        <v>955</v>
+      </c>
+      <c r="J126" t="s">
+        <v>728</v>
+      </c>
+      <c r="K126" t="s">
+        <v>729</v>
+      </c>
+      <c r="L126" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M126" t="s">
+        <v>730</v>
+      </c>
+      <c r="N126" t="s">
+        <v>731</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1098</v>
+      </c>
+      <c r="P126" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>734</v>
+      </c>
+      <c r="B127" t="s">
+        <v>789</v>
+      </c>
+      <c r="C127" t="s">
+        <v>878</v>
+      </c>
+      <c r="D127" t="s">
+        <v>735</v>
+      </c>
+      <c r="E127" t="s">
+        <v>736</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127" t="s">
+        <v>956</v>
+      </c>
+      <c r="J127" t="s">
+        <v>737</v>
+      </c>
+      <c r="K127" t="s">
+        <v>738</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M127" t="s">
+        <v>739</v>
+      </c>
+      <c r="N127" t="s">
+        <v>740</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P127" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>743</v>
+      </c>
+      <c r="B128" t="s">
+        <v>790</v>
+      </c>
+      <c r="C128" t="s">
+        <v>879</v>
+      </c>
+      <c r="D128" t="s">
+        <v>744</v>
+      </c>
+      <c r="E128" t="s">
+        <v>745</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>746</v>
+      </c>
+      <c r="B129" t="s">
+        <v>761</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129" t="s">
+        <v>957</v>
+      </c>
+      <c r="J129" t="s">
+        <v>747</v>
+      </c>
+      <c r="K129" t="s">
+        <v>748</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M129" t="s">
+        <v>749</v>
+      </c>
+      <c r="N129" t="s">
+        <v>457</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P129" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/CharaText.xlsx
+++ b/Original/CN/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1038">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -777,17 +777,6 @@
   <si>
     <t xml:space="preserve">*ドスン*
 *ズシン*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*skitter skitter*
-*scurry...*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*カサカサ*
-*カサ…*</t>
   </si>
   <si>
     <t xml:space="preserve">horse</t>
@@ -2435,30 +2424,6 @@
     <t xml:space="preserve">「つまらぬな」</t>
   </si>
   <si>
-    <t xml:space="preserve">mech_golem_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Here we go!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「行くぞ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I’ll leave the rest to you, Widge!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「あとは任せたぜ、ウィッジ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mech_golem_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I’ll leave the rest to you, Higgs!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「あとは任せたぜ、ヒッグス！」</t>
-  </si>
-  <si>
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
@@ -2774,128 +2739,6 @@
 「もう苦しまなくていい」</t>
   </si>
   <si>
-    <t xml:space="preserve">keeper_garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"How adorable."
-"Muwohoho."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「かわいいのう」
-「フホホホ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Muwohohoho! You dare challenge me!?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「フホホホ！わっちに刃を向けるか！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"Muwohohoho! Splendid!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「フホォホホホォ！天晴じゃ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Muwohohoho, how weak you are!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「フホホホホ、弱いのう！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namamani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Nice try."
-"Another malfunction?"
-"Good."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「馬鹿にしてくれるじゃないか」
-「また誤動作か？」
-「いいぞ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Great."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「やってくれたな」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"How trivial."
-"You understand now?"
-"Heh."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「くだらないな」
-「理解できたか？」
-「ふん」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namamani2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You are my enemy then?"
-"Why?"
-"So be it."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「お前は敵なのか？」
-「何故私を？」
-「身に覚えはないが、仕方ない」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Am I... going to die? "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「死ぬ…のか？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"So... you were my enemy?"
-"Who am I?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「敵…だったのか？」
-「私は何者だ？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erishe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I wonder where he went?"
-You feel a warmth as if being wrapped in gentle sunlight. "Come here, Vesel."
-"It feels like I could forget the passage of time."
-"We should hurry back."
-"We'll be late for the play."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「どこに行ってしまったのかしらね？」
-柔らかな陽だまりの中にいるような温かさをあなたは感じた。 
-「ふふ、おいで、ヴェセル」
-「時が経つのを忘れてしまいそうです」
-「早く帰らなきゃ」
-「お芝居に遅れてしまいます」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"P-please... stop."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「や…やめてください」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"B-brother..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「にい…さん…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Sorry..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ごめんなさい…」</t>
-  </si>
-  <si>
     <t xml:space="preserve">larnneire</t>
   </si>
   <si>
@@ -2929,6 +2772,12 @@
   </si>
   <si>
     <t xml:space="preserve">「うぅ…誰かが…ジャビ王に風の異変を伝えなければ…このままでは…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sorry..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ごめんなさい…」</t>
   </si>
   <si>
     <t xml:space="preserve">lomias</t>
@@ -3403,7 +3252,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.228</t>
+    <t xml:space="preserve">EA 23.190</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -3424,9 +3273,6 @@
     <t xml:space="preserve">EA 23.198</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.207</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA 23.61 fix 2</t>
   </si>
   <si>
@@ -3466,9 +3312,6 @@
     <t xml:space="preserve">EA 23.90</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.201</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA 23.117</t>
   </si>
   <si>
@@ -3482,15 +3325,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.224</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.194</t>
@@ -3613,10 +3447,6 @@
   <si>
     <t xml:space="preserve">*咚*
 *邦*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*窸窸窣窣*
-*窸窣…*</t>
   </si>
   <si>
     <t xml:space="preserve">*啪咯啪咯*
@@ -3998,18 +3828,6 @@
 「也罢，迷路的旅行也是一种冒险」
 「你知道风的名字吗？」
 「水声是最古老的传颂者」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「真可爱」
-「呼呵呵呵」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「他去哪里了呢？」
-你感觉自己仿佛置身于柔和阳光中般温暖。
-「呵呵，来这边，韦赛尔」
-「都要忘记时间还会流逝了」
-「必须快些回去」
-「要赶不上看戏剧了」</t>
   </si>
   <si>
     <t xml:space="preserve">「你听过那个王子被变成野兽的童话吗？」
@@ -4357,9 +4175,6 @@
     <t xml:space="preserve">「来，跳支舞看看吧」</t>
   </si>
   <si>
-    <t xml:space="preserve">「上吧！」</t>
-  </si>
-  <si>
     <t xml:space="preserve">小妹妹「杀吧！杀吧！」
 小妹妹「给我粉碎吧！」
 小妹妹「#bigdaddy，上啊！！」</t>
@@ -4384,22 +4199,6 @@
     <t xml:space="preserve">「我并不喜欢争斗…」
 「没有办法」
 「如果这就是你想要的，那就来吧」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「呼呵呵呵！竟敢对咱刀刃相向！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「你这是在耍我吧」
-「又出故障了吗？」
-「好啊」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「你是我的敌人吗？」
-「为什么找我麻烦？」
-「虽然不记得发生过什么，但没办法了」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「请…不要这样」</t>
   </si>
   <si>
     <t xml:space="preserve">「为什么我们不得不战斗？」
@@ -4678,12 +4477,6 @@
     <t xml:space="preserve">「不可能…！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「交给你了，威机！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「交给你了，黑格斯！」</t>
-  </si>
-  <si>
     <t xml:space="preserve">「咯嗷哦哦哦哦哦！」</t>
   </si>
   <si>
@@ -4703,18 +4496,6 @@
   </si>
   <si>
     <t xml:space="preserve">「我要去你那边了」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「呼呵呼呵呵！此亦风雅！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「很能干嘛」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「我要…死了吗？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「哥…哥…」</t>
   </si>
   <si>
     <t xml:space="preserve">「呜…谁来…谁来把风的异常变化告诉贾比王…这样下去…」</t>
@@ -4947,18 +4728,6 @@
     <t xml:space="preserve">「真遗憾啊」
 「安息吧」
 「你已经不会再痛苦了」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「呼呵呵呵，真弱呢！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「真无趣」
-「这下明白了吗？」
-「哼」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「原来你…是我的敌人？」
-「我究竟是谁？」</t>
   </si>
   <si>
     <t xml:space="preserve">「对不起…」</t>
@@ -5166,14 +4935,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>893</v>
+        <v>844</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -5182,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>958</v>
+        <v>904</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -5191,7 +4960,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>1036</v>
+        <v>976</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5205,10 +4974,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>753</v>
+        <v>712</v>
       </c>
       <c r="C4" t="s">
-        <v>791</v>
+        <v>745</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -5219,7 +4988,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>791</v>
+        <v>745</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -5228,7 +4997,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>959</v>
+        <v>905</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -5244,10 +5013,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="C5" t="s">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5269,10 +5038,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>755</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
-        <v>793</v>
+        <v>747</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5285,7 +5054,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -5294,7 +5063,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>1037</v>
+        <v>977</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -5308,10 +5077,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C7" t="s">
-        <v>794</v>
+        <v>748</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5322,7 +5091,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>894</v>
+        <v>845</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5331,7 +5100,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>961</v>
+        <v>907</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5347,10 +5116,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C8" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5361,7 +5130,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>895</v>
+        <v>846</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5370,7 +5139,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>962</v>
+        <v>908</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5379,7 +5148,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>1038</v>
+        <v>978</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5393,10 +5162,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C9" t="s">
-        <v>796</v>
+        <v>750</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5407,7 +5176,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>896</v>
+        <v>847</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5416,7 +5185,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>963</v>
+        <v>909</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5425,7 +5194,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>1039</v>
+        <v>979</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5439,10 +5208,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C10" t="s">
-        <v>797</v>
+        <v>751</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5453,21 +5222,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>897</v>
+        <v>848</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>964</v>
+        <v>910</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>1040</v>
+        <v>980</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -5479,10 +5248,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="C11" t="s">
-        <v>798</v>
+        <v>752</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5493,7 +5262,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>898</v>
+        <v>849</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -5502,7 +5271,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>965</v>
+        <v>911</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -5511,7 +5280,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>1041</v>
+        <v>981</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5525,10 +5294,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="C12" t="s">
-        <v>799</v>
+        <v>753</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5539,7 +5308,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>899</v>
+        <v>850</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5548,7 +5317,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>966</v>
+        <v>912</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5557,7 +5326,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>1042</v>
+        <v>982</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5571,10 +5340,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
+        <v>713</v>
+      </c>
+      <c r="C13" t="s">
         <v>754</v>
-      </c>
-      <c r="C13" t="s">
-        <v>800</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5592,7 +5361,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>967</v>
+        <v>913</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5608,10 +5377,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
+        <v>714</v>
+      </c>
+      <c r="C14" t="s">
         <v>755</v>
-      </c>
-      <c r="C14" t="s">
-        <v>801</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5622,7 +5391,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>900</v>
+        <v>851</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5631,7 +5400,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>968</v>
+        <v>914</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -5640,7 +5409,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>1043</v>
+        <v>983</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5654,10 +5423,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>758</v>
+        <v>717</v>
       </c>
       <c r="C15" t="s">
-        <v>802</v>
+        <v>756</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5693,14 +5462,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>901</v>
+        <v>852</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5709,7 +5478,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>969</v>
+        <v>915</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5718,7 +5487,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>1044</v>
+        <v>984</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5732,10 +5501,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="C17" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5746,7 +5515,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5755,7 +5524,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5764,7 +5533,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5778,14 +5547,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>902</v>
+        <v>853</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5794,7 +5563,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>970</v>
+        <v>916</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5803,7 +5572,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>1045</v>
+        <v>985</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5817,14 +5586,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>902</v>
+        <v>853</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5833,7 +5602,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>971</v>
+        <v>917</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5842,7 +5611,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>1046</v>
+        <v>986</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5856,10 +5625,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C20" t="s">
-        <v>804</v>
+        <v>758</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5870,7 +5639,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>903</v>
+        <v>854</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5879,7 +5648,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>972</v>
+        <v>918</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5888,7 +5657,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>1047</v>
+        <v>987</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5902,14 +5671,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>904</v>
+        <v>855</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5918,7 +5687,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>973</v>
+        <v>919</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5927,7 +5696,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>1048</v>
+        <v>988</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5941,14 +5710,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>905</v>
+        <v>856</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5957,7 +5726,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>974</v>
+        <v>920</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5966,7 +5735,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>1049</v>
+        <v>989</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5980,10 +5749,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="C23" t="s">
-        <v>805</v>
+        <v>759</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -6005,10 +5774,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C24" t="s">
-        <v>806</v>
+        <v>760</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -6019,7 +5788,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>906</v>
+        <v>857</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -6028,7 +5797,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>975</v>
+        <v>921</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -6037,7 +5806,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -6051,14 +5820,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>907</v>
+        <v>858</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -6083,10 +5852,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C26" t="s">
         <v>761</v>
-      </c>
-      <c r="C26" t="s">
-        <v>807</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -6097,7 +5866,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>807</v>
+        <v>761</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -6115,10 +5884,10 @@
         <v>169</v>
       </c>
       <c r="B27" t="s">
+        <v>711</v>
+      </c>
+      <c r="C27" t="s">
         <v>762</v>
-      </c>
-      <c r="C27" t="s">
-        <v>808</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -6126,144 +5895,158 @@
       <c r="E27" t="s">
         <v>171</v>
       </c>
-      <c r="F27" t="s">
-        <v>808</v>
-      </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" t="s">
-        <v>171</v>
-      </c>
+      <c r="G27"/>
+      <c r="H27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="L27" t="s">
+        <v>922</v>
+      </c>
+      <c r="M27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
+        <v>991</v>
+      </c>
+      <c r="P27" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>752</v>
-      </c>
-      <c r="C28" t="s">
-        <v>809</v>
-      </c>
-      <c r="D28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" t="s">
-        <v>174</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28"/>
-      <c r="K28"/>
+      <c r="I28" t="s">
+        <v>859</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
       <c r="L28" t="s">
-        <v>976</v>
+        <v>923</v>
       </c>
       <c r="M28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N28" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s">
-        <v>1051</v>
+        <v>992</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>752</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
+        <v>721</v>
+      </c>
+      <c r="C29" t="s">
+        <v>763</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>908</v>
+        <v>860</v>
       </c>
       <c r="J29" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s">
-        <v>977</v>
+        <v>924</v>
       </c>
       <c r="M29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O29" t="s">
-        <v>1052</v>
+        <v>993</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q29" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="C30" t="s">
-        <v>810</v>
+        <v>764</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>909</v>
+        <v>860</v>
       </c>
       <c r="J30" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" t="s">
+        <v>924</v>
+      </c>
+      <c r="M30" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" t="s">
         <v>189</v>
       </c>
-      <c r="K30" t="s">
+      <c r="O30" t="s">
+        <v>993</v>
+      </c>
+      <c r="P30" t="s">
         <v>190</v>
       </c>
-      <c r="L30" t="s">
-        <v>978</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="Q30" t="s">
         <v>191</v>
-      </c>
-      <c r="N30" t="s">
-        <v>192</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P30" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31">
@@ -6271,10 +6054,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="C31" t="s">
-        <v>811</v>
+        <v>765</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6285,31 +6068,31 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>909</v>
+        <v>860</v>
       </c>
       <c r="J31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" t="s">
+        <v>924</v>
+      </c>
+      <c r="M31" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" t="s">
         <v>189</v>
       </c>
-      <c r="K31" t="s">
+      <c r="O31" t="s">
+        <v>993</v>
+      </c>
+      <c r="P31" t="s">
         <v>190</v>
       </c>
-      <c r="L31" t="s">
-        <v>978</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="Q31" t="s">
         <v>191</v>
-      </c>
-      <c r="N31" t="s">
-        <v>192</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P31" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32">
@@ -6317,10 +6100,10 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="C32" t="s">
-        <v>812</v>
+        <v>766</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6331,364 +6114,336 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>909</v>
+        <v>861</v>
       </c>
       <c r="J32" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s">
-        <v>978</v>
+        <v>925</v>
       </c>
       <c r="M32" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="N32" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="O32" t="s">
-        <v>1053</v>
+        <v>994</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q32" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>764</v>
+        <v>711</v>
       </c>
       <c r="C33" t="s">
-        <v>813</v>
+        <v>767</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
       <c r="J33" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s">
-        <v>979</v>
+        <v>926</v>
       </c>
       <c r="M33" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O33" t="s">
-        <v>1054</v>
+        <v>995</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q33" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>752</v>
-      </c>
-      <c r="C34" t="s">
-        <v>814</v>
-      </c>
-      <c r="D34" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" t="s">
-        <v>212</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34" t="s">
-        <v>911</v>
-      </c>
-      <c r="J34" t="s">
-        <v>213</v>
-      </c>
-      <c r="K34" t="s">
-        <v>214</v>
-      </c>
+      <c r="J34"/>
+      <c r="K34"/>
       <c r="L34" t="s">
-        <v>980</v>
+        <v>927</v>
       </c>
       <c r="M34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O34" t="s">
-        <v>1055</v>
+        <v>996</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="J35"/>
-      <c r="K35"/>
+      <c r="I35" t="s">
+        <v>863</v>
+      </c>
+      <c r="J35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" t="s">
+        <v>223</v>
+      </c>
       <c r="L35" t="s">
-        <v>981</v>
+        <v>928</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>1056</v>
+        <v>997</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="G36"/>
-      <c r="H36"/>
+      <c r="F36" t="s">
+        <v>831</v>
+      </c>
+      <c r="G36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" t="s">
+        <v>230</v>
+      </c>
       <c r="I36" t="s">
-        <v>912</v>
+        <v>864</v>
       </c>
       <c r="J36" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L36" t="s">
-        <v>982</v>
+        <v>929</v>
       </c>
       <c r="M36" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="N36" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O36" t="s">
-        <v>1057</v>
+        <v>998</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q36" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>752</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
+        <v>723</v>
+      </c>
+      <c r="C37" t="s">
+        <v>768</v>
+      </c>
+      <c r="D37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" t="s">
+        <v>239</v>
+      </c>
       <c r="F37" t="s">
-        <v>880</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>913</v>
+        <v>240</v>
       </c>
       <c r="J37" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s">
-        <v>983</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O37" t="s">
-        <v>1058</v>
+        <v>240</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>765</v>
+        <v>724</v>
       </c>
       <c r="C38" t="s">
-        <v>815</v>
+        <v>769</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>243</v>
+        <v>832</v>
       </c>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I38" t="s">
-        <v>243</v>
+        <v>864</v>
       </c>
       <c r="J38" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="K38" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s">
-        <v>243</v>
+        <v>929</v>
       </c>
       <c r="M38" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="N38" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O38" t="s">
-        <v>243</v>
+        <v>998</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Q38" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>766</v>
+        <v>711</v>
       </c>
       <c r="C39" t="s">
-        <v>816</v>
+        <v>770</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" t="s">
-        <v>881</v>
-      </c>
-      <c r="G39" t="s">
-        <v>247</v>
-      </c>
-      <c r="H39" t="s">
         <v>248</v>
       </c>
-      <c r="I39" t="s">
-        <v>913</v>
-      </c>
-      <c r="J39" t="s">
-        <v>234</v>
-      </c>
-      <c r="K39" t="s">
-        <v>235</v>
-      </c>
-      <c r="L39" t="s">
-        <v>983</v>
-      </c>
-      <c r="M39" t="s">
-        <v>236</v>
-      </c>
-      <c r="N39" t="s">
-        <v>237</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1058</v>
-      </c>
-      <c r="P39" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>239</v>
-      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>752</v>
-      </c>
-      <c r="C40" t="s">
-        <v>817</v>
-      </c>
-      <c r="D40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E40" t="s">
-        <v>251</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="J40"/>
@@ -6700,482 +6455,510 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s">
+        <v>715</v>
+      </c>
+      <c r="C41" t="s">
+        <v>771</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
         <v>252</v>
       </c>
-      <c r="B41" t="s">
-        <v>752</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
+      <c r="I41" t="s">
+        <v>865</v>
+      </c>
+      <c r="J41" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s">
+        <v>930</v>
+      </c>
+      <c r="M41" t="s">
+        <v>255</v>
+      </c>
+      <c r="N41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="s">
+        <v>999</v>
+      </c>
+      <c r="P41" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="C42" t="s">
-        <v>818</v>
+        <v>772</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>914</v>
+        <v>866</v>
       </c>
       <c r="J42" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K42" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>984</v>
+        <v>931</v>
       </c>
       <c r="M42" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N42" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>1059</v>
+        <v>1000</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>752</v>
-      </c>
-      <c r="C43" t="s">
-        <v>819</v>
-      </c>
-      <c r="D43" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" t="s">
-        <v>264</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>915</v>
+        <v>867</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K43" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L43" t="s">
-        <v>985</v>
+        <v>932</v>
       </c>
       <c r="M43" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="N43" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O43" t="s">
-        <v>1060</v>
-      </c>
-      <c r="P43" t="s">
-        <v>269</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="P43"/>
       <c r="Q43" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>916</v>
+        <v>868</v>
       </c>
       <c r="J44" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K44" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s">
-        <v>986</v>
+        <v>933</v>
       </c>
       <c r="M44" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N44" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O44" t="s">
-        <v>1061</v>
-      </c>
-      <c r="P44"/>
+        <v>1002</v>
+      </c>
+      <c r="P44" t="s">
+        <v>279</v>
+      </c>
       <c r="Q44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45" t="s">
-        <v>917</v>
-      </c>
-      <c r="J45" t="s">
-        <v>278</v>
-      </c>
-      <c r="K45" t="s">
-        <v>279</v>
-      </c>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="L45" t="s">
-        <v>987</v>
+        <v>934</v>
       </c>
       <c r="M45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N45" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O45" t="s">
-        <v>1062</v>
+        <v>1003</v>
       </c>
       <c r="P45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q45" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
-        <v>752</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46"/>
+        <v>718</v>
+      </c>
+      <c r="C46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" t="s">
+        <v>288</v>
+      </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>988</v>
+        <v>935</v>
       </c>
       <c r="M46" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N46" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>1063</v>
+        <v>1004</v>
       </c>
       <c r="P46" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>759</v>
+        <v>715</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>773</v>
       </c>
       <c r="D47" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="J47"/>
-      <c r="K47"/>
+      <c r="I47" t="s">
+        <v>869</v>
+      </c>
+      <c r="J47" t="s">
+        <v>296</v>
+      </c>
+      <c r="K47" t="s">
+        <v>297</v>
+      </c>
       <c r="L47" t="s">
-        <v>989</v>
+        <v>936</v>
       </c>
       <c r="M47" t="s">
+        <v>298</v>
+      </c>
+      <c r="N47" t="s">
+        <v>299</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P47" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q47" t="s">
         <v>292</v>
-      </c>
-      <c r="N47" t="s">
-        <v>293</v>
-      </c>
-      <c r="O47" t="s">
-        <v>1064</v>
-      </c>
-      <c r="P47" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="C48" t="s">
-        <v>820</v>
+        <v>774</v>
       </c>
       <c r="D48" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>918</v>
+        <v>870</v>
       </c>
       <c r="J48" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K48" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>990</v>
+        <v>937</v>
       </c>
       <c r="M48" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N48" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>1064</v>
+        <v>1005</v>
       </c>
       <c r="P48" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q48" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="C49" t="s">
-        <v>821</v>
+        <v>775</v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E49" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>919</v>
+        <v>871</v>
       </c>
       <c r="J49" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K49" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>991</v>
+        <v>938</v>
       </c>
       <c r="M49" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N49" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>1065</v>
+        <v>938</v>
       </c>
       <c r="P49" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q49" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>756</v>
-      </c>
-      <c r="C50" t="s">
-        <v>822</v>
-      </c>
-      <c r="D50" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50" t="s">
-        <v>314</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>920</v>
+        <v>872</v>
       </c>
       <c r="J50" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K50" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L50" t="s">
-        <v>992</v>
+        <v>939</v>
       </c>
       <c r="M50" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O50" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="P50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q50" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>752</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
+        <v>726</v>
+      </c>
+      <c r="C51" t="s">
+        <v>776</v>
+      </c>
+      <c r="D51" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" t="s">
+        <v>325</v>
+      </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>921</v>
+        <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s">
-        <v>993</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s">
-        <v>1066</v>
+        <v>326</v>
       </c>
       <c r="P51" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>768</v>
+        <v>727</v>
       </c>
       <c r="C52" t="s">
-        <v>823</v>
+        <v>777</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53">
@@ -7183,10 +6966,10 @@
         <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>769</v>
+        <v>726</v>
       </c>
       <c r="C53" t="s">
-        <v>824</v>
+        <v>778</v>
       </c>
       <c r="D53" t="s">
         <v>331</v>
@@ -7197,31 +6980,31 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
@@ -7229,10 +7012,10 @@
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="C54" t="s">
-        <v>825</v>
+        <v>779</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -7243,31 +7026,31 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55">
@@ -7275,10 +7058,10 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>768</v>
+        <v>713</v>
       </c>
       <c r="C55" t="s">
-        <v>826</v>
+        <v>780</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7289,116 +7072,116 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>873</v>
       </c>
       <c r="J55" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="K55" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L55" t="s">
-        <v>329</v>
+        <v>940</v>
       </c>
       <c r="M55" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="N55" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O55" t="s">
-        <v>329</v>
+        <v>1007</v>
       </c>
       <c r="P55" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="Q55" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>754</v>
-      </c>
-      <c r="C56" t="s">
-        <v>827</v>
-      </c>
-      <c r="D56" t="s">
-        <v>340</v>
-      </c>
-      <c r="E56" t="s">
-        <v>341</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>922</v>
+        <v>874</v>
       </c>
       <c r="J56" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K56" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s">
-        <v>994</v>
+        <v>941</v>
       </c>
       <c r="M56" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N56" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O56" t="s">
-        <v>1067</v>
+        <v>1008</v>
       </c>
       <c r="P56" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q56" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
-        <v>752</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
+        <v>711</v>
+      </c>
+      <c r="C57" t="s">
+        <v>781</v>
+      </c>
+      <c r="D57" t="s">
+        <v>353</v>
+      </c>
+      <c r="E57" t="s">
+        <v>354</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>923</v>
+        <v>165</v>
       </c>
       <c r="J57" t="s">
-        <v>349</v>
+        <v>165</v>
       </c>
       <c r="K57" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="L57" t="s">
-        <v>995</v>
+        <v>165</v>
       </c>
       <c r="M57" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="N57" t="s">
-        <v>352</v>
+        <v>165</v>
       </c>
       <c r="O57" t="s">
-        <v>1068</v>
+        <v>165</v>
       </c>
       <c r="P57" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="Q57" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
@@ -7406,10 +7189,10 @@
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C58" t="s">
-        <v>828</v>
+        <v>782</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -7417,8 +7200,15 @@
       <c r="E58" t="s">
         <v>357</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
+      <c r="F58" t="s">
+        <v>833</v>
+      </c>
+      <c r="G58" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" t="s">
+        <v>359</v>
+      </c>
       <c r="I58" t="s">
         <v>165</v>
       </c>
@@ -7449,53 +7239,40 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="C59" t="s">
-        <v>829</v>
+        <v>783</v>
       </c>
       <c r="D59" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E59" t="s">
-        <v>360</v>
-      </c>
-      <c r="F59" t="s">
-        <v>882</v>
-      </c>
-      <c r="G59" t="s">
-        <v>361</v>
-      </c>
-      <c r="H59" t="s">
         <v>362</v>
       </c>
+      <c r="G59"/>
+      <c r="H59"/>
       <c r="I59" t="s">
         <v>165</v>
       </c>
-      <c r="J59" t="s">
-        <v>165</v>
-      </c>
+      <c r="J59"/>
       <c r="K59" t="s">
         <v>165</v>
       </c>
       <c r="L59" t="s">
         <v>165</v>
       </c>
-      <c r="M59" t="s">
-        <v>165</v>
-      </c>
+      <c r="M59"/>
       <c r="N59" t="s">
         <v>165</v>
       </c>
       <c r="O59" t="s">
         <v>165</v>
       </c>
-      <c r="P59" t="s">
-        <v>165</v>
-      </c>
+      <c r="P59"/>
       <c r="Q59" t="s">
         <v>165</v>
       </c>
@@ -7505,105 +7282,111 @@
         <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>770</v>
-      </c>
-      <c r="C60" t="s">
-        <v>830</v>
-      </c>
-      <c r="D60" t="s">
+        <v>711</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>834</v>
+      </c>
+      <c r="G60" t="s">
         <v>364</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>365</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
       <c r="I60" t="s">
-        <v>165</v>
-      </c>
-      <c r="J60"/>
+        <v>366</v>
+      </c>
+      <c r="J60" t="s">
+        <v>366</v>
+      </c>
       <c r="K60" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="L60" t="s">
-        <v>165</v>
-      </c>
-      <c r="M60"/>
+        <v>366</v>
+      </c>
+      <c r="M60" t="s">
+        <v>366</v>
+      </c>
       <c r="N60" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s">
-        <v>165</v>
-      </c>
-      <c r="P60"/>
+        <v>366</v>
+      </c>
+      <c r="P60" t="s">
+        <v>366</v>
+      </c>
       <c r="Q60" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B61" t="s">
-        <v>752</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
+        <v>715</v>
+      </c>
+      <c r="C61" t="s">
+        <v>784</v>
+      </c>
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" t="s">
+        <v>369</v>
+      </c>
       <c r="F61" t="s">
-        <v>883</v>
+        <v>835</v>
       </c>
       <c r="G61" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H61" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="K61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="M61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="N61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="O61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="P61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="Q61" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s">
-        <v>756</v>
-      </c>
-      <c r="C62" t="s">
-        <v>831</v>
-      </c>
-      <c r="D62" t="s">
-        <v>371</v>
-      </c>
-      <c r="E62" t="s">
-        <v>372</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>884</v>
+        <v>836</v>
       </c>
       <c r="G62" t="s">
         <v>373</v>
@@ -7612,228 +7395,207 @@
         <v>374</v>
       </c>
       <c r="I62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="J62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="K62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="L62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="N62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="O62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="Q62" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>752</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63" t="s">
-        <v>885</v>
-      </c>
-      <c r="G63" t="s">
-        <v>376</v>
-      </c>
-      <c r="H63" t="s">
+        <v>729</v>
+      </c>
+      <c r="C63" t="s">
+        <v>785</v>
+      </c>
+      <c r="D63" t="s">
         <v>377</v>
       </c>
+      <c r="E63" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
       <c r="I63" t="s">
-        <v>378</v>
+        <v>875</v>
       </c>
       <c r="J63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K63" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s">
-        <v>378</v>
+        <v>942</v>
       </c>
       <c r="M63" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N63" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O63" t="s">
-        <v>378</v>
+        <v>1009</v>
       </c>
       <c r="P63" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q63" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s">
-        <v>771</v>
+        <v>715</v>
       </c>
       <c r="C64" t="s">
-        <v>832</v>
+        <v>786</v>
       </c>
       <c r="D64" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E64" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>924</v>
+        <v>876</v>
       </c>
       <c r="J64" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K64" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L64" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
       <c r="M64" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N64" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>1069</v>
+        <v>1010</v>
       </c>
       <c r="P64" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q64" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="C65" t="s">
-        <v>833</v>
+        <v>787</v>
       </c>
       <c r="D65" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E65" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>925</v>
+        <v>877</v>
       </c>
       <c r="J65" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K65" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L65" t="s">
-        <v>997</v>
+        <v>944</v>
       </c>
       <c r="M65" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="N65" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="O65" t="s">
-        <v>1070</v>
+        <v>1011</v>
       </c>
       <c r="P65" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q65" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>756</v>
-      </c>
-      <c r="C66" t="s">
-        <v>834</v>
-      </c>
-      <c r="D66" t="s">
-        <v>398</v>
-      </c>
-      <c r="E66" t="s">
-        <v>399</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66" t="s">
-        <v>926</v>
-      </c>
-      <c r="J66" t="s">
-        <v>400</v>
-      </c>
-      <c r="K66" t="s">
-        <v>401</v>
-      </c>
-      <c r="L66" t="s">
-        <v>998</v>
-      </c>
-      <c r="M66" t="s">
-        <v>402</v>
-      </c>
-      <c r="N66" t="s">
-        <v>403</v>
-      </c>
-      <c r="O66" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P66" t="s">
+        <v>711</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>837</v>
+      </c>
+      <c r="G66" t="s">
         <v>404</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="H66" t="s">
         <v>405</v>
       </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>886</v>
+        <v>838</v>
       </c>
       <c r="G67" t="s">
         <v>407</v>
@@ -7841,114 +7603,114 @@
       <c r="H67" t="s">
         <v>408</v>
       </c>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="I67" t="s">
+        <v>240</v>
+      </c>
+      <c r="J67" t="s">
+        <v>240</v>
+      </c>
+      <c r="K67" t="s">
+        <v>240</v>
+      </c>
+      <c r="L67" t="s">
+        <v>240</v>
+      </c>
+      <c r="M67" t="s">
+        <v>240</v>
+      </c>
+      <c r="N67" t="s">
+        <v>240</v>
+      </c>
+      <c r="O67" t="s">
+        <v>240</v>
+      </c>
+      <c r="P67" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>752</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68" t="s">
-        <v>887</v>
-      </c>
-      <c r="G68" t="s">
+        <v>730</v>
+      </c>
+      <c r="C68" t="s">
+        <v>788</v>
+      </c>
+      <c r="D68" t="s">
         <v>410</v>
       </c>
-      <c r="H68" t="s">
+      <c r="E68" t="s">
         <v>411</v>
       </c>
+      <c r="G68"/>
+      <c r="H68"/>
       <c r="I68" t="s">
-        <v>243</v>
+        <v>878</v>
       </c>
       <c r="J68" t="s">
-        <v>243</v>
+        <v>412</v>
       </c>
       <c r="K68" t="s">
-        <v>243</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s">
-        <v>243</v>
+        <v>945</v>
       </c>
       <c r="M68" t="s">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="N68" t="s">
-        <v>243</v>
+        <v>415</v>
       </c>
       <c r="O68" t="s">
-        <v>243</v>
+        <v>1012</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="Q68" t="s">
-        <v>243</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s">
-        <v>772</v>
+        <v>711</v>
       </c>
       <c r="C69" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="D69" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69" t="s">
-        <v>927</v>
-      </c>
-      <c r="J69" t="s">
-        <v>415</v>
-      </c>
-      <c r="K69" t="s">
-        <v>416</v>
-      </c>
-      <c r="L69" t="s">
-        <v>999</v>
-      </c>
-      <c r="M69" t="s">
-        <v>417</v>
-      </c>
-      <c r="N69" t="s">
-        <v>418</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1072</v>
-      </c>
-      <c r="P69" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>420</v>
-      </c>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="C70" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
       <c r="D70" t="s">
         <v>422</v>
@@ -7970,10 +7732,10 @@
         <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="C71" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7995,10 +7757,10 @@
         <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C72" t="s">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -8020,21 +7782,24 @@
         <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C73" t="s">
-        <v>839</v>
-      </c>
-      <c r="D73" t="s">
+        <v>793</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="s">
         <v>431</v>
-      </c>
-      <c r="E73" t="s">
-        <v>432</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
+      <c r="I73" t="s">
+        <v>879</v>
+      </c>
       <c r="J73"/>
-      <c r="K73"/>
+      <c r="K73" t="s">
+        <v>432</v>
+      </c>
       <c r="M73"/>
       <c r="N73"/>
       <c r="P73"/>
@@ -8045,84 +7810,84 @@
         <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="C74" t="s">
-        <v>840</v>
-      </c>
-      <c r="D74"/>
+        <v>794</v>
+      </c>
+      <c r="D74" t="s">
+        <v>434</v>
+      </c>
       <c r="E74" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>928</v>
-      </c>
-      <c r="J74"/>
+        <v>880</v>
+      </c>
+      <c r="J74" t="s">
+        <v>436</v>
+      </c>
       <c r="K74" t="s">
-        <v>435</v>
-      </c>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+        <v>437</v>
+      </c>
+      <c r="L74" t="s">
+        <v>946</v>
+      </c>
+      <c r="M74" t="s">
+        <v>438</v>
+      </c>
+      <c r="N74" t="s">
+        <v>439</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P74" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s">
-        <v>773</v>
+        <v>711</v>
       </c>
       <c r="C75" t="s">
-        <v>841</v>
-      </c>
-      <c r="D75" t="s">
-        <v>437</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>929</v>
-      </c>
-      <c r="J75" t="s">
-        <v>439</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="J75"/>
       <c r="K75" t="s">
-        <v>440</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M75" t="s">
-        <v>441</v>
-      </c>
-      <c r="N75" t="s">
-        <v>442</v>
-      </c>
-      <c r="O75" t="s">
-        <v>1073</v>
-      </c>
-      <c r="P75" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q75" t="s">
         <v>444</v>
       </c>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C76" t="s">
-        <v>842</v>
+        <v>796</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
@@ -8131,179 +7896,176 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>930</v>
+        <v>882</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
         <v>447</v>
       </c>
+      <c r="L76" t="s">
+        <v>947</v>
+      </c>
       <c r="M76"/>
-      <c r="N76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="N76" t="s">
+        <v>448</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P76" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="C77" t="s">
-        <v>843</v>
-      </c>
-      <c r="D77"/>
+        <v>797</v>
+      </c>
+      <c r="D77" t="s">
+        <v>452</v>
+      </c>
       <c r="E77" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>931</v>
+        <v>883</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s">
-        <v>1001</v>
+        <v>948</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O77" t="s">
-        <v>1074</v>
+        <v>1015</v>
       </c>
       <c r="P77" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q77" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>774</v>
-      </c>
-      <c r="C78" t="s">
-        <v>844</v>
-      </c>
-      <c r="D78" t="s">
-        <v>455</v>
-      </c>
-      <c r="E78" t="s">
-        <v>456</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
       <c r="G78"/>
       <c r="H78"/>
-      <c r="I78" t="s">
-        <v>932</v>
-      </c>
       <c r="J78"/>
-      <c r="K78" t="s">
-        <v>450</v>
-      </c>
+      <c r="K78"/>
       <c r="L78" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M78"/>
+        <v>949</v>
+      </c>
+      <c r="M78" t="s">
+        <v>457</v>
+      </c>
       <c r="N78" t="s">
-        <v>457</v>
-      </c>
-      <c r="O78" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P78" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q78" t="s">
         <v>458</v>
       </c>
+      <c r="P78"/>
+      <c r="Q78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>752</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79"/>
+        <v>720</v>
+      </c>
+      <c r="C79" t="s">
+        <v>761</v>
+      </c>
+      <c r="D79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" t="s">
+        <v>168</v>
+      </c>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="J79"/>
-      <c r="K79"/>
+      <c r="I79" t="s">
+        <v>884</v>
+      </c>
+      <c r="J79" t="s">
+        <v>460</v>
+      </c>
+      <c r="K79" t="s">
+        <v>461</v>
+      </c>
       <c r="L79" t="s">
-        <v>1003</v>
+        <v>950</v>
       </c>
       <c r="M79" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N79" t="s">
-        <v>461</v>
-      </c>
-      <c r="P79"/>
-      <c r="Q79"/>
+        <v>463</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P79" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="C80" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>467</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>468</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="I80" t="s">
-        <v>933</v>
-      </c>
-      <c r="J80" t="s">
-        <v>463</v>
-      </c>
-      <c r="K80" t="s">
-        <v>464</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M80" t="s">
-        <v>465</v>
-      </c>
-      <c r="N80" t="s">
-        <v>466</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1076</v>
-      </c>
-      <c r="P80" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>468</v>
-      </c>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C81" t="s">
-        <v>845</v>
+        <v>799</v>
       </c>
       <c r="D81" t="s">
         <v>470</v>
@@ -8325,10 +8087,10 @@
         <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="C82" t="s">
-        <v>846</v>
+        <v>800</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -8340,188 +8102,188 @@
       <c r="H82"/>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="M82"/>
-      <c r="N82"/>
+      <c r="L82" t="s">
+        <v>951</v>
+      </c>
+      <c r="M82" t="s">
+        <v>475</v>
+      </c>
+      <c r="N82" t="s">
+        <v>476</v>
+      </c>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s">
-        <v>758</v>
+        <v>717</v>
       </c>
       <c r="C83" t="s">
-        <v>847</v>
+        <v>801</v>
       </c>
       <c r="D83" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E83" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="s">
-        <v>1005</v>
+        <v>952</v>
       </c>
       <c r="M83" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N83" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s">
-        <v>758</v>
+        <v>711</v>
       </c>
       <c r="C84" t="s">
-        <v>848</v>
-      </c>
-      <c r="D84" t="s">
-        <v>481</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="J84"/>
       <c r="K84"/>
-      <c r="L84" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M84" t="s">
-        <v>483</v>
-      </c>
-      <c r="N84" t="s">
-        <v>484</v>
-      </c>
+      <c r="M84"/>
+      <c r="N84"/>
       <c r="P84"/>
       <c r="Q84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>484</v>
+      </c>
+      <c r="B85" t="s">
+        <v>711</v>
+      </c>
+      <c r="C85" t="s">
+        <v>803</v>
+      </c>
+      <c r="D85" t="s">
         <v>485</v>
       </c>
-      <c r="B85" t="s">
-        <v>752</v>
-      </c>
-      <c r="C85" t="s">
-        <v>849</v>
-      </c>
-      <c r="D85"/>
       <c r="E85" t="s">
         <v>486</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
+      <c r="I85" t="s">
+        <v>885</v>
+      </c>
       <c r="J85"/>
-      <c r="K85"/>
+      <c r="K85" t="s">
+        <v>487</v>
+      </c>
+      <c r="L85" t="s">
+        <v>935</v>
+      </c>
       <c r="M85"/>
-      <c r="N85"/>
+      <c r="N85" t="s">
+        <v>290</v>
+      </c>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C86" t="s">
-        <v>850</v>
+        <v>804</v>
       </c>
       <c r="D86" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E86" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="s">
-        <v>934</v>
-      </c>
-      <c r="J86"/>
+        <v>886</v>
+      </c>
+      <c r="J86" t="s">
+        <v>491</v>
+      </c>
       <c r="K86" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L86" t="s">
-        <v>989</v>
-      </c>
-      <c r="M86"/>
+        <v>953</v>
+      </c>
+      <c r="M86" t="s">
+        <v>493</v>
+      </c>
       <c r="N86" t="s">
-        <v>293</v>
-      </c>
-      <c r="P86"/>
-      <c r="Q86"/>
+        <v>494</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P86" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="C87" t="s">
-        <v>851</v>
+        <v>805</v>
       </c>
       <c r="D87" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E87" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87" t="s">
-        <v>935</v>
-      </c>
-      <c r="J87" t="s">
-        <v>494</v>
-      </c>
-      <c r="K87" t="s">
-        <v>495</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1007</v>
-      </c>
-      <c r="M87" t="s">
-        <v>496</v>
-      </c>
-      <c r="N87" t="s">
-        <v>497</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P87" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>499</v>
-      </c>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="C88" t="s">
-        <v>852</v>
+        <v>806</v>
       </c>
       <c r="D88" t="s">
         <v>501</v>
@@ -8533,80 +8295,101 @@
       <c r="H88"/>
       <c r="J88"/>
       <c r="K88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
+      <c r="L88" t="s">
+        <v>954</v>
+      </c>
+      <c r="M88" t="s">
+        <v>503</v>
+      </c>
+      <c r="N88" t="s">
+        <v>504</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P88" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B89" t="s">
-        <v>766</v>
-      </c>
-      <c r="C89" t="s">
-        <v>853</v>
-      </c>
-      <c r="D89" t="s">
-        <v>504</v>
-      </c>
-      <c r="E89" t="s">
-        <v>505</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
       <c r="G89"/>
       <c r="H89"/>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>1008</v>
+        <v>955</v>
       </c>
       <c r="M89" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="N89" t="s">
-        <v>507</v>
+        <v>283</v>
       </c>
       <c r="O89" t="s">
-        <v>1078</v>
+        <v>1019</v>
       </c>
       <c r="P89" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q89" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="J90"/>
-      <c r="K90"/>
+      <c r="F90" t="s">
+        <v>839</v>
+      </c>
+      <c r="G90" t="s">
+        <v>512</v>
+      </c>
+      <c r="H90" t="s">
+        <v>513</v>
+      </c>
+      <c r="I90" t="s">
+        <v>240</v>
+      </c>
+      <c r="J90" t="s">
+        <v>240</v>
+      </c>
+      <c r="K90" t="s">
+        <v>240</v>
+      </c>
       <c r="L90" t="s">
-        <v>1009</v>
+        <v>240</v>
       </c>
       <c r="M90" t="s">
-        <v>511</v>
+        <v>240</v>
       </c>
       <c r="N90" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="O90" t="s">
-        <v>1079</v>
+        <v>240</v>
       </c>
       <c r="P90" t="s">
-        <v>512</v>
+        <v>240</v>
       </c>
       <c r="Q90" t="s">
-        <v>513</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91">
@@ -8614,71 +8397,57 @@
         <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>752</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91"/>
+        <v>711</v>
+      </c>
+      <c r="C91" t="s">
+        <v>807</v>
+      </c>
+      <c r="D91" t="s">
+        <v>515</v>
+      </c>
+      <c r="E91" t="s">
+        <v>516</v>
+      </c>
       <c r="F91" t="s">
-        <v>888</v>
+        <v>840</v>
       </c>
       <c r="G91" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H91" t="s">
-        <v>516</v>
-      </c>
-      <c r="I91" t="s">
-        <v>243</v>
-      </c>
-      <c r="J91" t="s">
-        <v>243</v>
-      </c>
-      <c r="K91" t="s">
-        <v>243</v>
-      </c>
-      <c r="L91" t="s">
-        <v>243</v>
-      </c>
-      <c r="M91" t="s">
-        <v>243</v>
-      </c>
-      <c r="N91" t="s">
-        <v>243</v>
-      </c>
-      <c r="O91" t="s">
-        <v>243</v>
-      </c>
-      <c r="P91" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>243</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B92" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C92" t="s">
-        <v>854</v>
+        <v>807</v>
       </c>
       <c r="D92" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E92" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F92" t="s">
-        <v>889</v>
+        <v>841</v>
       </c>
       <c r="G92" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H92" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -8689,28 +8458,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C93" t="s">
-        <v>854</v>
+        <v>808</v>
       </c>
       <c r="D93" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E93" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F93" t="s">
-        <v>890</v>
+        <v>842</v>
       </c>
       <c r="G93" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H93" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -8721,136 +8490,122 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s">
-        <v>752</v>
-      </c>
-      <c r="C94" t="s">
-        <v>855</v>
-      </c>
-      <c r="D94" t="s">
-        <v>527</v>
-      </c>
-      <c r="E94" t="s">
-        <v>528</v>
-      </c>
-      <c r="F94" t="s">
-        <v>891</v>
-      </c>
-      <c r="G94" t="s">
+        <v>733</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94" t="s">
+        <v>887</v>
+      </c>
+      <c r="J94" t="s">
         <v>529</v>
       </c>
-      <c r="H94" t="s">
+      <c r="K94" t="s">
         <v>530</v>
       </c>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="L94" t="s">
+        <v>956</v>
+      </c>
+      <c r="M94" t="s">
+        <v>531</v>
+      </c>
+      <c r="N94" t="s">
+        <v>532</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P94" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s">
-        <v>775</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95"/>
+        <v>711</v>
+      </c>
+      <c r="C95" t="s">
+        <v>809</v>
+      </c>
+      <c r="D95" t="s">
+        <v>536</v>
+      </c>
+      <c r="E95" t="s">
+        <v>537</v>
+      </c>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="I95" t="s">
-        <v>936</v>
-      </c>
-      <c r="J95" t="s">
-        <v>532</v>
-      </c>
-      <c r="K95" t="s">
-        <v>533</v>
-      </c>
-      <c r="L95" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M95" t="s">
-        <v>534</v>
-      </c>
-      <c r="N95" t="s">
-        <v>535</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P95" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>537</v>
-      </c>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>776</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96"/>
+        <v>711</v>
+      </c>
+      <c r="C96" t="s">
+        <v>810</v>
+      </c>
+      <c r="D96" t="s">
+        <v>539</v>
+      </c>
+      <c r="E96" t="s">
+        <v>540</v>
+      </c>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96" t="s">
-        <v>937</v>
-      </c>
-      <c r="J96" t="s">
-        <v>539</v>
-      </c>
-      <c r="K96" t="s">
-        <v>540</v>
-      </c>
-      <c r="L96" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M96" t="s">
-        <v>541</v>
-      </c>
-      <c r="N96" t="s">
-        <v>542</v>
-      </c>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="M96"/>
+      <c r="N96"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>541</v>
+      </c>
+      <c r="B97" t="s">
+        <v>711</v>
+      </c>
+      <c r="C97" t="s">
+        <v>811</v>
+      </c>
+      <c r="D97" t="s">
+        <v>542</v>
+      </c>
+      <c r="E97" t="s">
         <v>543</v>
       </c>
-      <c r="B97" t="s">
-        <v>776</v>
-      </c>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97" t="s">
-        <v>937</v>
-      </c>
-      <c r="J97" t="s">
-        <v>539</v>
-      </c>
-      <c r="K97" t="s">
-        <v>540</v>
-      </c>
-      <c r="L97" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M97" t="s">
+      <c r="F97" t="s">
+        <v>843</v>
+      </c>
+      <c r="G97" t="s">
         <v>544</v>
       </c>
-      <c r="N97" t="s">
+      <c r="H97" t="s">
         <v>545</v>
       </c>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="M97"/>
+      <c r="N97"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
@@ -8859,10 +8614,10 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="C98" t="s">
-        <v>856</v>
+        <v>812</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8872,28 +8627,49 @@
       </c>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="I98" t="s">
+        <v>888</v>
+      </c>
+      <c r="J98" t="s">
+        <v>549</v>
+      </c>
+      <c r="K98" t="s">
+        <v>550</v>
+      </c>
+      <c r="L98" t="s">
+        <v>957</v>
+      </c>
+      <c r="M98" t="s">
+        <v>551</v>
+      </c>
+      <c r="N98" t="s">
+        <v>552</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P98" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C99" t="s">
-        <v>857</v>
+        <v>813</v>
       </c>
       <c r="D99" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E99" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -8906,29 +8682,22 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="C100" t="s">
-        <v>858</v>
+        <v>814</v>
       </c>
       <c r="D100" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E100" t="s">
-        <v>554</v>
-      </c>
-      <c r="F100" t="s">
-        <v>892</v>
-      </c>
-      <c r="G100" t="s">
-        <v>555</v>
-      </c>
-      <c r="H100" t="s">
-        <v>556</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100"/>
       <c r="J100"/>
       <c r="K100"/>
       <c r="M100"/>
@@ -8938,66 +8707,38 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="C101" t="s">
-        <v>859</v>
+        <v>815</v>
       </c>
       <c r="D101" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E101" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
-      <c r="I101" t="s">
-        <v>938</v>
-      </c>
-      <c r="J101" t="s">
-        <v>560</v>
-      </c>
-      <c r="K101" t="s">
-        <v>561</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M101" t="s">
-        <v>562</v>
-      </c>
-      <c r="N101" t="s">
-        <v>563</v>
-      </c>
-      <c r="O101" t="s">
-        <v>1081</v>
-      </c>
-      <c r="P101" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>565</v>
-      </c>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B102" t="s">
-        <v>752</v>
-      </c>
-      <c r="C102" t="s">
-        <v>860</v>
-      </c>
-      <c r="D102" t="s">
-        <v>567</v>
-      </c>
-      <c r="E102" t="s">
-        <v>568</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
       <c r="G102"/>
       <c r="H102"/>
       <c r="J102"/>
@@ -9009,1069 +8750,831 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>777</v>
-      </c>
-      <c r="C103" t="s">
-        <v>861</v>
-      </c>
-      <c r="D103" t="s">
-        <v>570</v>
-      </c>
-      <c r="E103" t="s">
-        <v>571</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
       <c r="G103"/>
       <c r="H103"/>
       <c r="J103"/>
       <c r="K103"/>
-      <c r="M103"/>
-      <c r="N103"/>
+      <c r="L103" t="s">
+        <v>958</v>
+      </c>
+      <c r="M103" t="s">
+        <v>566</v>
+      </c>
+      <c r="N103" t="s">
+        <v>567</v>
+      </c>
       <c r="P103"/>
       <c r="Q103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B104" t="s">
-        <v>778</v>
+        <v>737</v>
       </c>
       <c r="C104" t="s">
-        <v>862</v>
+        <v>816</v>
       </c>
       <c r="D104" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E104" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="P104"/>
-      <c r="Q104"/>
+      <c r="I104" t="s">
+        <v>889</v>
+      </c>
+      <c r="J104" t="s">
+        <v>571</v>
+      </c>
+      <c r="K104" t="s">
+        <v>572</v>
+      </c>
+      <c r="L104" t="s">
+        <v>959</v>
+      </c>
+      <c r="M104" t="s">
+        <v>573</v>
+      </c>
+      <c r="N104" t="s">
+        <v>574</v>
+      </c>
+      <c r="O104" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P104" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B105" t="s">
-        <v>779</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105"/>
+        <v>738</v>
+      </c>
+      <c r="C105" t="s">
+        <v>817</v>
+      </c>
+      <c r="D105" t="s">
+        <v>578</v>
+      </c>
+      <c r="E105" t="s">
+        <v>579</v>
+      </c>
       <c r="G105"/>
       <c r="H105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="P105"/>
-      <c r="Q105"/>
+      <c r="I105" t="s">
+        <v>890</v>
+      </c>
+      <c r="J105" t="s">
+        <v>580</v>
+      </c>
+      <c r="K105" t="s">
+        <v>581</v>
+      </c>
+      <c r="L105" t="s">
+        <v>960</v>
+      </c>
+      <c r="M105" t="s">
+        <v>582</v>
+      </c>
+      <c r="N105" t="s">
+        <v>583</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P105" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s">
-        <v>774</v>
-      </c>
-      <c r="D106"/>
-      <c r="E106"/>
+        <v>713</v>
+      </c>
+      <c r="C106" t="s">
+        <v>818</v>
+      </c>
+      <c r="D106" t="s">
+        <v>587</v>
+      </c>
+      <c r="E106" t="s">
+        <v>588</v>
+      </c>
       <c r="G106"/>
       <c r="H106"/>
-      <c r="J106"/>
-      <c r="K106"/>
+      <c r="I106" t="s">
+        <v>891</v>
+      </c>
+      <c r="J106" t="s">
+        <v>589</v>
+      </c>
+      <c r="K106" t="s">
+        <v>590</v>
+      </c>
       <c r="L106" t="s">
-        <v>1014</v>
+        <v>961</v>
       </c>
       <c r="M106" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
       <c r="N106" t="s">
-        <v>578</v>
-      </c>
-      <c r="P106"/>
-      <c r="Q106"/>
+        <v>283</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P106" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B107" t="s">
-        <v>780</v>
+        <v>737</v>
       </c>
       <c r="C107" t="s">
-        <v>863</v>
+        <v>819</v>
       </c>
       <c r="D107" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="E107" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>939</v>
+        <v>892</v>
       </c>
       <c r="J107" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="K107" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="L107" t="s">
-        <v>1015</v>
+        <v>962</v>
       </c>
       <c r="M107" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="N107" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="O107" t="s">
-        <v>1082</v>
+        <v>1025</v>
       </c>
       <c r="P107" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="Q107" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="B108" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="C108" t="s">
-        <v>864</v>
+        <v>820</v>
       </c>
       <c r="D108" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="E108" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108" t="s">
-        <v>940</v>
+        <v>893</v>
       </c>
       <c r="J108" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="K108" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="L108" t="s">
-        <v>1016</v>
+        <v>963</v>
       </c>
       <c r="M108" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="N108" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="O108" t="s">
-        <v>1083</v>
+        <v>1026</v>
       </c>
       <c r="P108" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="Q108" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="C109" t="s">
-        <v>865</v>
+        <v>821</v>
       </c>
       <c r="D109" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="E109" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>941</v>
+        <v>894</v>
       </c>
       <c r="J109" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="K109" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="L109" t="s">
-        <v>1017</v>
+        <v>964</v>
       </c>
       <c r="M109" t="s">
-        <v>511</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s">
-        <v>286</v>
+        <v>617</v>
       </c>
       <c r="O109" t="s">
-        <v>1084</v>
+        <v>1027</v>
       </c>
       <c r="P109" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="Q109" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="B110" t="s">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>866</v>
+        <v>822</v>
       </c>
       <c r="D110" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="E110" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>942</v>
+        <v>895</v>
       </c>
       <c r="J110" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="K110" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="L110" t="s">
-        <v>1018</v>
+        <v>965</v>
       </c>
       <c r="M110" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="N110" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s">
-        <v>1085</v>
+        <v>1028</v>
       </c>
       <c r="P110" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="Q110" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="C111" t="s">
-        <v>867</v>
+        <v>823</v>
       </c>
       <c r="D111" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="E111" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="s">
-        <v>943</v>
+        <v>896</v>
       </c>
       <c r="J111" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="K111" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="L111" t="s">
-        <v>1019</v>
+        <v>966</v>
       </c>
       <c r="M111" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="N111" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="O111" t="s">
-        <v>1086</v>
+        <v>1029</v>
       </c>
       <c r="P111" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="Q111" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="B112" t="s">
-        <v>783</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112"/>
+        <v>740</v>
+      </c>
+      <c r="C112" t="s">
+        <v>639</v>
+      </c>
+      <c r="D112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E112" t="s">
+        <v>639</v>
+      </c>
       <c r="G112"/>
       <c r="H112"/>
-      <c r="I112" t="s">
-        <v>944</v>
-      </c>
-      <c r="J112" t="s">
-        <v>623</v>
-      </c>
-      <c r="K112" t="s">
-        <v>624</v>
-      </c>
-      <c r="L112" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M112" t="s">
-        <v>625</v>
-      </c>
-      <c r="N112" t="s">
-        <v>626</v>
-      </c>
-      <c r="O112" t="s">
-        <v>1087</v>
-      </c>
-      <c r="P112" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>628</v>
-      </c>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s">
-        <v>783</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113"/>
+        <v>740</v>
+      </c>
+      <c r="C113" t="s">
+        <v>639</v>
+      </c>
+      <c r="D113" t="s">
+        <v>639</v>
+      </c>
+      <c r="E113" t="s">
+        <v>639</v>
+      </c>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>945</v>
+        <v>897</v>
       </c>
       <c r="J113" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="K113" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="L113" t="s">
-        <v>1021</v>
+        <v>967</v>
       </c>
       <c r="M113" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="N113" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="O113" t="s">
-        <v>1088</v>
+        <v>1030</v>
       </c>
       <c r="P113" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="Q113" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B114" t="s">
-        <v>784</v>
+        <v>740</v>
       </c>
       <c r="C114" t="s">
-        <v>868</v>
+        <v>639</v>
       </c>
       <c r="D114" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E114" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114" t="s">
-        <v>946</v>
+        <v>898</v>
       </c>
       <c r="J114" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K114" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="L114" t="s">
-        <v>1022</v>
+        <v>968</v>
       </c>
       <c r="M114" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="N114" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="O114" t="s">
-        <v>1089</v>
+        <v>1031</v>
       </c>
       <c r="P114" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="Q114" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B115" t="s">
-        <v>785</v>
+        <v>713</v>
       </c>
       <c r="C115" t="s">
-        <v>869</v>
+        <v>824</v>
       </c>
       <c r="D115" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="E115" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
-      <c r="I115" t="s">
-        <v>947</v>
-      </c>
-      <c r="J115" t="s">
-        <v>648</v>
-      </c>
-      <c r="K115" t="s">
-        <v>649</v>
-      </c>
+      <c r="J115"/>
+      <c r="K115"/>
       <c r="L115" t="s">
-        <v>1023</v>
+        <v>969</v>
       </c>
       <c r="M115" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="N115" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="O115" t="s">
-        <v>1089</v>
+        <v>1032</v>
       </c>
       <c r="P115" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="Q115" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B116" t="s">
-        <v>785</v>
+        <v>713</v>
       </c>
       <c r="C116" t="s">
-        <v>870</v>
+        <v>825</v>
       </c>
       <c r="D116" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="E116" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
-      <c r="I116" t="s">
-        <v>948</v>
-      </c>
-      <c r="J116" t="s">
-        <v>655</v>
-      </c>
-      <c r="K116" t="s">
-        <v>656</v>
-      </c>
+      <c r="J116"/>
+      <c r="K116"/>
       <c r="L116" t="s">
-        <v>1024</v>
+        <v>970</v>
       </c>
       <c r="M116" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="N116" t="s">
-        <v>658</v>
-      </c>
-      <c r="O116" t="s">
-        <v>1090</v>
-      </c>
-      <c r="P116" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>660</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="P116"/>
+      <c r="Q116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B117" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="C117" t="s">
-        <v>871</v>
+        <v>826</v>
       </c>
       <c r="D117" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="E117" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="J117" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K117" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="L117" t="s">
-        <v>1025</v>
+        <v>971</v>
       </c>
       <c r="M117" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="N117" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="O117" t="s">
-        <v>1091</v>
+        <v>1033</v>
       </c>
       <c r="P117" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="Q117" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B118" t="s">
-        <v>786</v>
+        <v>713</v>
       </c>
       <c r="C118" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
       <c r="D118" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E118" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118" t="s">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="J118" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="K118" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="L118" t="s">
-        <v>1026</v>
+        <v>972</v>
       </c>
       <c r="M118" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="N118" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="O118" t="s">
-        <v>1092</v>
+        <v>1034</v>
       </c>
       <c r="P118" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="Q118" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B119" t="s">
-        <v>786</v>
+        <v>742</v>
       </c>
       <c r="C119" t="s">
-        <v>680</v>
+        <v>828</v>
       </c>
       <c r="D119" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="E119" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
+      <c r="I119" t="s">
+        <v>901</v>
+      </c>
+      <c r="J119" t="s">
+        <v>687</v>
+      </c>
+      <c r="K119" t="s">
+        <v>688</v>
+      </c>
+      <c r="L119" t="s">
+        <v>973</v>
+      </c>
+      <c r="M119" t="s">
+        <v>689</v>
+      </c>
+      <c r="N119" t="s">
+        <v>690</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P119" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B120" t="s">
-        <v>786</v>
+        <v>743</v>
       </c>
       <c r="C120" t="s">
-        <v>680</v>
+        <v>829</v>
       </c>
       <c r="D120" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="E120" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120" t="s">
-        <v>951</v>
+        <v>902</v>
       </c>
       <c r="J120" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="K120" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="L120" t="s">
-        <v>1027</v>
+        <v>974</v>
       </c>
       <c r="M120" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="N120" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="O120" t="s">
-        <v>1093</v>
+        <v>1036</v>
       </c>
       <c r="P120" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="Q120" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="B121" t="s">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="C121" t="s">
-        <v>680</v>
+        <v>830</v>
       </c>
       <c r="D121" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="E121" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
-      <c r="I121" t="s">
-        <v>952</v>
-      </c>
-      <c r="J121" t="s">
-        <v>689</v>
-      </c>
-      <c r="K121" t="s">
-        <v>690</v>
-      </c>
-      <c r="L121" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M121" t="s">
-        <v>691</v>
-      </c>
-      <c r="N121" t="s">
-        <v>692</v>
-      </c>
-      <c r="O121" t="s">
-        <v>1094</v>
-      </c>
-      <c r="P121" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>694</v>
-      </c>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B122" t="s">
-        <v>754</v>
-      </c>
-      <c r="C122" t="s">
-        <v>873</v>
-      </c>
-      <c r="D122" t="s">
-        <v>696</v>
-      </c>
-      <c r="E122" t="s">
-        <v>697</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
       <c r="G122"/>
       <c r="H122"/>
-      <c r="J122"/>
-      <c r="K122"/>
+      <c r="I122" t="s">
+        <v>903</v>
+      </c>
+      <c r="J122" t="s">
+        <v>706</v>
+      </c>
+      <c r="K122" t="s">
+        <v>707</v>
+      </c>
       <c r="L122" t="s">
-        <v>1029</v>
+        <v>975</v>
       </c>
       <c r="M122" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="N122" t="s">
-        <v>699</v>
+        <v>454</v>
       </c>
       <c r="O122" t="s">
-        <v>1095</v>
+        <v>1037</v>
       </c>
       <c r="P122" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="Q122" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>702</v>
-      </c>
-      <c r="B123" t="s">
-        <v>754</v>
-      </c>
-      <c r="C123" t="s">
-        <v>874</v>
-      </c>
-      <c r="D123" t="s">
-        <v>703</v>
-      </c>
-      <c r="E123" t="s">
-        <v>704</v>
-      </c>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M123" t="s">
-        <v>705</v>
-      </c>
-      <c r="N123" t="s">
-        <v>706</v>
-      </c>
-      <c r="P123"/>
-      <c r="Q123"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>707</v>
-      </c>
-      <c r="B124" t="s">
-        <v>787</v>
-      </c>
-      <c r="C124" t="s">
-        <v>875</v>
-      </c>
-      <c r="D124" t="s">
-        <v>708</v>
-      </c>
-      <c r="E124" t="s">
-        <v>709</v>
-      </c>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124" t="s">
-        <v>953</v>
-      </c>
-      <c r="J124" t="s">
         <v>710</v>
-      </c>
-      <c r="K124" t="s">
-        <v>711</v>
-      </c>
-      <c r="L124" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M124" t="s">
-        <v>712</v>
-      </c>
-      <c r="N124" t="s">
-        <v>713</v>
-      </c>
-      <c r="O124" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P124" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>716</v>
-      </c>
-      <c r="B125" t="s">
-        <v>754</v>
-      </c>
-      <c r="C125" t="s">
-        <v>876</v>
-      </c>
-      <c r="D125" t="s">
-        <v>717</v>
-      </c>
-      <c r="E125" t="s">
-        <v>718</v>
-      </c>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125" t="s">
-        <v>954</v>
-      </c>
-      <c r="J125" t="s">
-        <v>719</v>
-      </c>
-      <c r="K125" t="s">
-        <v>720</v>
-      </c>
-      <c r="L125" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M125" t="s">
-        <v>721</v>
-      </c>
-      <c r="N125" t="s">
-        <v>722</v>
-      </c>
-      <c r="O125" t="s">
-        <v>1097</v>
-      </c>
-      <c r="P125" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>725</v>
-      </c>
-      <c r="B126" t="s">
-        <v>788</v>
-      </c>
-      <c r="C126" t="s">
-        <v>877</v>
-      </c>
-      <c r="D126" t="s">
-        <v>726</v>
-      </c>
-      <c r="E126" t="s">
-        <v>727</v>
-      </c>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126" t="s">
-        <v>955</v>
-      </c>
-      <c r="J126" t="s">
-        <v>728</v>
-      </c>
-      <c r="K126" t="s">
-        <v>729</v>
-      </c>
-      <c r="L126" t="s">
-        <v>1033</v>
-      </c>
-      <c r="M126" t="s">
-        <v>730</v>
-      </c>
-      <c r="N126" t="s">
-        <v>731</v>
-      </c>
-      <c r="O126" t="s">
-        <v>1098</v>
-      </c>
-      <c r="P126" t="s">
-        <v>732</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>734</v>
-      </c>
-      <c r="B127" t="s">
-        <v>789</v>
-      </c>
-      <c r="C127" t="s">
-        <v>878</v>
-      </c>
-      <c r="D127" t="s">
-        <v>735</v>
-      </c>
-      <c r="E127" t="s">
-        <v>736</v>
-      </c>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127" t="s">
-        <v>956</v>
-      </c>
-      <c r="J127" t="s">
-        <v>737</v>
-      </c>
-      <c r="K127" t="s">
-        <v>738</v>
-      </c>
-      <c r="L127" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M127" t="s">
-        <v>739</v>
-      </c>
-      <c r="N127" t="s">
-        <v>740</v>
-      </c>
-      <c r="O127" t="s">
-        <v>1099</v>
-      </c>
-      <c r="P127" t="s">
-        <v>741</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>743</v>
-      </c>
-      <c r="B128" t="s">
-        <v>790</v>
-      </c>
-      <c r="C128" t="s">
-        <v>879</v>
-      </c>
-      <c r="D128" t="s">
-        <v>744</v>
-      </c>
-      <c r="E128" t="s">
-        <v>745</v>
-      </c>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="M128"/>
-      <c r="N128"/>
-      <c r="P128"/>
-      <c r="Q128"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>746</v>
-      </c>
-      <c r="B129" t="s">
-        <v>761</v>
-      </c>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129" t="s">
-        <v>957</v>
-      </c>
-      <c r="J129" t="s">
-        <v>747</v>
-      </c>
-      <c r="K129" t="s">
-        <v>748</v>
-      </c>
-      <c r="L129" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M129" t="s">
-        <v>749</v>
-      </c>
-      <c r="N129" t="s">
-        <v>457</v>
-      </c>
-      <c r="O129" t="s">
-        <v>1100</v>
-      </c>
-      <c r="P129" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>751</v>
       </c>
     </row>
   </sheetData>
